--- a/data/out/wiki/men/fifa/wc/tab_prob_fifa_wc_csato.xlsx
+++ b/data/out/wiki/men/fifa/wc/tab_prob_fifa_wc_csato.xlsx
@@ -1001,31 +1001,31 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.7571243881112499</v>
+        <v>0.7571243881112502</v>
       </c>
       <c r="I3">
         <v>0.1608155933170785</v>
       </c>
       <c r="J3">
-        <v>0.08206001857167156</v>
+        <v>0.08206001857167133</v>
       </c>
       <c r="K3">
-        <v>0.2012738007275228</v>
+        <v>0.201273800727523</v>
       </c>
       <c r="L3">
         <v>-0.0753506158565582</v>
       </c>
       <c r="M3">
-        <v>-0.1259231848709646</v>
+        <v>-0.1259231848709648</v>
       </c>
       <c r="N3">
-        <v>0.2012738007275228</v>
+        <v>0.201273800727523</v>
       </c>
       <c r="O3">
-        <v>0.4025476014550455</v>
+        <v>0.402547601455046</v>
       </c>
       <c r="P3">
-        <v>0.1313890530750861</v>
+        <v>0.131389053075086</v>
       </c>
       <c r="Q3" t="s">
         <v>102</v>
@@ -1054,31 +1054,31 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.9999999999979998</v>
+        <v>0.9999999999979999</v>
       </c>
       <c r="I4">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="J4">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="K4">
-        <v>0.2428756118867499</v>
+        <v>0.2428756118867498</v>
       </c>
       <c r="L4">
         <v>-0.1608155933160785</v>
       </c>
       <c r="M4">
-        <v>-0.08206001857067155</v>
+        <v>-0.08206001857067133</v>
       </c>
       <c r="N4">
-        <v>0.2428756118867499</v>
+        <v>0.2428756118867498</v>
       </c>
       <c r="O4">
-        <v>0.4857512237735</v>
+        <v>0.4857512237734997</v>
       </c>
       <c r="P4">
-        <v>1.333392600384897E-12</v>
+        <v>1.333355592950743e-12</v>
       </c>
       <c r="Q4" t="s">
         <v>102</v>
@@ -1322,25 +1322,25 @@
         <v>0.04476991048765988</v>
       </c>
       <c r="I9">
-        <v>0.5875259692355836</v>
+        <v>0.5875259692355835</v>
       </c>
       <c r="J9">
-        <v>0.3677041202767565</v>
+        <v>0.3677041202767566</v>
       </c>
       <c r="K9">
         <v>-0.05329684550909575</v>
       </c>
       <c r="L9">
-        <v>0.08068524418705858</v>
+        <v>0.08068524418705847</v>
       </c>
       <c r="M9">
-        <v>-0.02738839867796283</v>
+        <v>-0.02738839867796272</v>
       </c>
       <c r="N9">
-        <v>0.08068524418705858</v>
+        <v>0.08068524418705847</v>
       </c>
       <c r="O9">
-        <v>0.1613704883741172</v>
+        <v>0.1613704883741169</v>
       </c>
       <c r="P9">
         <v>0.1725341901734039</v>
@@ -1384,16 +1384,16 @@
         <v>0.01286138254123981</v>
       </c>
       <c r="L10">
-        <v>0.1512270272097859</v>
+        <v>0.151227027209786</v>
       </c>
       <c r="M10">
-        <v>-0.1640884097510257</v>
+        <v>-0.1640884097510258</v>
       </c>
       <c r="N10">
-        <v>0.1640884097510257</v>
+        <v>0.1640884097510258</v>
       </c>
       <c r="O10">
-        <v>0.3281768195020514</v>
+        <v>0.3281768195020516</v>
       </c>
       <c r="P10">
         <v>0.1364877622446356</v>
@@ -1478,7 +1478,7 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>0.126566499441259</v>
+        <v>0.1265664994412591</v>
       </c>
       <c r="I12">
         <v>0.3617149258554834</v>
@@ -1487,7 +1487,7 @@
         <v>0.5117185747032575</v>
       </c>
       <c r="K12">
-        <v>-0.148811794467155</v>
+        <v>-0.1488117944671549</v>
       </c>
       <c r="L12">
         <v>0.1059496314281577</v>
@@ -1496,13 +1496,13 @@
         <v>0.04286216303899726</v>
       </c>
       <c r="N12">
-        <v>0.148811794467155</v>
+        <v>0.1488117944671549</v>
       </c>
       <c r="O12">
-        <v>0.2976235889343099</v>
+        <v>0.2976235889343098</v>
       </c>
       <c r="P12">
-        <v>0.1970957779787381</v>
+        <v>0.1970957779787382</v>
       </c>
       <c r="Q12" t="s">
         <v>105</v>
@@ -1637,28 +1637,28 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>0.3887961666123181</v>
+        <v>0.388796166612318</v>
       </c>
       <c r="I15">
         <v>0.3918663784960509</v>
       </c>
       <c r="J15">
-        <v>0.219337454891631</v>
+        <v>0.2193374548916311</v>
       </c>
       <c r="K15">
-        <v>0.115515031703245</v>
+        <v>0.1155150317032448</v>
       </c>
       <c r="L15">
-        <v>0.06886481412304163</v>
+        <v>0.06886481412304157</v>
       </c>
       <c r="M15">
-        <v>-0.1843798458262866</v>
+        <v>-0.1843798458262864</v>
       </c>
       <c r="N15">
-        <v>0.1843798458262866</v>
+        <v>0.1843798458262864</v>
       </c>
       <c r="O15">
-        <v>0.3687596916525732</v>
+        <v>0.3687596916525728</v>
       </c>
       <c r="P15">
         <v>0.2157231210378727</v>
@@ -1699,19 +1699,19 @@
         <v>0.3228611833540532</v>
       </c>
       <c r="K16">
-        <v>-0.1587996055060322</v>
+        <v>-0.1587996055060321</v>
       </c>
       <c r="L16">
-        <v>0.05527587704361003</v>
+        <v>0.05527587704361009</v>
       </c>
       <c r="M16">
-        <v>0.1035237284624222</v>
+        <v>0.103523728462422</v>
       </c>
       <c r="N16">
-        <v>0.1587996055060322</v>
+        <v>0.1587996055060321</v>
       </c>
       <c r="O16">
-        <v>0.3175992110120645</v>
+        <v>0.3175992110120642</v>
       </c>
       <c r="P16">
         <v>0.2143086804911358</v>
@@ -1796,13 +1796,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.3995158330516633</v>
+        <v>0.3995158330516634</v>
       </c>
       <c r="I18">
         <v>0.2669154849838805</v>
       </c>
       <c r="J18">
-        <v>0.3335686819644563</v>
+        <v>0.3335686819644562</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1820,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.2192917191431169</v>
+        <v>0.219291719143117</v>
       </c>
       <c r="Q18" t="s">
         <v>101</v>
@@ -1858,19 +1858,19 @@
         <v>0.4955621108772233</v>
       </c>
       <c r="K19">
-        <v>-0.1924601820925644</v>
+        <v>-0.1924601820925645</v>
       </c>
       <c r="L19">
         <v>0.03046675317979736</v>
       </c>
       <c r="M19">
-        <v>0.1619934289127671</v>
+        <v>0.1619934289127672</v>
       </c>
       <c r="N19">
-        <v>0.1924601820925644</v>
+        <v>0.1924601820925645</v>
       </c>
       <c r="O19">
-        <v>0.3849203641851289</v>
+        <v>0.3849203641851291</v>
       </c>
       <c r="P19">
         <v>0.2077033186978587</v>
@@ -2011,10 +2011,10 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I22">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="J22">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2032,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>1.333392600384897E-12</v>
+        <v>1.333392600384897e-12</v>
       </c>
       <c r="Q22" t="s">
         <v>101</v>
@@ -2064,28 +2064,28 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I23">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="J23">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="K23">
-        <v>1.110223024625157E-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>2.01948391736579e-28</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>2.01948391736579e-28</v>
       </c>
       <c r="N23">
-        <v>1.110223024625157E-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="O23">
-        <v>1.110223024625157E-16</v>
+        <v>1.110223024629196e-16</v>
       </c>
       <c r="P23">
-        <v>1.333355592950743E-12</v>
+        <v>1.333355592950743e-12</v>
       </c>
       <c r="Q23" t="s">
         <v>109</v>
@@ -2117,28 +2117,28 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I24">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="J24">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>2.01948391736579E-28</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>2.01948391736579E-28</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>2.01948391736579E-28</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>4.03896783473158E-28</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>1.333355592950743E-12</v>
+        <v>1.333355592950743e-12</v>
       </c>
       <c r="Q24" t="s">
         <v>109</v>
@@ -2167,13 +2167,13 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.2262073493195614</v>
+        <v>0.2262073493195615</v>
       </c>
       <c r="I25">
         <v>0.2410965119296804</v>
       </c>
       <c r="J25">
-        <v>0.5326961387507582</v>
+        <v>0.5326961387507581</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2220,31 +2220,31 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>0.09587624987267651</v>
+        <v>0.0958762498726764</v>
       </c>
       <c r="I26">
         <v>0.1973415897810714</v>
       </c>
       <c r="J26">
-        <v>0.7067821603462521</v>
+        <v>0.7067821603462523</v>
       </c>
       <c r="K26">
-        <v>-0.1303310994468849</v>
+        <v>-0.1303310994468851</v>
       </c>
       <c r="L26">
         <v>-0.04375492214860904</v>
       </c>
       <c r="M26">
-        <v>0.1740860215954939</v>
+        <v>0.1740860215954942</v>
       </c>
       <c r="N26">
-        <v>0.1740860215954939</v>
+        <v>0.1740860215954942</v>
       </c>
       <c r="O26">
-        <v>0.3481720431909879</v>
+        <v>0.3481720431909884</v>
       </c>
       <c r="P26">
-        <v>0.1507743398231054</v>
+        <v>0.1507743398231053</v>
       </c>
       <c r="Q26" t="s">
         <v>110</v>
@@ -2282,19 +2282,19 @@
         <v>0.5453893158483734</v>
       </c>
       <c r="K27">
-        <v>-0.04439704044167248</v>
+        <v>-0.04439704044167236</v>
       </c>
       <c r="L27">
         <v>0.2057898849395512</v>
       </c>
       <c r="M27">
-        <v>-0.1613928444978787</v>
+        <v>-0.1613928444978789</v>
       </c>
       <c r="N27">
         <v>0.2057898849395512</v>
       </c>
       <c r="O27">
-        <v>0.4115797698791024</v>
+        <v>0.4115797698791025</v>
       </c>
       <c r="P27">
         <v>0.1791284664147927</v>
@@ -2379,13 +2379,13 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>0.444499881013806</v>
+        <v>0.4444998810138061</v>
       </c>
       <c r="I29">
         <v>0.2620770925775258</v>
       </c>
       <c r="J29">
-        <v>0.2934230264086682</v>
+        <v>0.2934230264086681</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -2441,19 +2441,19 @@
         <v>0.482638045067834</v>
       </c>
       <c r="K30">
-        <v>-0.2019996082625986</v>
+        <v>-0.2019996082625987</v>
       </c>
       <c r="L30">
         <v>0.01278458960343276</v>
       </c>
       <c r="M30">
-        <v>0.1892150186591658</v>
+        <v>0.1892150186591659</v>
       </c>
       <c r="N30">
-        <v>0.2019996082625986</v>
+        <v>0.2019996082625987</v>
       </c>
       <c r="O30">
-        <v>0.4039992165251971</v>
+        <v>0.4039992165251973</v>
       </c>
       <c r="P30">
         <v>0.2109017302791144</v>
@@ -2700,10 +2700,10 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I35">
-        <v>9.999999999980039E-13</v>
+        <v>9.999999999980039e-13</v>
       </c>
       <c r="J35">
-        <v>9.999999999980039E-13</v>
+        <v>9.999999999980039e-13</v>
       </c>
       <c r="K35">
         <v>0.4340283762729581</v>
@@ -2721,7 +2721,7 @@
         <v>0.8680567525459164</v>
       </c>
       <c r="P35">
-        <v>1.333392600384896E-12</v>
+        <v>1.333392600384896e-12</v>
       </c>
       <c r="Q35" t="s">
         <v>112</v>
@@ -2806,10 +2806,10 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I37">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="J37">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="K37">
         <v>0.2703451014193966</v>
@@ -2827,7 +2827,7 @@
         <v>0.5406902028387932</v>
       </c>
       <c r="P37">
-        <v>1.333355592950743E-12</v>
+        <v>1.333355592950743e-12</v>
       </c>
       <c r="Q37" t="s">
         <v>113</v>
@@ -2856,31 +2856,31 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>0.9999999999979999</v>
+        <v>0.9999999999979998</v>
       </c>
       <c r="I38">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="J38">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>-1.110223024625157e-16</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>-2.01948391736579e-28</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>-2.01948391736579e-28</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>1.110223024629196e-16</v>
       </c>
       <c r="P38">
-        <v>1.333355592950743E-12</v>
+        <v>1.333392600384897e-12</v>
       </c>
       <c r="Q38" t="s">
         <v>113</v>
@@ -2912,28 +2912,28 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I39">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="J39">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="K39">
-        <v>-1.110223024625157E-16</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>-2.01948391736579E-28</v>
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>-2.01948391736579E-28</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>1.110223024625157E-16</v>
+        <v>0</v>
       </c>
       <c r="O39">
-        <v>1.110223024629196E-16</v>
+        <v>0</v>
       </c>
       <c r="P39">
-        <v>1.333392600384897E-12</v>
+        <v>1.333392600384897e-12</v>
       </c>
       <c r="Q39" t="s">
         <v>113</v>
@@ -3015,28 +3015,28 @@
         <v>1</v>
       </c>
       <c r="H41">
-        <v>0.4406217672919548</v>
+        <v>0.4406217672919546</v>
       </c>
       <c r="I41">
         <v>0.2940515729682254</v>
       </c>
       <c r="J41">
-        <v>0.2653266597398198</v>
+        <v>0.26532665973982</v>
       </c>
       <c r="K41">
-        <v>-0.263325424601176</v>
+        <v>-0.2633254246011763</v>
       </c>
       <c r="L41">
         <v>0.1122112170447642</v>
       </c>
       <c r="M41">
-        <v>0.1511142075564118</v>
+        <v>0.1511142075564121</v>
       </c>
       <c r="N41">
-        <v>0.263325424601176</v>
+        <v>0.2633254246011763</v>
       </c>
       <c r="O41">
-        <v>0.5266508492023521</v>
+        <v>0.5266508492023525</v>
       </c>
       <c r="P41">
         <v>0.2163292980849123</v>
@@ -3077,19 +3077,19 @@
         <v>0.4360987097648811</v>
       </c>
       <c r="K42">
-        <v>-0.1857064307305922</v>
+        <v>-0.185706430730592</v>
       </c>
       <c r="L42">
         <v>0.01493438070553094</v>
       </c>
       <c r="M42">
-        <v>0.1707720500250613</v>
+        <v>0.1707720500250611</v>
       </c>
       <c r="N42">
-        <v>0.1857064307305922</v>
+        <v>0.185706430730592</v>
       </c>
       <c r="O42">
-        <v>0.3714128614611845</v>
+        <v>0.371412861461184</v>
       </c>
       <c r="P42">
         <v>0.2164545889865108</v>
@@ -3177,25 +3177,25 @@
         <v>0.1476568492407275</v>
       </c>
       <c r="I44">
-        <v>0.6302954527274288</v>
+        <v>0.6302954527274287</v>
       </c>
       <c r="J44">
-        <v>0.2220476980318437</v>
+        <v>0.2220476980318438</v>
       </c>
       <c r="K44">
         <v>0.03023197620255103</v>
       </c>
       <c r="L44">
-        <v>0.2183254278648497</v>
+        <v>0.2183254278648496</v>
       </c>
       <c r="M44">
-        <v>-0.2485574040674007</v>
+        <v>-0.2485574040674006</v>
       </c>
       <c r="N44">
-        <v>0.2485574040674007</v>
+        <v>0.2485574040674006</v>
       </c>
       <c r="O44">
-        <v>0.4971148081348015</v>
+        <v>0.4971148081348012</v>
       </c>
       <c r="P44">
         <v>0.1772066389807286</v>
@@ -3283,10 +3283,10 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I46">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980047e-13</v>
       </c>
       <c r="J46">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980047e-13</v>
       </c>
       <c r="K46">
         <v>0.2767816016607595</v>
@@ -3304,7 +3304,7 @@
         <v>0.553563203321519</v>
       </c>
       <c r="P46">
-        <v>1.333355592950743E-12</v>
+        <v>1.333355592950743e-12</v>
       </c>
       <c r="Q46" t="s">
         <v>116</v>
@@ -3336,28 +3336,28 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I47">
-        <v>9.999999999980047E-13</v>
+        <v>9.999999999980047e-13</v>
       </c>
       <c r="J47">
-        <v>9.999999999980047E-13</v>
+        <v>9.999999999980047e-13</v>
       </c>
       <c r="K47">
         <v>0</v>
       </c>
       <c r="L47">
-        <v>2.01948391736579E-28</v>
+        <v>0</v>
       </c>
       <c r="M47">
-        <v>2.01948391736579E-28</v>
+        <v>0</v>
       </c>
       <c r="N47">
-        <v>2.01948391736579E-28</v>
+        <v>0</v>
       </c>
       <c r="O47">
-        <v>4.03896783473158E-28</v>
+        <v>0</v>
       </c>
       <c r="P47">
-        <v>1.333355592950743E-12</v>
+        <v>1.333355592950743e-12</v>
       </c>
       <c r="Q47" t="s">
         <v>116</v>
@@ -3389,28 +3389,28 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I48">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="J48">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="K48">
         <v>0</v>
       </c>
       <c r="L48">
-        <v>-4.03896783473158E-28</v>
+        <v>-4.03896783473158e-28</v>
       </c>
       <c r="M48">
-        <v>-4.03896783473158E-28</v>
+        <v>-4.03896783473158e-28</v>
       </c>
       <c r="N48">
-        <v>4.03896783473158E-28</v>
+        <v>4.03896783473158e-28</v>
       </c>
       <c r="O48">
-        <v>8.077935669463161E-28</v>
+        <v>8.077935669463161e-28</v>
       </c>
       <c r="P48">
-        <v>1.333355592950743E-12</v>
+        <v>1.333355592950743e-12</v>
       </c>
       <c r="Q48" t="s">
         <v>117</v>
@@ -3492,16 +3492,16 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>0.9999999999979999</v>
+        <v>0.9999999999979998</v>
       </c>
       <c r="I50">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="J50">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="K50">
-        <v>0.348341479851641</v>
+        <v>0.3483414798516409</v>
       </c>
       <c r="L50">
         <v>-0.2031390166605352</v>
@@ -3510,13 +3510,13 @@
         <v>-0.1452024631911059</v>
       </c>
       <c r="N50">
-        <v>0.348341479851641</v>
+        <v>0.3483414798516409</v>
       </c>
       <c r="O50">
-        <v>0.696682959703282</v>
+        <v>0.6966829597032819</v>
       </c>
       <c r="P50">
-        <v>1.333355592950743E-12</v>
+        <v>1.333392600384897e-12</v>
       </c>
       <c r="Q50" t="s">
         <v>103</v>
@@ -3548,13 +3548,13 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I51">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="J51">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="K51">
-        <v>-1.110223024625157E-16</v>
+        <v>0</v>
       </c>
       <c r="L51">
         <v>0</v>
@@ -3563,13 +3563,13 @@
         <v>0</v>
       </c>
       <c r="N51">
-        <v>1.110223024625157E-16</v>
+        <v>0</v>
       </c>
       <c r="O51">
-        <v>1.110223024625157E-16</v>
+        <v>0</v>
       </c>
       <c r="P51">
-        <v>1.333392600384897E-12</v>
+        <v>1.333392600384897e-12</v>
       </c>
       <c r="Q51" t="s">
         <v>103</v>
@@ -3654,7 +3654,7 @@
         <v>0.4255685492567209</v>
       </c>
       <c r="I53">
-        <v>0.428233717299139</v>
+        <v>0.4282337172991389</v>
       </c>
       <c r="J53">
         <v>0.1461977334441401</v>
@@ -3663,19 +3663,19 @@
         <v>0.0239263100483792</v>
       </c>
       <c r="L53">
-        <v>0.1614524668108805</v>
+        <v>0.1614524668108804</v>
       </c>
       <c r="M53">
-        <v>-0.1853787768592597</v>
+        <v>-0.1853787768592596</v>
       </c>
       <c r="N53">
-        <v>0.1853787768592597</v>
+        <v>0.1853787768592596</v>
       </c>
       <c r="O53">
-        <v>0.3707575537185194</v>
+        <v>0.3707575537185193</v>
       </c>
       <c r="P53">
-        <v>0.204711171995829</v>
+        <v>0.2047111719958291</v>
       </c>
       <c r="Q53" t="s">
         <v>102</v>
@@ -3716,10 +3716,10 @@
         <v>-0.1685640833381195</v>
       </c>
       <c r="L54">
-        <v>0.09167266351736952</v>
+        <v>0.09167266351736958</v>
       </c>
       <c r="M54">
-        <v>0.07689141982074993</v>
+        <v>0.07689141982074987</v>
       </c>
       <c r="N54">
         <v>0.1685640833381195</v>
@@ -3928,16 +3928,16 @@
         <v>-0.01525198730691668</v>
       </c>
       <c r="L58">
-        <v>0.02475468808638187</v>
+        <v>0.0247546880863819</v>
       </c>
       <c r="M58">
         <v>-0.009502700779465134</v>
       </c>
       <c r="N58">
-        <v>0.02475468808638187</v>
+        <v>0.0247546880863819</v>
       </c>
       <c r="O58">
-        <v>0.04950937617276369</v>
+        <v>0.04950937617276371</v>
       </c>
       <c r="P58">
         <v>0.1141156859447787</v>
@@ -3972,25 +3972,25 @@
         <v>0.01948701805508835</v>
       </c>
       <c r="I59">
-        <v>0.2202496608458261</v>
+        <v>0.220249660845826</v>
       </c>
       <c r="J59">
-        <v>0.7602633210990856</v>
+        <v>0.7602633210990857</v>
       </c>
       <c r="K59">
         <v>-0.004457250319257366</v>
       </c>
       <c r="L59">
-        <v>0.03283551607549848</v>
+        <v>0.03283551607549839</v>
       </c>
       <c r="M59">
-        <v>-0.02837826575624114</v>
+        <v>-0.02837826575624103</v>
       </c>
       <c r="N59">
-        <v>0.03283551607549848</v>
+        <v>0.03283551607549839</v>
       </c>
       <c r="O59">
-        <v>0.06567103215099698</v>
+        <v>0.06567103215099679</v>
       </c>
       <c r="P59">
         <v>0.1243700085386693</v>
@@ -4078,10 +4078,10 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I61">
-        <v>9.999999999980039E-13</v>
+        <v>9.999999999980039e-13</v>
       </c>
       <c r="J61">
-        <v>9.999999999980039E-13</v>
+        <v>9.999999999980039e-13</v>
       </c>
       <c r="K61">
         <v>0.2176937690693255</v>
@@ -4099,7 +4099,7 @@
         <v>0.4353875381386511</v>
       </c>
       <c r="P61">
-        <v>1.333392600384896E-12</v>
+        <v>1.333392600384896e-12</v>
       </c>
       <c r="Q61" t="s">
         <v>111</v>
@@ -4131,10 +4131,10 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I62">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="J62">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="K62">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="P62">
-        <v>1.333392600384897E-12</v>
+        <v>1.333392600384897e-12</v>
       </c>
       <c r="Q62" t="s">
         <v>101</v>
@@ -4184,10 +4184,10 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I63">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="J63">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="K63">
         <v>0</v>
@@ -4205,7 +4205,7 @@
         <v>0</v>
       </c>
       <c r="P63">
-        <v>1.333392600384897E-12</v>
+        <v>1.333392600384897e-12</v>
       </c>
       <c r="Q63" t="s">
         <v>119</v>
@@ -4237,10 +4237,10 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I64">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="J64">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="K64">
         <v>0</v>
@@ -4258,7 +4258,7 @@
         <v>0</v>
       </c>
       <c r="P64">
-        <v>1.333392600384897E-12</v>
+        <v>1.333392600384897e-12</v>
       </c>
       <c r="Q64" t="s">
         <v>120</v>
@@ -4393,16 +4393,16 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>0.9999999999979998</v>
+        <v>0.9999999999979999</v>
       </c>
       <c r="I67">
-        <v>9.999999999980039E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="J67">
-        <v>9.999999999980039E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="K67">
-        <v>0.2623091016936019</v>
+        <v>0.262309101693602</v>
       </c>
       <c r="L67">
         <v>-0.1669146998385018</v>
@@ -4411,13 +4411,13 @@
         <v>-0.09539440185510023</v>
       </c>
       <c r="N67">
-        <v>0.2623091016936019</v>
+        <v>0.262309101693602</v>
       </c>
       <c r="O67">
         <v>0.524618203387204</v>
       </c>
       <c r="P67">
-        <v>1.333392600384896E-12</v>
+        <v>1.333355592950743e-12</v>
       </c>
       <c r="Q67" t="s">
         <v>121</v>
@@ -4446,28 +4446,28 @@
         <v>1</v>
       </c>
       <c r="H68">
-        <v>0.1431143558249922</v>
+        <v>0.1431143558249921</v>
       </c>
       <c r="I68">
         <v>0.8161078119001218</v>
       </c>
       <c r="J68">
-        <v>0.04077783227488596</v>
+        <v>0.04077783227488607</v>
       </c>
       <c r="K68">
-        <v>-0.8568856441730076</v>
+        <v>-0.8568856441730078</v>
       </c>
       <c r="L68">
         <v>0.8161078118991218</v>
       </c>
       <c r="M68">
-        <v>0.04077783227388596</v>
+        <v>0.04077783227388607</v>
       </c>
       <c r="N68">
-        <v>0.8568856441730076</v>
+        <v>0.8568856441730078</v>
       </c>
       <c r="O68">
-        <v>1.713771288346015</v>
+        <v>1.713771288346016</v>
       </c>
       <c r="P68">
         <v>0.1039411629691181</v>
@@ -4499,13 +4499,13 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>0.9999999999979999</v>
+        <v>0.9999999999979998</v>
       </c>
       <c r="I69">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="J69">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="K69">
         <v>0</v>
@@ -4523,7 +4523,7 @@
         <v>0</v>
       </c>
       <c r="P69">
-        <v>1.333355592950743E-12</v>
+        <v>1.333392600384897e-12</v>
       </c>
       <c r="Q69" t="s">
         <v>101</v>
@@ -4555,28 +4555,28 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I70">
-        <v>9.999999999980039E-13</v>
+        <v>9.999999999980039e-13</v>
       </c>
       <c r="J70">
-        <v>9.999999999980039E-13</v>
+        <v>9.999999999980039e-13</v>
       </c>
       <c r="K70">
-        <v>-1.110223024625157E-16</v>
+        <v>0</v>
       </c>
       <c r="L70">
-        <v>-4.03896783473158E-28</v>
+        <v>-4.03896783473158e-28</v>
       </c>
       <c r="M70">
-        <v>-4.03896783473158E-28</v>
+        <v>-4.03896783473158e-28</v>
       </c>
       <c r="N70">
-        <v>1.110223024625157E-16</v>
+        <v>4.03896783473158e-28</v>
       </c>
       <c r="O70">
-        <v>1.110223024633234E-16</v>
+        <v>8.077935669463161e-28</v>
       </c>
       <c r="P70">
-        <v>1.333392600384896E-12</v>
+        <v>1.333392600384896e-12</v>
       </c>
       <c r="Q70" t="s">
         <v>123</v>
@@ -4608,28 +4608,28 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I71">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="J71">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="K71">
         <v>0</v>
       </c>
       <c r="L71">
-        <v>4.03896783473158E-28</v>
+        <v>4.03896783473158e-28</v>
       </c>
       <c r="M71">
-        <v>4.03896783473158E-28</v>
+        <v>4.03896783473158e-28</v>
       </c>
       <c r="N71">
-        <v>4.03896783473158E-28</v>
+        <v>4.03896783473158e-28</v>
       </c>
       <c r="O71">
-        <v>8.077935669463161E-28</v>
+        <v>8.077935669463161e-28</v>
       </c>
       <c r="P71">
-        <v>1.333392600384897E-12</v>
+        <v>1.333392600384897e-12</v>
       </c>
       <c r="Q71" t="s">
         <v>123</v>
@@ -4661,13 +4661,13 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I72">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="J72">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="K72">
-        <v>1.110223024625157E-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="L72">
         <v>0</v>
@@ -4676,13 +4676,13 @@
         <v>0</v>
       </c>
       <c r="N72">
-        <v>1.110223024625157E-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="O72">
-        <v>1.110223024625157E-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="P72">
-        <v>1.333355592950743E-12</v>
+        <v>1.333355592950743e-12</v>
       </c>
       <c r="Q72" t="s">
         <v>124</v>
@@ -4714,28 +4714,28 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I73">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="J73">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="K73">
         <v>0</v>
       </c>
       <c r="L73">
-        <v>2.01948391736579E-28</v>
+        <v>2.01948391736579e-28</v>
       </c>
       <c r="M73">
-        <v>2.01948391736579E-28</v>
+        <v>2.01948391736579e-28</v>
       </c>
       <c r="N73">
-        <v>2.01948391736579E-28</v>
+        <v>2.01948391736579e-28</v>
       </c>
       <c r="O73">
-        <v>4.03896783473158E-28</v>
+        <v>4.03896783473158e-28</v>
       </c>
       <c r="P73">
-        <v>1.333355592950743E-12</v>
+        <v>1.333355592950743e-12</v>
       </c>
       <c r="Q73" t="s">
         <v>123</v>
@@ -4767,28 +4767,28 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I74">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="J74">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="K74">
-        <v>-1.110223024625157E-16</v>
+        <v>-1.110223024625157e-16</v>
       </c>
       <c r="L74">
-        <v>-2.01948391736579E-28</v>
+        <v>-2.01948391736579e-28</v>
       </c>
       <c r="M74">
-        <v>-2.01948391736579E-28</v>
+        <v>-2.01948391736579e-28</v>
       </c>
       <c r="N74">
-        <v>1.110223024625157E-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="O74">
-        <v>1.110223024629196E-16</v>
+        <v>1.110223024629196e-16</v>
       </c>
       <c r="P74">
-        <v>1.333392600384897E-12</v>
+        <v>1.333392600384897e-12</v>
       </c>
       <c r="Q74" t="s">
         <v>123</v>
@@ -4817,13 +4817,13 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>0.4210883582527054</v>
+        <v>0.4210883582527053</v>
       </c>
       <c r="I75">
         <v>0.2651026146472967</v>
       </c>
       <c r="J75">
-        <v>0.3138090270999979</v>
+        <v>0.313809027099998</v>
       </c>
       <c r="K75">
         <v>0</v>
@@ -4870,13 +4870,13 @@
         <v>1</v>
       </c>
       <c r="H76">
-        <v>0.2226753758880576</v>
+        <v>0.2226753758880575</v>
       </c>
       <c r="I76">
         <v>0.2950362063923719</v>
       </c>
       <c r="J76">
-        <v>0.4822884177195705</v>
+        <v>0.4822884177195706</v>
       </c>
       <c r="K76">
         <v>-0.1984129823646478</v>
@@ -4932,19 +4932,19 @@
         <v>0.2927774828227167</v>
       </c>
       <c r="K77">
-        <v>0.158074515804901</v>
+        <v>0.1580745158049011</v>
       </c>
       <c r="L77">
         <v>0.03143641909195288</v>
       </c>
       <c r="M77">
-        <v>-0.1895109348968538</v>
+        <v>-0.1895109348968539</v>
       </c>
       <c r="N77">
-        <v>0.1895109348968538</v>
+        <v>0.1895109348968539</v>
       </c>
       <c r="O77">
-        <v>0.3790218697937077</v>
+        <v>0.3790218697937079</v>
       </c>
       <c r="P77">
         <v>0.2209088301123886</v>
@@ -5138,10 +5138,10 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I81">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="J81">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="K81">
         <v>0</v>
@@ -5159,7 +5159,7 @@
         <v>0</v>
       </c>
       <c r="P81">
-        <v>1.333392600384897E-12</v>
+        <v>1.333392600384897e-12</v>
       </c>
       <c r="Q81" t="s">
         <v>101</v>
@@ -5191,10 +5191,10 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I82">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="J82">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="K82">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>0</v>
       </c>
       <c r="P82">
-        <v>1.333392600384897E-12</v>
+        <v>1.333392600384897e-12</v>
       </c>
       <c r="Q82" t="s">
         <v>113</v>
@@ -5294,31 +5294,31 @@
         <v>1</v>
       </c>
       <c r="H84">
-        <v>0.1796161912819902</v>
+        <v>0.1796161912819901</v>
       </c>
       <c r="I84">
         <v>0.2412178706725884</v>
       </c>
       <c r="J84">
-        <v>0.5791659380454214</v>
+        <v>0.5791659380454215</v>
       </c>
       <c r="K84">
-        <v>-0.1806700579319414</v>
+        <v>-0.1806700579319415</v>
       </c>
       <c r="L84">
         <v>-0.02628945223549256</v>
       </c>
       <c r="M84">
-        <v>0.2069595101674339</v>
+        <v>0.206959510167434</v>
       </c>
       <c r="N84">
-        <v>0.2069595101674339</v>
+        <v>0.206959510167434</v>
       </c>
       <c r="O84">
-        <v>0.4139190203348678</v>
+        <v>0.413919020334868</v>
       </c>
       <c r="P84">
-        <v>0.1913729263018337</v>
+        <v>0.1913729263018336</v>
       </c>
       <c r="Q84" t="s">
         <v>126</v>
@@ -5356,19 +5356,19 @@
         <v>0.2297371564160182</v>
       </c>
       <c r="K85">
-        <v>0.04475711127872084</v>
+        <v>0.04475711127872095</v>
       </c>
       <c r="L85">
         <v>0.3046716703506823</v>
       </c>
       <c r="M85">
-        <v>-0.3494287816294032</v>
+        <v>-0.3494287816294033</v>
       </c>
       <c r="N85">
-        <v>0.3494287816294032</v>
+        <v>0.3494287816294033</v>
       </c>
       <c r="O85">
-        <v>0.6988575632588063</v>
+        <v>0.6988575632588065</v>
       </c>
       <c r="P85">
         <v>0.1996273563537615</v>
@@ -5559,13 +5559,13 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>0.2744461759413322</v>
+        <v>0.2744461759413324</v>
       </c>
       <c r="I89">
         <v>0.2555390019415993</v>
       </c>
       <c r="J89">
-        <v>0.4700148221170684</v>
+        <v>0.4700148221170683</v>
       </c>
       <c r="K89">
         <v>0</v>
@@ -5621,19 +5621,19 @@
         <v>0.6526995549620432</v>
       </c>
       <c r="K90">
-        <v>-0.151043606506057</v>
+        <v>-0.1510436065060571</v>
       </c>
       <c r="L90">
         <v>-0.03164112633891789</v>
       </c>
       <c r="M90">
-        <v>0.1826847328449748</v>
+        <v>0.1826847328449749</v>
       </c>
       <c r="N90">
-        <v>0.1826847328449748</v>
+        <v>0.1826847328449749</v>
       </c>
       <c r="O90">
-        <v>0.3653694656899497</v>
+        <v>0.3653694656899499</v>
       </c>
       <c r="P90">
         <v>0.169541612703243</v>
@@ -5774,25 +5774,25 @@
         <v>0.461876559145604</v>
       </c>
       <c r="I93">
-        <v>0.356571790535799</v>
+        <v>0.3565717905357991</v>
       </c>
       <c r="J93">
-        <v>0.181551650318597</v>
+        <v>0.1815516503185969</v>
       </c>
       <c r="K93">
         <v>0.1259170024202321</v>
       </c>
       <c r="L93">
-        <v>0.04401450425892878</v>
+        <v>0.04401450425892889</v>
       </c>
       <c r="M93">
-        <v>-0.1699315066791608</v>
+        <v>-0.169931506679161</v>
       </c>
       <c r="N93">
-        <v>0.1699315066791608</v>
+        <v>0.169931506679161</v>
       </c>
       <c r="O93">
-        <v>0.3398630133583217</v>
+        <v>0.3398630133583219</v>
       </c>
       <c r="P93">
         <v>0.2088552001908352</v>
@@ -5877,16 +5877,16 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>0.9999999999979998</v>
+        <v>0.9999999999979999</v>
       </c>
       <c r="I95">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="J95">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="K95">
-        <v>0.2786503125376268</v>
+        <v>0.278650312537627</v>
       </c>
       <c r="L95">
         <v>-0.1742597010311111</v>
@@ -5895,13 +5895,13 @@
         <v>-0.1043906115065159</v>
       </c>
       <c r="N95">
-        <v>0.2786503125376268</v>
+        <v>0.278650312537627</v>
       </c>
       <c r="O95">
         <v>0.5573006250752539</v>
       </c>
       <c r="P95">
-        <v>1.333392600384897E-12</v>
+        <v>1.333355592950743e-12</v>
       </c>
       <c r="Q95" t="s">
         <v>128</v>
@@ -5933,28 +5933,28 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I96">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980047e-13</v>
       </c>
       <c r="J96">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980047e-13</v>
       </c>
       <c r="K96">
-        <v>1.110223024625157E-16</v>
+        <v>0</v>
       </c>
       <c r="L96">
-        <v>2.01948391736579E-28</v>
+        <v>4.03896783473158e-28</v>
       </c>
       <c r="M96">
-        <v>2.01948391736579E-28</v>
+        <v>4.03896783473158e-28</v>
       </c>
       <c r="N96">
-        <v>1.110223024625157E-16</v>
+        <v>4.03896783473158e-28</v>
       </c>
       <c r="O96">
-        <v>1.110223024629196E-16</v>
+        <v>8.077935669463161e-28</v>
       </c>
       <c r="P96">
-        <v>1.333355592950743E-12</v>
+        <v>1.333355592950743e-12</v>
       </c>
       <c r="Q96" t="s">
         <v>128</v>
@@ -5986,10 +5986,10 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I97">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980047e-13</v>
       </c>
       <c r="J97">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980047e-13</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -6007,7 +6007,7 @@
         <v>0</v>
       </c>
       <c r="P97">
-        <v>1.333355592950743E-12</v>
+        <v>1.333355592950743e-12</v>
       </c>
       <c r="Q97" t="s">
         <v>128</v>
@@ -6036,31 +6036,31 @@
         <v>1</v>
       </c>
       <c r="H98">
-        <v>0.9999999999979999</v>
+        <v>0.9999999999979998</v>
       </c>
       <c r="I98">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="J98">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="K98">
-        <v>0</v>
+        <v>-1.110223024625157e-16</v>
       </c>
       <c r="L98">
-        <v>0</v>
+        <v>-2.01948391736579e-28</v>
       </c>
       <c r="M98">
-        <v>0</v>
+        <v>-2.01948391736579e-28</v>
       </c>
       <c r="N98">
-        <v>0</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="O98">
-        <v>0</v>
+        <v>1.110223024629196e-16</v>
       </c>
       <c r="P98">
-        <v>1.333355592950743E-12</v>
+        <v>1.333392600384897e-12</v>
       </c>
       <c r="Q98" t="s">
         <v>129</v>
@@ -6092,28 +6092,28 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I99">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="J99">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="K99">
-        <v>0</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="L99">
-        <v>-2.01948391736579E-28</v>
+        <v>-2.01948391736579e-28</v>
       </c>
       <c r="M99">
-        <v>-2.01948391736579E-28</v>
+        <v>-2.01948391736579e-28</v>
       </c>
       <c r="N99">
-        <v>2.01948391736579E-28</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="O99">
-        <v>4.03896783473158E-28</v>
+        <v>1.110223024629196e-16</v>
       </c>
       <c r="P99">
-        <v>1.333355592950743E-12</v>
+        <v>1.333355592950743e-12</v>
       </c>
       <c r="Q99" t="s">
         <v>128</v>
@@ -6145,10 +6145,10 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I100">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="J100">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="K100">
         <v>0</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="P100">
-        <v>1.333355592950743E-12</v>
+        <v>1.333355592950743e-12</v>
       </c>
       <c r="Q100" t="s">
         <v>128</v>
@@ -6198,28 +6198,28 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I101">
-        <v>9.999999999980039E-13</v>
+        <v>9.999999999980039e-13</v>
       </c>
       <c r="J101">
-        <v>9.999999999980039E-13</v>
+        <v>9.999999999980039e-13</v>
       </c>
       <c r="K101">
         <v>0</v>
       </c>
       <c r="L101">
-        <v>-4.03896783473158E-28</v>
+        <v>-4.03896783473158e-28</v>
       </c>
       <c r="M101">
-        <v>-4.03896783473158E-28</v>
+        <v>-4.03896783473158e-28</v>
       </c>
       <c r="N101">
-        <v>4.03896783473158E-28</v>
+        <v>4.03896783473158e-28</v>
       </c>
       <c r="O101">
-        <v>8.077935669463161E-28</v>
+        <v>8.077935669463161e-28</v>
       </c>
       <c r="P101">
-        <v>1.333355592950742E-12</v>
+        <v>1.333355592950742e-12</v>
       </c>
       <c r="Q101" t="s">
         <v>128</v>
@@ -6354,22 +6354,22 @@
         <v>2</v>
       </c>
       <c r="H104">
-        <v>0.06669983122452439</v>
+        <v>0.06669983122452428</v>
       </c>
       <c r="I104">
         <v>0.3946692686940582</v>
       </c>
       <c r="J104">
-        <v>0.5386309000814175</v>
+        <v>0.5386309000814176</v>
       </c>
       <c r="K104">
-        <v>-0.07999027994413033</v>
+        <v>-0.07999027994413044</v>
       </c>
       <c r="L104">
         <v>0.1539754262677122</v>
       </c>
       <c r="M104">
-        <v>-0.07398514632358189</v>
+        <v>-0.07398514632358177</v>
       </c>
       <c r="N104">
         <v>0.1539754262677122</v>
@@ -6416,19 +6416,19 @@
         <v>0.4046705014306621</v>
       </c>
       <c r="K105">
-        <v>0.06475040843385216</v>
+        <v>0.06475040843385227</v>
       </c>
       <c r="L105">
         <v>0.06920999021690322</v>
       </c>
       <c r="M105">
-        <v>-0.1339603986507554</v>
+        <v>-0.1339603986507555</v>
       </c>
       <c r="N105">
-        <v>0.1339603986507554</v>
+        <v>0.1339603986507555</v>
       </c>
       <c r="O105">
-        <v>0.2679207973015107</v>
+        <v>0.267920797301511</v>
       </c>
       <c r="P105">
         <v>0.2012595509726097</v>
@@ -6472,7 +6472,7 @@
         <v>-0.06636244747900943</v>
       </c>
       <c r="L106">
-        <v>-0.02985414282181742</v>
+        <v>-0.02985414282181736</v>
       </c>
       <c r="M106">
         <v>0.09621659030082685</v>
@@ -6516,10 +6516,10 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I107">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="J107">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="K107">
         <v>0</v>
@@ -6537,7 +6537,7 @@
         <v>0</v>
       </c>
       <c r="P107">
-        <v>1.333355592950743E-12</v>
+        <v>1.333355592950743e-12</v>
       </c>
       <c r="Q107" t="s">
         <v>101</v>
@@ -6569,10 +6569,10 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I108">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="J108">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="K108">
         <v>0</v>
@@ -6590,7 +6590,7 @@
         <v>0</v>
       </c>
       <c r="P108">
-        <v>1.333355592950743E-12</v>
+        <v>1.333355592950743e-12</v>
       </c>
       <c r="Q108" t="s">
         <v>131</v>
@@ -6622,28 +6622,28 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I109">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="J109">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="K109">
         <v>0</v>
       </c>
       <c r="L109">
-        <v>2.01948391736579E-28</v>
+        <v>2.01948391736579e-28</v>
       </c>
       <c r="M109">
-        <v>2.01948391736579E-28</v>
+        <v>2.01948391736579e-28</v>
       </c>
       <c r="N109">
-        <v>2.01948391736579E-28</v>
+        <v>2.01948391736579e-28</v>
       </c>
       <c r="O109">
-        <v>4.03896783473158E-28</v>
+        <v>4.03896783473158e-28</v>
       </c>
       <c r="P109">
-        <v>1.333355592950743E-12</v>
+        <v>1.333355592950743e-12</v>
       </c>
       <c r="Q109" t="s">
         <v>131</v>
@@ -6675,10 +6675,10 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I110">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="J110">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="K110">
         <v>0</v>
@@ -6696,7 +6696,7 @@
         <v>0</v>
       </c>
       <c r="P110">
-        <v>1.333355592950743E-12</v>
+        <v>1.333355592950743e-12</v>
       </c>
       <c r="Q110" t="s">
         <v>131</v>
@@ -6728,28 +6728,28 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I111">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="J111">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="K111">
         <v>0</v>
       </c>
       <c r="L111">
-        <v>-2.01948391736579E-28</v>
+        <v>-2.01948391736579e-28</v>
       </c>
       <c r="M111">
-        <v>-2.01948391736579E-28</v>
+        <v>-2.01948391736579e-28</v>
       </c>
       <c r="N111">
-        <v>2.01948391736579E-28</v>
+        <v>2.01948391736579e-28</v>
       </c>
       <c r="O111">
-        <v>4.03896783473158E-28</v>
+        <v>4.03896783473158e-28</v>
       </c>
       <c r="P111">
-        <v>1.333355592950743E-12</v>
+        <v>1.333355592950743e-12</v>
       </c>
       <c r="Q111" t="s">
         <v>104</v>
@@ -6781,13 +6781,13 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I112">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="J112">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="K112">
-        <v>-1.110223024625157E-16</v>
+        <v>-1.110223024625157e-16</v>
       </c>
       <c r="L112">
         <v>0</v>
@@ -6796,13 +6796,13 @@
         <v>0</v>
       </c>
       <c r="N112">
-        <v>1.110223024625157E-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="O112">
-        <v>1.110223024625157E-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="P112">
-        <v>1.333392600384897E-12</v>
+        <v>1.333392600384897e-12</v>
       </c>
       <c r="Q112" t="s">
         <v>104</v>
@@ -7205,10 +7205,10 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I120">
-        <v>9.999999999980039E-13</v>
+        <v>9.999999999980039e-13</v>
       </c>
       <c r="J120">
-        <v>9.999999999980039E-13</v>
+        <v>9.999999999980039e-13</v>
       </c>
       <c r="K120">
         <v>0.32403735043729</v>
@@ -7226,7 +7226,7 @@
         <v>0.6480747008745801</v>
       </c>
       <c r="P120">
-        <v>1.333355592950742E-12</v>
+        <v>1.333355592950742e-12</v>
       </c>
       <c r="Q120" t="s">
         <v>103</v>
@@ -7361,31 +7361,31 @@
         <v>1</v>
       </c>
       <c r="H123">
-        <v>0.4930672380997956</v>
+        <v>0.4930672380997954</v>
       </c>
       <c r="I123">
         <v>0.2594627469471152</v>
       </c>
       <c r="J123">
-        <v>0.2474700149530892</v>
+        <v>0.2474700149530894</v>
       </c>
       <c r="K123">
-        <v>-0.2356781020444325</v>
+        <v>-0.2356781020444327</v>
       </c>
       <c r="L123">
         <v>0.0884998231265319</v>
       </c>
       <c r="M123">
-        <v>0.1471782789179006</v>
+        <v>0.1471782789179008</v>
       </c>
       <c r="N123">
-        <v>0.2356781020444325</v>
+        <v>0.2356781020444327</v>
       </c>
       <c r="O123">
-        <v>0.471356204088865</v>
+        <v>0.4713562040888655</v>
       </c>
       <c r="P123">
-        <v>0.2094407911194715</v>
+        <v>0.2094407911194716</v>
       </c>
       <c r="Q123" t="s">
         <v>134</v>
@@ -7682,10 +7682,10 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I129">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="J129">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="K129">
         <v>0.2712546598537717</v>
@@ -7703,7 +7703,7 @@
         <v>0.5425093197075437</v>
       </c>
       <c r="P129">
-        <v>1.333392600384897E-12</v>
+        <v>1.333392600384897e-12</v>
       </c>
       <c r="Q129" t="s">
         <v>111</v>
@@ -7838,13 +7838,13 @@
         <v>0</v>
       </c>
       <c r="H132">
-        <v>0.5718535049744472</v>
+        <v>0.5718535049744473</v>
       </c>
       <c r="I132">
         <v>0.2312330848187554</v>
       </c>
       <c r="J132">
-        <v>0.1969134102067974</v>
+        <v>0.1969134102067973</v>
       </c>
       <c r="K132">
         <v>0</v>
@@ -7862,7 +7862,7 @@
         <v>0</v>
       </c>
       <c r="P132">
-        <v>0.1935799794047906</v>
+        <v>0.1935799794047905</v>
       </c>
       <c r="Q132" t="s">
         <v>101</v>
@@ -7900,19 +7900,19 @@
         <v>0.3623793085449069</v>
       </c>
       <c r="K133">
-        <v>-0.246106975469613</v>
+        <v>-0.2461069754696131</v>
       </c>
       <c r="L133">
         <v>0.08064107713150354</v>
       </c>
       <c r="M133">
-        <v>0.1654658983381095</v>
+        <v>0.1654658983381096</v>
       </c>
       <c r="N133">
-        <v>0.246106975469613</v>
+        <v>0.2461069754696131</v>
       </c>
       <c r="O133">
-        <v>0.492213950939226</v>
+        <v>0.4922139509392263</v>
       </c>
       <c r="P133">
         <v>0.2217683141206317</v>
@@ -7956,10 +7956,10 @@
         <v>-0.1588439538323136</v>
       </c>
       <c r="L134">
-        <v>0.03036156538884849</v>
+        <v>0.03036156538884854</v>
       </c>
       <c r="M134">
-        <v>0.1284823884434652</v>
+        <v>0.1284823884434651</v>
       </c>
       <c r="N134">
         <v>0.1588439538323136</v>
@@ -8012,13 +8012,13 @@
         <v>0.2996500669853804</v>
       </c>
       <c r="M135">
-        <v>-0.1858197150198121</v>
+        <v>-0.185819715019812</v>
       </c>
       <c r="N135">
         <v>0.2996500669853804</v>
       </c>
       <c r="O135">
-        <v>0.5993001339707609</v>
+        <v>0.5993001339707608</v>
       </c>
       <c r="P135">
         <v>0.1640384517839711</v>
@@ -8050,13 +8050,13 @@
         <v>0</v>
       </c>
       <c r="H136">
-        <v>0.7241478170655453</v>
+        <v>0.7241478170655452</v>
       </c>
       <c r="I136">
         <v>0.1730176752776907</v>
       </c>
       <c r="J136">
-        <v>0.102834507656764</v>
+        <v>0.1028345076567641</v>
       </c>
       <c r="K136">
         <v>0</v>
@@ -8103,13 +8103,13 @@
         <v>0</v>
       </c>
       <c r="H137">
-        <v>0.9999999999979999</v>
+        <v>0.9999999999979998</v>
       </c>
       <c r="I137">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="J137">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="K137">
         <v>0.2758521829324546</v>
@@ -8118,16 +8118,16 @@
         <v>-0.1730176752766907</v>
       </c>
       <c r="M137">
-        <v>-0.102834507655764</v>
+        <v>-0.1028345076557641</v>
       </c>
       <c r="N137">
         <v>0.2758521829324546</v>
       </c>
       <c r="O137">
-        <v>0.5517043658649092</v>
+        <v>0.5517043658649095</v>
       </c>
       <c r="P137">
-        <v>1.333355592950743E-12</v>
+        <v>1.333392600384897e-12</v>
       </c>
       <c r="Q137" t="s">
         <v>136</v>
@@ -8156,13 +8156,13 @@
         <v>1</v>
       </c>
       <c r="H138">
-        <v>0.5236333835960455</v>
+        <v>0.5236333835960454</v>
       </c>
       <c r="I138">
         <v>0.3601245643163248</v>
       </c>
       <c r="J138">
-        <v>0.1162420520876297</v>
+        <v>0.1162420520876298</v>
       </c>
       <c r="K138">
         <v>-0.4763666164019544</v>
@@ -8171,13 +8171,13 @@
         <v>0.3601245643153248</v>
       </c>
       <c r="M138">
-        <v>0.1162420520866297</v>
+        <v>0.1162420520866298</v>
       </c>
       <c r="N138">
         <v>0.4763666164019544</v>
       </c>
       <c r="O138">
-        <v>0.952733232803909</v>
+        <v>0.9527332328039091</v>
       </c>
       <c r="P138">
         <v>0.1942020543620636</v>
@@ -8262,16 +8262,16 @@
         <v>0</v>
       </c>
       <c r="H140">
-        <v>0.9999999999979998</v>
+        <v>0.9999999999979999</v>
       </c>
       <c r="I140">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="J140">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="K140">
-        <v>0.216321652053412</v>
+        <v>0.2163216520534121</v>
       </c>
       <c r="L140">
         <v>-0.1450262052279077</v>
@@ -8280,13 +8280,13 @@
         <v>-0.07129544682550448</v>
       </c>
       <c r="N140">
-        <v>0.216321652053412</v>
+        <v>0.2163216520534121</v>
       </c>
       <c r="O140">
-        <v>0.4326433041068242</v>
+        <v>0.4326433041068243</v>
       </c>
       <c r="P140">
-        <v>1.333392600384897E-12</v>
+        <v>1.333355592950743e-12</v>
       </c>
       <c r="Q140" t="s">
         <v>103</v>
@@ -8318,13 +8318,13 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I141">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="J141">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="K141">
-        <v>1.110223024625157E-16</v>
+        <v>0</v>
       </c>
       <c r="L141">
         <v>0</v>
@@ -8333,13 +8333,13 @@
         <v>0</v>
       </c>
       <c r="N141">
-        <v>1.110223024625157E-16</v>
+        <v>0</v>
       </c>
       <c r="O141">
-        <v>1.110223024625157E-16</v>
+        <v>0</v>
       </c>
       <c r="P141">
-        <v>1.333355592950743E-12</v>
+        <v>1.333355592950743e-12</v>
       </c>
       <c r="Q141" t="s">
         <v>103</v>
@@ -8371,10 +8371,10 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I142">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="J142">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="K142">
         <v>0</v>
@@ -8392,7 +8392,7 @@
         <v>0</v>
       </c>
       <c r="P142">
-        <v>1.333355592950743E-12</v>
+        <v>1.333355592950743e-12</v>
       </c>
       <c r="Q142" t="s">
         <v>116</v>
@@ -8477,10 +8477,10 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I144">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="J144">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="K144">
         <v>0.3371405948432151</v>
@@ -8498,7 +8498,7 @@
         <v>0.6742811896864302</v>
       </c>
       <c r="P144">
-        <v>1.333355592950743E-12</v>
+        <v>1.333355592950743e-12</v>
       </c>
       <c r="Q144" t="s">
         <v>108</v>
@@ -8583,10 +8583,10 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I146">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="J146">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="K146">
         <v>0.4576105788791285</v>
@@ -8604,7 +8604,7 @@
         <v>0.9152211577582572</v>
       </c>
       <c r="P146">
-        <v>1.333392600384897E-12</v>
+        <v>1.333392600384897e-12</v>
       </c>
       <c r="Q146" t="s">
         <v>108</v>
@@ -8686,31 +8686,31 @@
         <v>0</v>
       </c>
       <c r="H148">
-        <v>0.6912093242846898</v>
+        <v>0.6912093242846897</v>
       </c>
       <c r="I148">
         <v>0.2048017609852056</v>
       </c>
       <c r="J148">
-        <v>0.1039889147301046</v>
+        <v>0.1039889147301047</v>
       </c>
       <c r="K148">
-        <v>0.179529602712711</v>
+        <v>0.1795296027127109</v>
       </c>
       <c r="L148">
         <v>-0.04357133366437688</v>
       </c>
       <c r="M148">
-        <v>-0.1359582690483341</v>
+        <v>-0.135958269048334</v>
       </c>
       <c r="N148">
-        <v>0.179529602712711</v>
+        <v>0.1795296027127109</v>
       </c>
       <c r="O148">
-        <v>0.359059205425422</v>
+        <v>0.3590592054254218</v>
       </c>
       <c r="P148">
-        <v>0.1564907381108387</v>
+        <v>0.1564907381108388</v>
       </c>
       <c r="Q148" t="s">
         <v>137</v>
@@ -8748,19 +8748,19 @@
         <v>0.2182024776161638</v>
       </c>
       <c r="K149">
-        <v>-0.2851351513244361</v>
+        <v>-0.285135151324436</v>
       </c>
       <c r="L149">
         <v>0.1709215884383769</v>
       </c>
       <c r="M149">
-        <v>0.1142135628860592</v>
+        <v>0.1142135628860591</v>
       </c>
       <c r="N149">
-        <v>0.2851351513244361</v>
+        <v>0.285135151324436</v>
       </c>
       <c r="O149">
-        <v>0.5702703026488722</v>
+        <v>0.570270302648872</v>
       </c>
       <c r="P149">
         <v>0.2154411365049127</v>
@@ -9060,7 +9060,7 @@
         <v>0.2217047437430411</v>
       </c>
       <c r="I155">
-        <v>0.4371902874804524</v>
+        <v>0.4371902874804523</v>
       </c>
       <c r="J155">
         <v>0.3411049687765066</v>
@@ -9069,10 +9069,10 @@
         <v>-0.239976421122817</v>
       </c>
       <c r="L155">
-        <v>0.1616551189620118</v>
+        <v>0.1616551189620117</v>
       </c>
       <c r="M155">
-        <v>0.07832130216080524</v>
+        <v>0.0783213021608053</v>
       </c>
       <c r="N155">
         <v>0.239976421122817</v>
@@ -9110,28 +9110,28 @@
         <v>3</v>
       </c>
       <c r="H156">
-        <v>0.0738136748802658</v>
+        <v>0.07381367488026569</v>
       </c>
       <c r="I156">
         <v>0.6875740337073648</v>
       </c>
       <c r="J156">
-        <v>0.2386122914123694</v>
+        <v>0.2386122914123695</v>
       </c>
       <c r="K156">
-        <v>-0.1478910688627753</v>
+        <v>-0.1478910688627754</v>
       </c>
       <c r="L156">
         <v>0.2503837462269125</v>
       </c>
       <c r="M156">
-        <v>-0.1024926773641372</v>
+        <v>-0.1024926773641371</v>
       </c>
       <c r="N156">
         <v>0.2503837462269125</v>
       </c>
       <c r="O156">
-        <v>0.5007674924538249</v>
+        <v>0.500767492453825</v>
       </c>
       <c r="P156">
         <v>0.1549525546529975</v>
@@ -9163,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="H157">
-        <v>0.769377923024455</v>
+        <v>0.7693779230244548</v>
       </c>
       <c r="I157">
         <v>0.1520304543108697</v>
       </c>
       <c r="J157">
-        <v>0.07859162266467531</v>
+        <v>0.07859162266467543</v>
       </c>
       <c r="K157">
         <v>0</v>
@@ -9219,28 +9219,28 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I158">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="J158">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="K158">
-        <v>0.230622076973545</v>
+        <v>0.2306220769735451</v>
       </c>
       <c r="L158">
         <v>-0.1520304543098697</v>
       </c>
       <c r="M158">
-        <v>-0.07859162266367531</v>
+        <v>-0.07859162266367542</v>
       </c>
       <c r="N158">
-        <v>0.230622076973545</v>
+        <v>0.2306220769735451</v>
       </c>
       <c r="O158">
-        <v>0.46124415394709</v>
+        <v>0.4612441539470902</v>
       </c>
       <c r="P158">
-        <v>1.333355592950743E-12</v>
+        <v>1.333355592950743e-12</v>
       </c>
       <c r="Q158" t="s">
         <v>110</v>
@@ -9269,31 +9269,31 @@
         <v>0</v>
       </c>
       <c r="H159">
-        <v>0.9999999999979999</v>
+        <v>0.9999999999979998</v>
       </c>
       <c r="I159">
-        <v>9.999999999980047E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="J159">
-        <v>9.999999999980047E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="K159">
-        <v>0</v>
+        <v>-1.110223024625157e-16</v>
       </c>
       <c r="L159">
-        <v>4.03896783473158E-28</v>
+        <v>2.01948391736579e-28</v>
       </c>
       <c r="M159">
-        <v>4.03896783473158E-28</v>
+        <v>2.01948391736579e-28</v>
       </c>
       <c r="N159">
-        <v>4.03896783473158E-28</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="O159">
-        <v>8.077935669463161E-28</v>
+        <v>1.110223024629196e-16</v>
       </c>
       <c r="P159">
-        <v>1.333355592950743E-12</v>
+        <v>1.333392600384897e-12</v>
       </c>
       <c r="Q159" t="s">
         <v>110</v>
@@ -9325,28 +9325,28 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I160">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="J160">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="K160">
-        <v>0</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="L160">
-        <v>-2.01948391736579E-28</v>
+        <v>0</v>
       </c>
       <c r="M160">
-        <v>-2.01948391736579E-28</v>
+        <v>0</v>
       </c>
       <c r="N160">
-        <v>2.01948391736579E-28</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="O160">
-        <v>4.03896783473158E-28</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="P160">
-        <v>1.333355592950743E-12</v>
+        <v>1.333355592950743e-12</v>
       </c>
       <c r="Q160" t="s">
         <v>110</v>
@@ -9378,28 +9378,28 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I161">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="J161">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="K161">
-        <v>-1.110223024625157E-16</v>
+        <v>-1.110223024625157e-16</v>
       </c>
       <c r="L161">
-        <v>-2.01948391736579E-28</v>
+        <v>-2.01948391736579e-28</v>
       </c>
       <c r="M161">
-        <v>-2.01948391736579E-28</v>
+        <v>-2.01948391736579e-28</v>
       </c>
       <c r="N161">
-        <v>1.110223024625157E-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="O161">
-        <v>1.110223024629196E-16</v>
+        <v>1.110223024629196e-16</v>
       </c>
       <c r="P161">
-        <v>1.333392600384897E-12</v>
+        <v>1.333392600384897e-12</v>
       </c>
       <c r="Q161" t="s">
         <v>132</v>
@@ -9431,28 +9431,28 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I162">
-        <v>9.999999999980039E-13</v>
+        <v>9.999999999980039e-13</v>
       </c>
       <c r="J162">
-        <v>9.999999999980039E-13</v>
+        <v>9.999999999980039e-13</v>
       </c>
       <c r="K162">
         <v>0</v>
       </c>
       <c r="L162">
-        <v>-4.03896783473158E-28</v>
+        <v>-4.03896783473158e-28</v>
       </c>
       <c r="M162">
-        <v>-4.03896783473158E-28</v>
+        <v>-4.03896783473158e-28</v>
       </c>
       <c r="N162">
-        <v>4.03896783473158E-28</v>
+        <v>4.03896783473158e-28</v>
       </c>
       <c r="O162">
-        <v>8.077935669463161E-28</v>
+        <v>8.077935669463161e-28</v>
       </c>
       <c r="P162">
-        <v>1.333392600384896E-12</v>
+        <v>1.333392600384896e-12</v>
       </c>
       <c r="Q162" t="s">
         <v>110</v>
@@ -9484,28 +9484,28 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I163">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="J163">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="K163">
         <v>0</v>
       </c>
       <c r="L163">
-        <v>4.03896783473158E-28</v>
+        <v>4.03896783473158e-28</v>
       </c>
       <c r="M163">
-        <v>4.03896783473158E-28</v>
+        <v>4.03896783473158e-28</v>
       </c>
       <c r="N163">
-        <v>4.03896783473158E-28</v>
+        <v>4.03896783473158e-28</v>
       </c>
       <c r="O163">
-        <v>8.077935669463161E-28</v>
+        <v>8.077935669463161e-28</v>
       </c>
       <c r="P163">
-        <v>1.333392600384897E-12</v>
+        <v>1.333392600384897e-12</v>
       </c>
       <c r="Q163" t="s">
         <v>110</v>
@@ -9537,28 +9537,28 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I164">
-        <v>9.999999999980047E-13</v>
+        <v>9.999999999980047e-13</v>
       </c>
       <c r="J164">
-        <v>9.999999999980047E-13</v>
+        <v>9.999999999980047e-13</v>
       </c>
       <c r="K164">
-        <v>1.110223024625157E-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="L164">
-        <v>4.03896783473158E-28</v>
+        <v>4.03896783473158e-28</v>
       </c>
       <c r="M164">
-        <v>4.03896783473158E-28</v>
+        <v>4.03896783473158e-28</v>
       </c>
       <c r="N164">
-        <v>1.110223024625157E-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="O164">
-        <v>1.110223024633234E-16</v>
+        <v>1.110223024633234e-16</v>
       </c>
       <c r="P164">
-        <v>1.333355592950743E-12</v>
+        <v>1.333355592950743e-12</v>
       </c>
       <c r="Q164" t="s">
         <v>110</v>
@@ -9746,13 +9746,13 @@
         <v>0</v>
       </c>
       <c r="H168">
-        <v>0.6584084707494688</v>
+        <v>0.658408470749469</v>
       </c>
       <c r="I168">
         <v>0.2005144061535595</v>
       </c>
       <c r="J168">
-        <v>0.1410771230969716</v>
+        <v>0.1410771230969715</v>
       </c>
       <c r="K168">
         <v>0</v>
@@ -9770,7 +9770,7 @@
         <v>0</v>
       </c>
       <c r="P168">
-        <v>0.1687965013029711</v>
+        <v>0.168796501302971</v>
       </c>
       <c r="Q168" t="s">
         <v>101</v>
@@ -9802,28 +9802,28 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I169">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="J169">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="K169">
-        <v>0.341591529248531</v>
+        <v>0.3415915292485309</v>
       </c>
       <c r="L169">
         <v>-0.2005144061525595</v>
       </c>
       <c r="M169">
-        <v>-0.1410771230959716</v>
+        <v>-0.1410771230959715</v>
       </c>
       <c r="N169">
-        <v>0.341591529248531</v>
+        <v>0.3415915292485309</v>
       </c>
       <c r="O169">
-        <v>0.6831830584970622</v>
+        <v>0.683183058497062</v>
       </c>
       <c r="P169">
-        <v>1.333392600384897E-12</v>
+        <v>1.333392600384897e-12</v>
       </c>
       <c r="Q169" t="s">
         <v>126</v>
@@ -9855,13 +9855,13 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I170">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="J170">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="K170">
-        <v>1.110223024625157E-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="L170">
         <v>0</v>
@@ -9870,13 +9870,13 @@
         <v>0</v>
       </c>
       <c r="N170">
-        <v>1.110223024625157E-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="O170">
-        <v>1.110223024625157E-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="P170">
-        <v>1.333355592950743E-12</v>
+        <v>1.333355592950743e-12</v>
       </c>
       <c r="Q170" t="s">
         <v>126</v>
@@ -9908,28 +9908,28 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I171">
-        <v>9.999999999980039E-13</v>
+        <v>9.999999999980039e-13</v>
       </c>
       <c r="J171">
-        <v>9.999999999980039E-13</v>
+        <v>9.999999999980039e-13</v>
       </c>
       <c r="K171">
-        <v>-1.110223024625157E-16</v>
+        <v>-1.110223024625157e-16</v>
       </c>
       <c r="L171">
-        <v>-4.03896783473158E-28</v>
+        <v>-4.03896783473158e-28</v>
       </c>
       <c r="M171">
-        <v>-4.03896783473158E-28</v>
+        <v>-4.03896783473158e-28</v>
       </c>
       <c r="N171">
-        <v>1.110223024625157E-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="O171">
-        <v>1.110223024633234E-16</v>
+        <v>1.110223024633234e-16</v>
       </c>
       <c r="P171">
-        <v>1.333392600384896E-12</v>
+        <v>1.333392600384896e-12</v>
       </c>
       <c r="Q171" t="s">
         <v>105</v>
@@ -10014,10 +10014,10 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I173">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="J173">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="K173">
         <v>0</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="P173">
-        <v>1.333355592950743E-12</v>
+        <v>1.333355592950743e-12</v>
       </c>
       <c r="Q173" t="s">
         <v>101</v>
@@ -10067,13 +10067,13 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I174">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="J174">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="K174">
-        <v>-1.110223024625157E-16</v>
+        <v>-1.110223024625157e-16</v>
       </c>
       <c r="L174">
         <v>0</v>
@@ -10082,13 +10082,13 @@
         <v>0</v>
       </c>
       <c r="N174">
-        <v>1.110223024625157E-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="O174">
-        <v>1.110223024625157E-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="P174">
-        <v>1.333392600384897E-12</v>
+        <v>1.333392600384897e-12</v>
       </c>
       <c r="Q174" t="s">
         <v>131</v>
@@ -10120,28 +10120,28 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I175">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="J175">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="K175">
-        <v>1.110223024625157E-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="L175">
-        <v>2.01948391736579E-28</v>
+        <v>2.01948391736579e-28</v>
       </c>
       <c r="M175">
-        <v>2.01948391736579E-28</v>
+        <v>2.01948391736579e-28</v>
       </c>
       <c r="N175">
-        <v>1.110223024625157E-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="O175">
-        <v>1.110223024629196E-16</v>
+        <v>1.110223024629196e-16</v>
       </c>
       <c r="P175">
-        <v>1.333355592950743E-12</v>
+        <v>1.333355592950743e-12</v>
       </c>
       <c r="Q175" t="s">
         <v>131</v>
@@ -10170,13 +10170,13 @@
         <v>0</v>
       </c>
       <c r="H176">
-        <v>0.2932157764442092</v>
+        <v>0.293215776444209</v>
       </c>
       <c r="I176">
         <v>0.2597008793525803</v>
       </c>
       <c r="J176">
-        <v>0.4470833442032105</v>
+        <v>0.4470833442032106</v>
       </c>
       <c r="K176">
         <v>0</v>
@@ -10232,19 +10232,19 @@
         <v>0.6686653283239168</v>
       </c>
       <c r="K177">
-        <v>-0.163277739416842</v>
+        <v>-0.1632777394168419</v>
       </c>
       <c r="L177">
         <v>-0.05830424470386436</v>
       </c>
       <c r="M177">
-        <v>0.2215819841207063</v>
+        <v>0.2215819841207062</v>
       </c>
       <c r="N177">
-        <v>0.2215819841207063</v>
+        <v>0.2215819841207062</v>
       </c>
       <c r="O177">
-        <v>0.4431639682414126</v>
+        <v>0.4431639682414124</v>
       </c>
       <c r="P177">
         <v>0.1651473935943716</v>
@@ -10329,28 +10329,28 @@
         <v>1</v>
       </c>
       <c r="H179">
-        <v>0.1348087276469955</v>
+        <v>0.1348087276469954</v>
       </c>
       <c r="I179">
         <v>0.2358368653331877</v>
       </c>
       <c r="J179">
-        <v>0.6293544070198168</v>
+        <v>0.6293544070198169</v>
       </c>
       <c r="K179">
-        <v>-0.1574622906134733</v>
+        <v>-0.1574622906134734</v>
       </c>
       <c r="L179">
         <v>-0.02367456632761336</v>
       </c>
       <c r="M179">
-        <v>0.1811368569410867</v>
+        <v>0.1811368569410868</v>
       </c>
       <c r="N179">
-        <v>0.1811368569410867</v>
+        <v>0.1811368569410868</v>
       </c>
       <c r="O179">
-        <v>0.3622737138821733</v>
+        <v>0.3622737138821736</v>
       </c>
       <c r="P179">
         <v>0.1767068700882496</v>
@@ -10391,19 +10391,19 @@
         <v>0.7589013699364384</v>
       </c>
       <c r="K180">
-        <v>-0.0790132435576707</v>
+        <v>-0.07901324355767059</v>
       </c>
       <c r="L180">
         <v>-0.0505337193589509</v>
       </c>
       <c r="M180">
-        <v>0.1295469629166216</v>
+        <v>0.1295469629166215</v>
       </c>
       <c r="N180">
-        <v>0.1295469629166216</v>
+        <v>0.1295469629166215</v>
       </c>
       <c r="O180">
-        <v>0.2590939258332432</v>
+        <v>0.259093925833243</v>
       </c>
       <c r="P180">
         <v>0.1288727729186286</v>
@@ -10541,22 +10541,22 @@
         <v>1</v>
       </c>
       <c r="H183">
-        <v>0.4463502669399628</v>
+        <v>0.4463502669399626</v>
       </c>
       <c r="I183">
         <v>0.4652832812505081</v>
       </c>
       <c r="J183">
-        <v>0.08836645180952907</v>
+        <v>0.08836645180952929</v>
       </c>
       <c r="K183">
-        <v>-0.09522105928504465</v>
+        <v>-0.09522105928504487</v>
       </c>
       <c r="L183">
         <v>0.2096866637872705</v>
       </c>
       <c r="M183">
-        <v>-0.1144656045022259</v>
+        <v>-0.1144656045022256</v>
       </c>
       <c r="N183">
         <v>0.2096866637872705</v>
@@ -10594,13 +10594,13 @@
         <v>0</v>
       </c>
       <c r="H184">
-        <v>0.5386074991032546</v>
+        <v>0.5386074991032545</v>
       </c>
       <c r="I184">
         <v>0.2411888167678478</v>
       </c>
       <c r="J184">
-        <v>0.2202036841288976</v>
+        <v>0.2202036841288977</v>
       </c>
       <c r="K184">
         <v>0</v>
@@ -10656,19 +10656,19 @@
         <v>0.1011662264475267</v>
       </c>
       <c r="K185">
-        <v>0.1092456234775681</v>
+        <v>0.1092456234775682</v>
       </c>
       <c r="L185">
         <v>0.00979183420380289</v>
       </c>
       <c r="M185">
-        <v>-0.1190374576813709</v>
+        <v>-0.1190374576813711</v>
       </c>
       <c r="N185">
-        <v>0.1190374576813709</v>
+        <v>0.1190374576813711</v>
       </c>
       <c r="O185">
-        <v>0.2380749153627419</v>
+        <v>0.2380749153627421</v>
       </c>
       <c r="P185">
         <v>0.1690201463421639</v>
@@ -10700,13 +10700,13 @@
         <v>0</v>
       </c>
       <c r="H186">
-        <v>0.6344268658830068</v>
+        <v>0.6344268658830067</v>
       </c>
       <c r="I186">
         <v>0.2096691013604769</v>
       </c>
       <c r="J186">
-        <v>0.1559040327565163</v>
+        <v>0.1559040327565164</v>
       </c>
       <c r="K186">
         <v>0</v>
@@ -10762,19 +10762,19 @@
         <v>0.2961179903508213</v>
       </c>
       <c r="K187">
-        <v>-0.2905914252184663</v>
+        <v>-0.2905914252184661</v>
       </c>
       <c r="L187">
         <v>0.1503774676241613</v>
       </c>
       <c r="M187">
-        <v>0.1402139575943049</v>
+        <v>0.1402139575943048</v>
       </c>
       <c r="N187">
-        <v>0.2905914252184663</v>
+        <v>0.2905914252184661</v>
       </c>
       <c r="O187">
-        <v>0.5811828504369325</v>
+        <v>0.5811828504369323</v>
       </c>
       <c r="P187">
         <v>0.2214859312320008</v>
@@ -10965,28 +10965,28 @@
         <v>0</v>
       </c>
       <c r="H191">
-        <v>0.4414043050457404</v>
+        <v>0.4414043050457405</v>
       </c>
       <c r="I191">
         <v>0.2998135874264165</v>
       </c>
       <c r="J191">
-        <v>0.2587821075278432</v>
+        <v>0.2587821075278431</v>
       </c>
       <c r="K191">
-        <v>0.170679666373601</v>
+        <v>0.1706796663736011</v>
       </c>
       <c r="L191">
         <v>0.04519827192998671</v>
       </c>
       <c r="M191">
-        <v>-0.2158779383035877</v>
+        <v>-0.2158779383035878</v>
       </c>
       <c r="N191">
-        <v>0.2158779383035877</v>
+        <v>0.2158779383035878</v>
       </c>
       <c r="O191">
-        <v>0.4317558766071754</v>
+        <v>0.4317558766071756</v>
       </c>
       <c r="P191">
         <v>0.2161019577016791</v>
@@ -11021,13 +11021,13 @@
         <v>0.439194679698071</v>
       </c>
       <c r="I192">
-        <v>0.4464990517332699</v>
+        <v>0.44649905173327</v>
       </c>
       <c r="J192">
-        <v>0.1143062685686591</v>
+        <v>0.114306268568659</v>
       </c>
       <c r="K192">
-        <v>-0.002209625347669331</v>
+        <v>-0.002209625347669442</v>
       </c>
       <c r="L192">
         <v>0.1466854643068535</v>
@@ -11039,7 +11039,7 @@
         <v>0.1466854643068535</v>
       </c>
       <c r="O192">
-        <v>0.2933709286137069</v>
+        <v>0.2933709286137071</v>
       </c>
       <c r="P192">
         <v>0.1982269023640364</v>
@@ -11180,10 +11180,10 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I195">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="J195">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="K195">
         <v>0.4158708042784688</v>
@@ -11201,7 +11201,7 @@
         <v>0.8317416085569377</v>
       </c>
       <c r="P195">
-        <v>1.333355592950743E-12</v>
+        <v>1.333355592950743e-12</v>
       </c>
       <c r="Q195" t="s">
         <v>141</v>
@@ -11230,31 +11230,31 @@
         <v>0</v>
       </c>
       <c r="H196">
-        <v>0.9999999999979998</v>
+        <v>0.9999999999979999</v>
       </c>
       <c r="I196">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="J196">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="K196">
-        <v>-1.110223024625157E-16</v>
+        <v>0</v>
       </c>
       <c r="L196">
-        <v>0</v>
+        <v>2.01948391736579e-28</v>
       </c>
       <c r="M196">
-        <v>0</v>
+        <v>2.01948391736579e-28</v>
       </c>
       <c r="N196">
-        <v>1.110223024625157E-16</v>
+        <v>2.01948391736579e-28</v>
       </c>
       <c r="O196">
-        <v>1.110223024625157E-16</v>
+        <v>4.03896783473158e-28</v>
       </c>
       <c r="P196">
-        <v>1.333392600384897E-12</v>
+        <v>1.333355592950743e-12</v>
       </c>
       <c r="Q196" t="s">
         <v>141</v>
@@ -11286,28 +11286,28 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I197">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="J197">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="K197">
-        <v>0</v>
+        <v>-1.110223024625157e-16</v>
       </c>
       <c r="L197">
-        <v>0</v>
+        <v>-2.01948391736579e-28</v>
       </c>
       <c r="M197">
-        <v>0</v>
+        <v>-2.01948391736579e-28</v>
       </c>
       <c r="N197">
-        <v>0</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="O197">
-        <v>0</v>
+        <v>1.110223024629196e-16</v>
       </c>
       <c r="P197">
-        <v>1.333392600384897E-12</v>
+        <v>1.333392600384897e-12</v>
       </c>
       <c r="Q197" t="s">
         <v>125</v>
@@ -11392,28 +11392,28 @@
         <v>0.1287587276864013</v>
       </c>
       <c r="I199">
-        <v>0.7547350389045721</v>
+        <v>0.7547350389045719</v>
       </c>
       <c r="J199">
-        <v>0.1165062334090267</v>
+        <v>0.1165062334090268</v>
       </c>
       <c r="K199">
         <v>-0.2456412785805759</v>
       </c>
       <c r="L199">
-        <v>0.2677019645593525</v>
+        <v>0.2677019645593524</v>
       </c>
       <c r="M199">
-        <v>-0.02206068597877653</v>
+        <v>-0.02206068597877642</v>
       </c>
       <c r="N199">
-        <v>0.2677019645593525</v>
+        <v>0.2677019645593524</v>
       </c>
       <c r="O199">
-        <v>0.5354039291187049</v>
+        <v>0.5354039291187047</v>
       </c>
       <c r="P199">
-        <v>0.1334075028903782</v>
+        <v>0.1334075028903783</v>
       </c>
       <c r="Q199" t="s">
         <v>125</v>
@@ -11442,13 +11442,13 @@
         <v>0</v>
       </c>
       <c r="H200">
-        <v>0.5361480227212284</v>
+        <v>0.5361480227212282</v>
       </c>
       <c r="I200">
         <v>0.2418793035486966</v>
       </c>
       <c r="J200">
-        <v>0.221972673730075</v>
+        <v>0.2219726737300752</v>
       </c>
       <c r="K200">
         <v>0</v>
@@ -11504,19 +11504,19 @@
         <v>0.1040396688381028</v>
       </c>
       <c r="K201">
-        <v>0.06595523938723613</v>
+        <v>0.06595523938723635</v>
       </c>
       <c r="L201">
         <v>0.05197776550473607</v>
       </c>
       <c r="M201">
-        <v>-0.1179330048919722</v>
+        <v>-0.1179330048919724</v>
       </c>
       <c r="N201">
-        <v>0.1179330048919722</v>
+        <v>0.1179330048919724</v>
       </c>
       <c r="O201">
-        <v>0.2358660097839444</v>
+        <v>0.2358660097839448</v>
       </c>
       <c r="P201">
         <v>0.1800984773445765</v>
@@ -11551,7 +11551,7 @@
         <v>0.3446676811096778</v>
       </c>
       <c r="I202">
-        <v>0.4766198436603257</v>
+        <v>0.4766198436603258</v>
       </c>
       <c r="J202">
         <v>0.1787124752299964</v>
@@ -11563,7 +11563,7 @@
         <v>0.1827627746068931</v>
       </c>
       <c r="M202">
-        <v>0.07467280639189366</v>
+        <v>0.07467280639189361</v>
       </c>
       <c r="N202">
         <v>0.2574355809987867</v>
@@ -11613,10 +11613,10 @@
         <v>-0.1470505660411306</v>
       </c>
       <c r="L203">
-        <v>0.0844101888552754</v>
+        <v>0.08441018885527535</v>
       </c>
       <c r="M203">
-        <v>0.06264037718585524</v>
+        <v>0.0626403771858553</v>
       </c>
       <c r="N203">
         <v>0.1470505660411306</v>
@@ -12558,10 +12558,10 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I221">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="J221">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="K221">
         <v>0.2296931153113948</v>
@@ -12579,7 +12579,7 @@
         <v>0.4593862306227897</v>
       </c>
       <c r="P221">
-        <v>1.333392600384897E-12</v>
+        <v>1.333392600384897e-12</v>
       </c>
       <c r="Q221" t="s">
         <v>143</v>
@@ -12611,28 +12611,28 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I222">
-        <v>9.999999999980039E-13</v>
+        <v>9.999999999980039e-13</v>
       </c>
       <c r="J222">
-        <v>9.999999999980039E-13</v>
+        <v>9.999999999980039e-13</v>
       </c>
       <c r="K222">
         <v>0</v>
       </c>
       <c r="L222">
-        <v>-4.03896783473158E-28</v>
+        <v>-4.03896783473158e-28</v>
       </c>
       <c r="M222">
-        <v>-4.03896783473158E-28</v>
+        <v>-4.03896783473158e-28</v>
       </c>
       <c r="N222">
-        <v>4.03896783473158E-28</v>
+        <v>4.03896783473158e-28</v>
       </c>
       <c r="O222">
-        <v>8.077935669463161E-28</v>
+        <v>8.077935669463161e-28</v>
       </c>
       <c r="P222">
-        <v>1.333392600384896E-12</v>
+        <v>1.333392600384896e-12</v>
       </c>
       <c r="Q222" t="s">
         <v>143</v>
@@ -12770,10 +12770,10 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I225">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="J225">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="K225">
         <v>0.3380911404102069</v>
@@ -12791,7 +12791,7 @@
         <v>0.6761822808204141</v>
       </c>
       <c r="P225">
-        <v>1.333392600384897E-12</v>
+        <v>1.333392600384897e-12</v>
       </c>
       <c r="Q225" t="s">
         <v>144</v>
@@ -12823,28 +12823,28 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I226">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="J226">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="K226">
-        <v>1.110223024625157E-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="L226">
-        <v>2.01948391736579E-28</v>
+        <v>2.01948391736579e-28</v>
       </c>
       <c r="M226">
-        <v>2.01948391736579E-28</v>
+        <v>2.01948391736579e-28</v>
       </c>
       <c r="N226">
-        <v>1.110223024625157E-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="O226">
-        <v>1.110223024629196E-16</v>
+        <v>1.110223024629196e-16</v>
       </c>
       <c r="P226">
-        <v>1.333355592950743E-12</v>
+        <v>1.333355592950743e-12</v>
       </c>
       <c r="Q226" t="s">
         <v>144</v>
@@ -12876,13 +12876,13 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I227">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="J227">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="K227">
-        <v>-1.110223024625157E-16</v>
+        <v>-1.110223024625157e-16</v>
       </c>
       <c r="L227">
         <v>0</v>
@@ -12891,13 +12891,13 @@
         <v>0</v>
       </c>
       <c r="N227">
-        <v>1.110223024625157E-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="O227">
-        <v>1.110223024625157E-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="P227">
-        <v>1.333392600384897E-12</v>
+        <v>1.333392600384897e-12</v>
       </c>
       <c r="Q227" t="s">
         <v>117</v>
@@ -12926,13 +12926,13 @@
         <v>0</v>
       </c>
       <c r="H228">
-        <v>0.7752535286419605</v>
+        <v>0.7752535286419603</v>
       </c>
       <c r="I228">
         <v>0.1491747635174634</v>
       </c>
       <c r="J228">
-        <v>0.07557170784057604</v>
+        <v>0.07557170784057626</v>
       </c>
       <c r="K228">
         <v>0</v>
@@ -12950,7 +12950,7 @@
         <v>0</v>
       </c>
       <c r="P228">
-        <v>0.1236725910772521</v>
+        <v>0.1236725910772522</v>
       </c>
       <c r="Q228" t="s">
         <v>101</v>
@@ -12982,25 +12982,25 @@
         <v>0.3338859589641693</v>
       </c>
       <c r="I229">
-        <v>0.5106929750507843</v>
+        <v>0.5106929750507841</v>
       </c>
       <c r="J229">
-        <v>0.1554210659850465</v>
+        <v>0.1554210659850466</v>
       </c>
       <c r="K229">
-        <v>-0.4413675696777912</v>
+        <v>-0.441367569677791</v>
       </c>
       <c r="L229">
-        <v>0.3615182115333208</v>
+        <v>0.3615182115333207</v>
       </c>
       <c r="M229">
-        <v>0.07984935814447042</v>
+        <v>0.07984935814447031</v>
       </c>
       <c r="N229">
-        <v>0.4413675696777912</v>
+        <v>0.441367569677791</v>
       </c>
       <c r="O229">
-        <v>0.8827351393555825</v>
+        <v>0.882735139355582</v>
       </c>
       <c r="P229">
         <v>0.201185714629476</v>
@@ -13721,28 +13721,28 @@
         <v>0</v>
       </c>
       <c r="H243">
-        <v>0.4705727249391706</v>
+        <v>0.4705727249391705</v>
       </c>
       <c r="I243">
-        <v>0.3182210115506975</v>
+        <v>0.3182210115506974</v>
       </c>
       <c r="J243">
-        <v>0.2112062635101319</v>
+        <v>0.2112062635101321</v>
       </c>
       <c r="K243">
-        <v>0.1477266083179499</v>
+        <v>0.1477266083179498</v>
       </c>
       <c r="L243">
-        <v>0.05368457756696238</v>
+        <v>0.05368457756696232</v>
       </c>
       <c r="M243">
-        <v>-0.2014111858849123</v>
+        <v>-0.2014111858849121</v>
       </c>
       <c r="N243">
-        <v>0.2014111858849123</v>
+        <v>0.2014111858849121</v>
       </c>
       <c r="O243">
-        <v>0.4028223717698246</v>
+        <v>0.4028223717698243</v>
       </c>
       <c r="P243">
         <v>0.2108962042016878</v>
@@ -13783,16 +13783,16 @@
         <v>0.1590743666384876</v>
       </c>
       <c r="K244">
-        <v>-0.3355163182813471</v>
+        <v>-0.335516318281347</v>
       </c>
       <c r="L244">
-        <v>0.3876482151529914</v>
+        <v>0.3876482151529915</v>
       </c>
       <c r="M244">
-        <v>-0.05213189687164432</v>
+        <v>-0.05213189687164449</v>
       </c>
       <c r="N244">
-        <v>0.3876482151529914</v>
+        <v>0.3876482151529915</v>
       </c>
       <c r="O244">
         <v>0.7752964303059828</v>
@@ -14042,10 +14042,10 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I249">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="J249">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="K249">
         <v>0.6269553384277828</v>
@@ -14063,7 +14063,7 @@
         <v>1.253910676855566</v>
       </c>
       <c r="P249">
-        <v>1.333355592950743E-12</v>
+        <v>1.333355592950743e-12</v>
       </c>
       <c r="Q249" t="s">
         <v>106</v>
@@ -14516,13 +14516,13 @@
         <v>0</v>
       </c>
       <c r="H258">
-        <v>0.3036520743724541</v>
+        <v>0.3036520743724542</v>
       </c>
       <c r="I258">
         <v>0.2616500268162733</v>
       </c>
       <c r="J258">
-        <v>0.4346978988112726</v>
+        <v>0.4346978988112725</v>
       </c>
       <c r="K258">
         <v>0</v>
@@ -14578,19 +14578,19 @@
         <v>0.6574243538609008</v>
       </c>
       <c r="K259">
-        <v>-0.1667471935959376</v>
+        <v>-0.1667471935959377</v>
       </c>
       <c r="L259">
         <v>-0.05597926145369062</v>
       </c>
       <c r="M259">
-        <v>0.2227264550496282</v>
+        <v>0.2227264550496283</v>
       </c>
       <c r="N259">
-        <v>0.2227264550496282</v>
+        <v>0.2227264550496283</v>
       </c>
       <c r="O259">
-        <v>0.4454529100992564</v>
+        <v>0.4454529100992566</v>
       </c>
       <c r="P259">
         <v>0.1689166029484381</v>
@@ -14634,7 +14634,7 @@
         <v>-0.07329173948365608</v>
       </c>
       <c r="L260">
-        <v>0.04081987105698232</v>
+        <v>0.04081987105698234</v>
       </c>
       <c r="M260">
         <v>0.03247186842667382</v>
@@ -14678,7 +14678,7 @@
         <v>0.03536301834756894</v>
       </c>
       <c r="I261">
-        <v>0.2631199100143455</v>
+        <v>0.2631199100143454</v>
       </c>
       <c r="J261">
         <v>0.7015170716380856</v>
@@ -14687,7 +14687,7 @@
         <v>-0.0282501229452915</v>
       </c>
       <c r="L261">
-        <v>0.01662927359478053</v>
+        <v>0.01662927359478045</v>
       </c>
       <c r="M261">
         <v>0.011620849350511</v>
@@ -14696,7 +14696,7 @@
         <v>0.0282501229452915</v>
       </c>
       <c r="O261">
-        <v>0.05650024589058303</v>
+        <v>0.05650024589058295</v>
       </c>
       <c r="P261">
         <v>0.1457970560292391</v>
@@ -14728,13 +14728,13 @@
         <v>0</v>
       </c>
       <c r="H262">
-        <v>0.7504809262193564</v>
+        <v>0.7504809262193562</v>
       </c>
       <c r="I262">
         <v>0.1610102171797474</v>
       </c>
       <c r="J262">
-        <v>0.08850885660089622</v>
+        <v>0.08850885660089633</v>
       </c>
       <c r="K262">
         <v>0</v>
@@ -14784,28 +14784,28 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I263">
-        <v>9.999999999980047E-13</v>
+        <v>9.999999999980047e-13</v>
       </c>
       <c r="J263">
-        <v>9.999999999980047E-13</v>
+        <v>9.999999999980047e-13</v>
       </c>
       <c r="K263">
-        <v>0.2495190737786436</v>
+        <v>0.2495190737786437</v>
       </c>
       <c r="L263">
         <v>-0.1610102171787474</v>
       </c>
       <c r="M263">
-        <v>-0.08850885659989621</v>
+        <v>-0.08850885659989632</v>
       </c>
       <c r="N263">
-        <v>0.2495190737786436</v>
+        <v>0.2495190737786437</v>
       </c>
       <c r="O263">
-        <v>0.4990381475572872</v>
+        <v>0.4990381475572874</v>
       </c>
       <c r="P263">
-        <v>1.333355592950743E-12</v>
+        <v>1.333355592950743e-12</v>
       </c>
       <c r="Q263" t="s">
         <v>107</v>
@@ -14837,28 +14837,28 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I264">
-        <v>9.999999999980039E-13</v>
+        <v>9.999999999980039e-13</v>
       </c>
       <c r="J264">
-        <v>9.999999999980039E-13</v>
+        <v>9.999999999980039e-13</v>
       </c>
       <c r="K264">
         <v>0</v>
       </c>
       <c r="L264">
-        <v>-8.077935669463161E-28</v>
+        <v>-8.077935669463161e-28</v>
       </c>
       <c r="M264">
-        <v>-8.077935669463161E-28</v>
+        <v>-8.077935669463161e-28</v>
       </c>
       <c r="N264">
-        <v>8.077935669463161E-28</v>
+        <v>8.077935669463161e-28</v>
       </c>
       <c r="O264">
-        <v>1.615587133892632E-27</v>
+        <v>1.615587133892632e-27</v>
       </c>
       <c r="P264">
-        <v>1.333355592950742E-12</v>
+        <v>1.333355592950742e-12</v>
       </c>
       <c r="Q264" t="s">
         <v>107</v>
@@ -14996,25 +14996,25 @@
         <v>0.3091900306382873</v>
       </c>
       <c r="I267">
-        <v>0.4110942277636824</v>
+        <v>0.4110942277636823</v>
       </c>
       <c r="J267">
-        <v>0.2797157415980303</v>
+        <v>0.2797157415980304</v>
       </c>
       <c r="K267">
         <v>0.1106859221966995</v>
       </c>
       <c r="L267">
-        <v>0.1014869278593152</v>
+        <v>0.1014869278593151</v>
       </c>
       <c r="M267">
-        <v>-0.2121728500560147</v>
+        <v>-0.2121728500560146</v>
       </c>
       <c r="N267">
-        <v>0.2121728500560147</v>
+        <v>0.2121728500560146</v>
       </c>
       <c r="O267">
-        <v>0.4243457001120294</v>
+        <v>0.4243457001120292</v>
       </c>
       <c r="P267">
         <v>0.2190540549185135</v>
@@ -15058,16 +15058,16 @@
         <v>-0.2046381237500033</v>
       </c>
       <c r="L268">
-        <v>0.2767770088289993</v>
+        <v>0.2767770088289994</v>
       </c>
       <c r="M268">
-        <v>-0.07213888507899596</v>
+        <v>-0.07213888507899607</v>
       </c>
       <c r="N268">
-        <v>0.2767770088289993</v>
+        <v>0.2767770088289994</v>
       </c>
       <c r="O268">
-        <v>0.5535540176579986</v>
+        <v>0.5535540176579988</v>
       </c>
       <c r="P268">
         <v>0.1576046364240516</v>
@@ -15523,28 +15523,28 @@
         <v>1</v>
       </c>
       <c r="H277">
-        <v>0.396509929550075</v>
+        <v>0.3965099295500749</v>
       </c>
       <c r="I277">
         <v>0.4311491823445148</v>
       </c>
       <c r="J277">
-        <v>0.1723408881054102</v>
+        <v>0.1723408881054103</v>
       </c>
       <c r="K277">
-        <v>-0.3823101616074694</v>
+        <v>-0.3823101616074696</v>
       </c>
       <c r="L277">
         <v>0.2837228643226156</v>
       </c>
       <c r="M277">
-        <v>0.09858729728485383</v>
+        <v>0.09858729728485394</v>
       </c>
       <c r="N277">
-        <v>0.3823101616074694</v>
+        <v>0.3823101616074696</v>
       </c>
       <c r="O277">
-        <v>0.7646203232149389</v>
+        <v>0.7646203232149391</v>
       </c>
       <c r="P277">
         <v>0.2090629588729631</v>
@@ -15585,19 +15585,19 @@
         <v>0.08135038290422991</v>
       </c>
       <c r="K278">
-        <v>0.01450920207829054</v>
+        <v>0.01450920207829065</v>
       </c>
       <c r="L278">
         <v>0.0764813031228897</v>
       </c>
       <c r="M278">
-        <v>-0.09099050520118024</v>
+        <v>-0.09099050520118035</v>
       </c>
       <c r="N278">
-        <v>0.09099050520118024</v>
+        <v>0.09099050520118035</v>
       </c>
       <c r="O278">
-        <v>0.1819810104023605</v>
+        <v>0.1819810104023607</v>
       </c>
       <c r="P278">
         <v>0.1889188929536422</v>
@@ -15738,10 +15738,10 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I281">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="J281">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="K281">
         <v>0.2154417738223428</v>
@@ -15759,7 +15759,7 @@
         <v>0.4308835476446857</v>
       </c>
       <c r="P281">
-        <v>1.333392600384897E-12</v>
+        <v>1.333392600384897e-12</v>
       </c>
       <c r="Q281" t="s">
         <v>115</v>
@@ -15788,31 +15788,31 @@
         <v>1</v>
       </c>
       <c r="H282">
-        <v>0.7161082087028708</v>
+        <v>0.7161082087028707</v>
       </c>
       <c r="I282">
-        <v>0.2066164756636225</v>
+        <v>0.2066164756636226</v>
       </c>
       <c r="J282">
-        <v>0.07727531563350662</v>
+        <v>0.07727531563350667</v>
       </c>
       <c r="K282">
-        <v>-0.283891791295129</v>
+        <v>-0.2838917912951291</v>
       </c>
       <c r="L282">
-        <v>0.2066164756626225</v>
+        <v>0.2066164756626226</v>
       </c>
       <c r="M282">
-        <v>0.07727531563250661</v>
+        <v>0.07727531563250667</v>
       </c>
       <c r="N282">
-        <v>0.283891791295129</v>
+        <v>0.2838917912951291</v>
       </c>
       <c r="O282">
-        <v>0.5677835825902582</v>
+        <v>0.5677835825902584</v>
       </c>
       <c r="P282">
-        <v>0.1461757303354837</v>
+        <v>0.1461757303354838</v>
       </c>
       <c r="Q282" t="s">
         <v>105</v>
@@ -16212,13 +16212,13 @@
         <v>0</v>
       </c>
       <c r="H290">
-        <v>0.5620103587542934</v>
+        <v>0.5620103587542933</v>
       </c>
       <c r="I290">
         <v>0.2342974595507027</v>
       </c>
       <c r="J290">
-        <v>0.2036921816950039</v>
+        <v>0.203692181695004</v>
       </c>
       <c r="K290">
         <v>0</v>
@@ -16274,19 +16274,19 @@
         <v>0.07915952285125041</v>
       </c>
       <c r="K291">
-        <v>0.2035595564019556</v>
+        <v>0.2035595564019557</v>
       </c>
       <c r="L291">
         <v>-0.07902689755820208</v>
       </c>
       <c r="M291">
-        <v>-0.1245326588437535</v>
+        <v>-0.1245326588437536</v>
       </c>
       <c r="N291">
-        <v>0.2035595564019556</v>
+        <v>0.2035595564019557</v>
       </c>
       <c r="O291">
-        <v>0.4071191128039111</v>
+        <v>0.4071191128039113</v>
       </c>
       <c r="P291">
         <v>0.1278425091760497</v>
@@ -16904,10 +16904,10 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I303">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="J303">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="K303">
         <v>0.2689385539605423</v>
@@ -16925,7 +16925,7 @@
         <v>0.5378771079210847</v>
       </c>
       <c r="P303">
-        <v>1.333355592950743E-12</v>
+        <v>1.333355592950743e-12</v>
       </c>
       <c r="Q303" t="s">
         <v>153</v>
@@ -17275,10 +17275,10 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I310">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="J310">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="K310">
         <v>0.3784964818732459</v>
@@ -17296,7 +17296,7 @@
         <v>0.7569929637464921</v>
       </c>
       <c r="P310">
-        <v>1.333392600384897E-12</v>
+        <v>1.333392600384897e-12</v>
       </c>
       <c r="Q310" t="s">
         <v>154</v>
@@ -17431,28 +17431,28 @@
         <v>2</v>
       </c>
       <c r="H313">
-        <v>0.3257144340109579</v>
+        <v>0.325714434010958</v>
       </c>
       <c r="I313">
         <v>0.3535074688307907</v>
       </c>
       <c r="J313">
-        <v>0.3207780971582514</v>
+        <v>0.3207780971582513</v>
       </c>
       <c r="K313">
-        <v>-0.2319998340409003</v>
+        <v>-0.2319998340409002</v>
       </c>
       <c r="L313">
         <v>0.09160922006673855</v>
       </c>
       <c r="M313">
-        <v>0.1403906139741617</v>
+        <v>0.1403906139741616</v>
       </c>
       <c r="N313">
-        <v>0.2319998340409003</v>
+        <v>0.2319998340409002</v>
       </c>
       <c r="O313">
-        <v>0.4639996680818006</v>
+        <v>0.4639996680818004</v>
       </c>
       <c r="P313">
         <v>0.2220146631137668</v>
@@ -17493,19 +17493,19 @@
         <v>0.1457422906629356</v>
       </c>
       <c r="K314">
-        <v>0.02512132511647769</v>
+        <v>0.02512132511647758</v>
       </c>
       <c r="L314">
         <v>0.1499144813788381</v>
       </c>
       <c r="M314">
-        <v>-0.1750358064953157</v>
+        <v>-0.1750358064953156</v>
       </c>
       <c r="N314">
-        <v>0.1750358064953157</v>
+        <v>0.1750358064953156</v>
       </c>
       <c r="O314">
-        <v>0.3500716129906315</v>
+        <v>0.3500716129906313</v>
       </c>
       <c r="P314">
         <v>0.2007465982923101</v>
@@ -17643,13 +17643,13 @@
         <v>0</v>
       </c>
       <c r="H317">
-        <v>0.3180193565131922</v>
+        <v>0.3180193565131924</v>
       </c>
       <c r="I317">
         <v>0.2638967225588925</v>
       </c>
       <c r="J317">
-        <v>0.4180839209279153</v>
+        <v>0.4180839209279152</v>
       </c>
       <c r="K317">
         <v>0</v>
@@ -17705,19 +17705,19 @@
         <v>0.3191718205898556</v>
       </c>
       <c r="K318">
-        <v>-0.2039211808140901</v>
+        <v>-0.2039211808140902</v>
       </c>
       <c r="L318">
         <v>0.3028332811521497</v>
       </c>
       <c r="M318">
-        <v>-0.09891210033805969</v>
+        <v>-0.09891210033805958</v>
       </c>
       <c r="N318">
         <v>0.3028332811521497</v>
       </c>
       <c r="O318">
-        <v>0.6056665623042996</v>
+        <v>0.6056665623042994</v>
       </c>
       <c r="P318">
         <v>0.1879760193790586</v>
@@ -18132,7 +18132,7 @@
         <v>-0.1189689322859875</v>
       </c>
       <c r="L326">
-        <v>-0.03426032082522587</v>
+        <v>-0.03426032082522584</v>
       </c>
       <c r="M326">
         <v>0.1532292531112134</v>
@@ -18141,7 +18141,7 @@
         <v>0.1532292531112134</v>
       </c>
       <c r="O326">
-        <v>0.3064585062224268</v>
+        <v>0.3064585062224267</v>
       </c>
       <c r="P326">
         <v>0.144538615190212</v>
@@ -18173,13 +18173,13 @@
         <v>0</v>
       </c>
       <c r="H327">
-        <v>0.7759733116402437</v>
+        <v>0.7759733116402439</v>
       </c>
       <c r="I327">
         <v>0.1488228199238153</v>
       </c>
       <c r="J327">
-        <v>0.07520386843594096</v>
+        <v>0.07520386843594085</v>
       </c>
       <c r="K327">
         <v>0</v>
@@ -18197,7 +18197,7 @@
         <v>0</v>
       </c>
       <c r="P327">
-        <v>0.1233538553547555</v>
+        <v>0.1233538553547554</v>
       </c>
       <c r="Q327" t="s">
         <v>101</v>
@@ -18229,28 +18229,28 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I328">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="J328">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="K328">
-        <v>0.2240266883577562</v>
+        <v>0.2240266883577561</v>
       </c>
       <c r="L328">
         <v>-0.1488228199228153</v>
       </c>
       <c r="M328">
-        <v>-0.07520386843494095</v>
+        <v>-0.07520386843494084</v>
       </c>
       <c r="N328">
-        <v>0.2240266883577562</v>
+        <v>0.2240266883577561</v>
       </c>
       <c r="O328">
-        <v>0.4480533767155125</v>
+        <v>0.4480533767155123</v>
       </c>
       <c r="P328">
-        <v>1.333355592950743E-12</v>
+        <v>1.333355592950743e-12</v>
       </c>
       <c r="Q328" t="s">
         <v>117</v>
@@ -18388,10 +18388,10 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I331">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="J331">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="K331">
         <v>0.5964993409680095</v>
@@ -18409,7 +18409,7 @@
         <v>1.192998681936019</v>
       </c>
       <c r="P331">
-        <v>1.333392600384897E-12</v>
+        <v>1.333392600384897e-12</v>
       </c>
       <c r="Q331" t="s">
         <v>152</v>
@@ -18441,19 +18441,19 @@
         <v>0.2579364145470779</v>
       </c>
       <c r="I332">
-        <v>0.6549169034082033</v>
+        <v>0.6549169034082032</v>
       </c>
       <c r="J332">
-        <v>0.08714668204471876</v>
+        <v>0.08714668204471887</v>
       </c>
       <c r="K332">
         <v>-0.7420635854509219</v>
       </c>
       <c r="L332">
-        <v>0.6549169034072033</v>
+        <v>0.6549169034072032</v>
       </c>
       <c r="M332">
-        <v>0.08714668204371875</v>
+        <v>0.08714668204371886</v>
       </c>
       <c r="N332">
         <v>0.7420635854509219</v>
@@ -18597,13 +18597,13 @@
         <v>0</v>
       </c>
       <c r="H335">
-        <v>0.1719585903634996</v>
+        <v>0.1719585903634997</v>
       </c>
       <c r="I335">
         <v>0.2183163509554033</v>
       </c>
       <c r="J335">
-        <v>0.6097250586810972</v>
+        <v>0.6097250586810971</v>
       </c>
       <c r="K335">
         <v>0</v>
@@ -18659,19 +18659,19 @@
         <v>0.7048885904079532</v>
       </c>
       <c r="K336">
-        <v>-0.0992328574581508</v>
+        <v>-0.09923285745815091</v>
       </c>
       <c r="L336">
         <v>0.004069325731294732</v>
       </c>
       <c r="M336">
-        <v>0.09516353172685599</v>
+        <v>0.0951635317268561</v>
       </c>
       <c r="N336">
-        <v>0.0992328574581508</v>
+        <v>0.09923285745815091</v>
       </c>
       <c r="O336">
-        <v>0.1984657149163015</v>
+        <v>0.1984657149163017</v>
       </c>
       <c r="P336">
         <v>0.1494625512302227</v>
@@ -18706,16 +18706,16 @@
         <v>0.1526534874849319</v>
       </c>
       <c r="I337">
-        <v>0.458026683853143</v>
+        <v>0.4580266838531429</v>
       </c>
       <c r="J337">
-        <v>0.3893198286619251</v>
+        <v>0.3893198286619252</v>
       </c>
       <c r="K337">
         <v>0.07992775457958312</v>
       </c>
       <c r="L337">
-        <v>0.235641007166445</v>
+        <v>0.2356410071664449</v>
       </c>
       <c r="M337">
         <v>-0.315568761746028</v>
@@ -18724,7 +18724,7 @@
         <v>0.315568761746028</v>
       </c>
       <c r="O337">
-        <v>0.6311375234920562</v>
+        <v>0.631137523492056</v>
       </c>
       <c r="P337">
         <v>0.20511284688261</v>
@@ -18768,16 +18768,16 @@
         <v>-0.0942878072688943</v>
       </c>
       <c r="L338">
-        <v>0.1509628034844717</v>
+        <v>0.1509628034844718</v>
       </c>
       <c r="M338">
-        <v>-0.05667499621557742</v>
+        <v>-0.05667499621557748</v>
       </c>
       <c r="N338">
-        <v>0.1509628034844717</v>
+        <v>0.1509628034844718</v>
       </c>
       <c r="O338">
-        <v>0.3019256069689434</v>
+        <v>0.3019256069689435</v>
       </c>
       <c r="P338">
         <v>0.1716908890439766</v>
@@ -18809,13 +18809,13 @@
         <v>0</v>
       </c>
       <c r="H339">
-        <v>0.6344268658830068</v>
+        <v>0.6344268658830067</v>
       </c>
       <c r="I339">
         <v>0.2096691013604769</v>
       </c>
       <c r="J339">
-        <v>0.1559040327565163</v>
+        <v>0.1559040327565164</v>
       </c>
       <c r="K339">
         <v>0</v>
@@ -18871,19 +18871,19 @@
         <v>0.3220774384213037</v>
       </c>
       <c r="K340">
-        <v>-0.254929631137726</v>
+        <v>-0.2549296311377259</v>
       </c>
       <c r="L340">
         <v>0.08875622547293865</v>
       </c>
       <c r="M340">
-        <v>0.1661734056647874</v>
+        <v>0.1661734056647873</v>
       </c>
       <c r="N340">
-        <v>0.254929631137726</v>
+        <v>0.2549296311377259</v>
       </c>
       <c r="O340">
-        <v>0.5098592622754521</v>
+        <v>0.5098592622754519</v>
       </c>
       <c r="P340">
         <v>0.2210634322616752</v>
@@ -18971,25 +18971,25 @@
         <v>0.1834500746254781</v>
       </c>
       <c r="I342">
-        <v>0.6538028826983077</v>
+        <v>0.6538028826983078</v>
       </c>
       <c r="J342">
-        <v>0.1627470426762142</v>
+        <v>0.1627470426762141</v>
       </c>
       <c r="K342">
         <v>-0.02259963949447052</v>
       </c>
       <c r="L342">
-        <v>0.3538130087695146</v>
+        <v>0.3538130087695147</v>
       </c>
       <c r="M342">
-        <v>-0.3312133692750441</v>
+        <v>-0.3312133692750442</v>
       </c>
       <c r="N342">
-        <v>0.3538130087695146</v>
+        <v>0.3538130087695147</v>
       </c>
       <c r="O342">
-        <v>0.7076260175390292</v>
+        <v>0.7076260175390294</v>
       </c>
       <c r="P342">
         <v>0.1708004202651453</v>
@@ -19021,28 +19021,28 @@
         <v>3</v>
       </c>
       <c r="H343">
-        <v>0.09619475720621318</v>
+        <v>0.09619475720621307</v>
       </c>
       <c r="I343">
         <v>0.7211736893519158</v>
       </c>
       <c r="J343">
-        <v>0.182631553441871</v>
+        <v>0.1826315534418711</v>
       </c>
       <c r="K343">
-        <v>-0.08725531741926495</v>
+        <v>-0.08725531741926507</v>
       </c>
       <c r="L343">
-        <v>0.06737080665360817</v>
+        <v>0.06737080665360806</v>
       </c>
       <c r="M343">
-        <v>0.01988451076565678</v>
+        <v>0.019884510765657</v>
       </c>
       <c r="N343">
-        <v>0.08725531741926495</v>
+        <v>0.08725531741926507</v>
       </c>
       <c r="O343">
-        <v>0.1745106348385299</v>
+        <v>0.1745106348385301</v>
       </c>
       <c r="P343">
         <v>0.1457669313866644</v>
@@ -19130,25 +19130,25 @@
         <v>0.4028079883042649</v>
       </c>
       <c r="I345">
-        <v>0.3135964233996957</v>
+        <v>0.3135964233996958</v>
       </c>
       <c r="J345">
-        <v>0.2835955882960394</v>
+        <v>0.2835955882960393</v>
       </c>
       <c r="K345">
         <v>0.1623126359471896</v>
       </c>
       <c r="L345">
-        <v>0.06766671973931912</v>
+        <v>0.06766671973931918</v>
       </c>
       <c r="M345">
-        <v>-0.2299793556865087</v>
+        <v>-0.2299793556865088</v>
       </c>
       <c r="N345">
-        <v>0.2299793556865087</v>
+        <v>0.2299793556865088</v>
       </c>
       <c r="O345">
-        <v>0.4599587113730175</v>
+        <v>0.4599587113730176</v>
       </c>
       <c r="P345">
         <v>0.2196588500294044</v>
@@ -19180,28 +19180,28 @@
         <v>0</v>
       </c>
       <c r="H346">
-        <v>0.3695701287954316</v>
+        <v>0.3695701287954315</v>
       </c>
       <c r="I346">
         <v>0.5138242145495715</v>
       </c>
       <c r="J346">
-        <v>0.1166056566549969</v>
+        <v>0.116605656654997</v>
       </c>
       <c r="K346">
-        <v>-0.03323785950883329</v>
+        <v>-0.0332378595088334</v>
       </c>
       <c r="L346">
-        <v>0.2002277911498758</v>
+        <v>0.2002277911498757</v>
       </c>
       <c r="M346">
-        <v>-0.1669899316410425</v>
+        <v>-0.1669899316410423</v>
       </c>
       <c r="N346">
-        <v>0.2002277911498758</v>
+        <v>0.2002277911498757</v>
       </c>
       <c r="O346">
-        <v>0.4004555822997515</v>
+        <v>0.4004555822997514</v>
       </c>
       <c r="P346">
         <v>0.1952685724269003</v>
@@ -19242,19 +19242,19 @@
         <v>0.1513674334508186</v>
       </c>
       <c r="K347">
-        <v>-0.1724190973265113</v>
+        <v>-0.1724190973265112</v>
       </c>
       <c r="L347">
         <v>0.1376573205306896</v>
       </c>
       <c r="M347">
-        <v>0.03476177679582171</v>
+        <v>0.0347617767958216</v>
       </c>
       <c r="N347">
-        <v>0.1724190973265113</v>
+        <v>0.1724190973265112</v>
       </c>
       <c r="O347">
-        <v>0.3448381946530226</v>
+        <v>0.3448381946530223</v>
       </c>
       <c r="P347">
         <v>0.1712637267769065</v>
@@ -19660,25 +19660,25 @@
         <v>0.1274770733099759</v>
       </c>
       <c r="I355">
-        <v>0.241017512609681</v>
+        <v>0.2410175126096809</v>
       </c>
       <c r="J355">
-        <v>0.6315054140803431</v>
+        <v>0.6315054140803432</v>
       </c>
       <c r="K355">
         <v>-0.1507016711770817</v>
       </c>
       <c r="L355">
-        <v>-0.01541541967478782</v>
+        <v>-0.01541541967478791</v>
       </c>
       <c r="M355">
-        <v>0.1661170908518695</v>
+        <v>0.1661170908518696</v>
       </c>
       <c r="N355">
-        <v>0.1661170908518695</v>
+        <v>0.1661170908518696</v>
       </c>
       <c r="O355">
-        <v>0.332234181703739</v>
+        <v>0.3322341817037392</v>
       </c>
       <c r="P355">
         <v>0.1756203554609932</v>
@@ -19722,16 +19722,16 @@
         <v>-0.07110437464683173</v>
       </c>
       <c r="L356">
-        <v>-0.02873465872239897</v>
+        <v>-0.02873465872239889</v>
       </c>
       <c r="M356">
-        <v>0.09983903336923072</v>
+        <v>0.09983903336923061</v>
       </c>
       <c r="N356">
-        <v>0.09983903336923072</v>
+        <v>0.09983903336923061</v>
       </c>
       <c r="O356">
-        <v>0.1996780667384614</v>
+        <v>0.1996780667384612</v>
       </c>
       <c r="P356">
         <v>0.1389644693251943</v>
@@ -19928,22 +19928,22 @@
         <v>0.1965031421694378</v>
       </c>
       <c r="J360">
-        <v>0.7281965136241311</v>
+        <v>0.7281965136241312</v>
       </c>
       <c r="K360">
         <v>0.04362173180988949</v>
       </c>
       <c r="L360">
-        <v>0.07408877822060167</v>
+        <v>0.07408877822060164</v>
       </c>
       <c r="M360">
-        <v>-0.1177105100304912</v>
+        <v>-0.117710510030491</v>
       </c>
       <c r="N360">
-        <v>0.1177105100304912</v>
+        <v>0.117710510030491</v>
       </c>
       <c r="O360">
-        <v>0.2354210200609823</v>
+        <v>0.2354210200609822</v>
       </c>
       <c r="P360">
         <v>0.1418154036085304</v>
@@ -19987,16 +19987,16 @@
         <v>-0.03691865456121723</v>
       </c>
       <c r="L361">
-        <v>-0.01936187548184448</v>
+        <v>-0.01936187548184445</v>
       </c>
       <c r="M361">
-        <v>0.05628053004306177</v>
+        <v>0.05628053004306166</v>
       </c>
       <c r="N361">
-        <v>0.05628053004306177</v>
+        <v>0.05628053004306166</v>
       </c>
       <c r="O361">
-        <v>0.1125610600861235</v>
+        <v>0.1125610600861233</v>
       </c>
       <c r="P361">
         <v>0.1172478618318249</v>
@@ -20296,19 +20296,19 @@
         <v>0.05288164654134142</v>
       </c>
       <c r="I367">
-        <v>0.589986271495346</v>
+        <v>0.5899862714953461</v>
       </c>
       <c r="J367">
-        <v>0.3571320819633126</v>
+        <v>0.3571320819633125</v>
       </c>
       <c r="K367">
         <v>-0.06251094109580513</v>
       </c>
       <c r="L367">
-        <v>0.04852760356255714</v>
+        <v>0.04852760356255725</v>
       </c>
       <c r="M367">
-        <v>0.01398333753324799</v>
+        <v>0.01398333753324787</v>
       </c>
       <c r="N367">
         <v>0.06251094109580513</v>
@@ -20358,16 +20358,16 @@
         <v>0.02472407446311564</v>
       </c>
       <c r="L368">
-        <v>0.1191208622133201</v>
+        <v>0.11912086221332</v>
       </c>
       <c r="M368">
-        <v>-0.1438449366764357</v>
+        <v>-0.1438449366764356</v>
       </c>
       <c r="N368">
-        <v>0.1438449366764357</v>
+        <v>0.1438449366764356</v>
       </c>
       <c r="O368">
-        <v>0.2876898733528714</v>
+        <v>0.2876898733528712</v>
       </c>
       <c r="P368">
         <v>0.148551006215411</v>
@@ -20720,10 +20720,10 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I375">
-        <v>9.999999999980039E-13</v>
+        <v>9.999999999980039e-13</v>
       </c>
       <c r="J375">
-        <v>9.999999999980039E-13</v>
+        <v>9.999999999980039e-13</v>
       </c>
       <c r="K375">
         <v>0.6037011408670404</v>
@@ -20741,7 +20741,7 @@
         <v>1.207402281734081</v>
       </c>
       <c r="P375">
-        <v>1.333355592950742E-12</v>
+        <v>1.333355592950742e-12</v>
       </c>
       <c r="Q375" t="s">
         <v>126</v>
@@ -20823,28 +20823,28 @@
         <v>0</v>
       </c>
       <c r="H377">
-        <v>0.6437994018818685</v>
+        <v>0.6437994018818683</v>
       </c>
       <c r="I377">
         <v>0.264716091389762</v>
       </c>
       <c r="J377">
-        <v>0.09148450672836955</v>
+        <v>0.09148450672836966</v>
       </c>
       <c r="K377">
-        <v>0.06703426893663067</v>
+        <v>0.06703426893663056</v>
       </c>
       <c r="L377">
         <v>0.03504722001544394</v>
       </c>
       <c r="M377">
-        <v>-0.1020814889520746</v>
+        <v>-0.1020814889520745</v>
       </c>
       <c r="N377">
-        <v>0.1020814889520746</v>
+        <v>0.1020814889520745</v>
       </c>
       <c r="O377">
-        <v>0.2041629779041492</v>
+        <v>0.204162977904149</v>
       </c>
       <c r="P377">
         <v>0.1690261020415142</v>
@@ -20885,19 +20885,19 @@
         <v>0.1430236029232985</v>
       </c>
       <c r="K378">
-        <v>-0.335211464974964</v>
+        <v>-0.3352114649749639</v>
       </c>
       <c r="L378">
         <v>0.283672368780035</v>
       </c>
       <c r="M378">
-        <v>0.05153909619492897</v>
+        <v>0.05153909619492886</v>
       </c>
       <c r="N378">
-        <v>0.335211464974964</v>
+        <v>0.3352114649749639</v>
       </c>
       <c r="O378">
-        <v>0.670422929949928</v>
+        <v>0.6704229299499278</v>
       </c>
       <c r="P378">
         <v>0.1945292769849926</v>
@@ -21250,25 +21250,25 @@
         <v>0.02607024451149542</v>
       </c>
       <c r="I385">
-        <v>0.7259966444519822</v>
+        <v>0.7259966444519823</v>
       </c>
       <c r="J385">
-        <v>0.2479331110365224</v>
+        <v>0.2479331110365223</v>
       </c>
       <c r="K385">
         <v>-0.03618507985340635</v>
       </c>
       <c r="L385">
-        <v>0.1307577025600494</v>
+        <v>0.1307577025600495</v>
       </c>
       <c r="M385">
-        <v>-0.09457262270664302</v>
+        <v>-0.09457262270664313</v>
       </c>
       <c r="N385">
-        <v>0.1307577025600494</v>
+        <v>0.1307577025600495</v>
       </c>
       <c r="O385">
-        <v>0.2615154051200987</v>
+        <v>0.261515405120099</v>
       </c>
       <c r="P385">
         <v>0.1369261290157748</v>
@@ -21300,13 +21300,13 @@
         <v>0</v>
       </c>
       <c r="H386">
-        <v>0.4804504756432971</v>
+        <v>0.480450475643297</v>
       </c>
       <c r="I386">
         <v>0.2555713422595532</v>
       </c>
       <c r="J386">
-        <v>0.2639781820971496</v>
+        <v>0.2639781820971497</v>
       </c>
       <c r="K386">
         <v>0</v>
@@ -21324,7 +21324,7 @@
         <v>0</v>
       </c>
       <c r="P386">
-        <v>0.2113887162821546</v>
+        <v>0.2113887162821547</v>
       </c>
       <c r="Q386" t="s">
         <v>101</v>
@@ -21362,13 +21362,13 @@
         <v>0.2102905470243992</v>
       </c>
       <c r="K387">
-        <v>-0.3351766246065521</v>
+        <v>-0.335176624606552</v>
       </c>
       <c r="L387">
         <v>0.3888642596793025</v>
       </c>
       <c r="M387">
-        <v>-0.05368763507275043</v>
+        <v>-0.05368763507275054</v>
       </c>
       <c r="N387">
         <v>0.3888642596793025</v>
@@ -21727,10 +21727,10 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I394">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980039e-13</v>
       </c>
       <c r="J394">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980039e-13</v>
       </c>
       <c r="K394">
         <v>0.2657851904306487</v>
@@ -21748,7 +21748,7 @@
         <v>0.5315703808612976</v>
       </c>
       <c r="P394">
-        <v>1.333355592950743E-12</v>
+        <v>1.333355592950742e-12</v>
       </c>
       <c r="Q394" t="s">
         <v>158</v>
@@ -21830,16 +21830,16 @@
         <v>1</v>
       </c>
       <c r="H396">
-        <v>0.9999999999979998</v>
+        <v>0.9999999999979999</v>
       </c>
       <c r="I396">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="J396">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="K396">
-        <v>0.6634548415924175</v>
+        <v>0.6634548415924176</v>
       </c>
       <c r="L396">
         <v>-0.5985605019856045</v>
@@ -21848,13 +21848,13 @@
         <v>-0.06489433960681321</v>
       </c>
       <c r="N396">
-        <v>0.6634548415924175</v>
+        <v>0.6634548415924176</v>
       </c>
       <c r="O396">
         <v>1.326909683184835</v>
       </c>
       <c r="P396">
-        <v>1.333392600384897E-12</v>
+        <v>1.333355592950743e-12</v>
       </c>
       <c r="Q396" t="s">
         <v>158</v>
@@ -22257,10 +22257,10 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I404">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="J404">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="K404">
         <v>0.2321237615793315</v>
@@ -22278,7 +22278,7 @@
         <v>0.4642475231586631</v>
       </c>
       <c r="P404">
-        <v>1.333392600384897E-12</v>
+        <v>1.333392600384897e-12</v>
       </c>
       <c r="Q404" t="s">
         <v>115</v>
@@ -22363,10 +22363,10 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I406">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="J406">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="K406">
         <v>0.4476234097955253</v>
@@ -22384,7 +22384,7 @@
         <v>0.8952468195910508</v>
       </c>
       <c r="P406">
-        <v>1.333392600384897E-12</v>
+        <v>1.333392600384897e-12</v>
       </c>
       <c r="Q406" t="s">
         <v>115</v>
@@ -22413,13 +22413,13 @@
         <v>0</v>
       </c>
       <c r="H407">
-        <v>0.2875570969960495</v>
+        <v>0.2875570969960497</v>
       </c>
       <c r="I407">
         <v>0.2585342077576897</v>
       </c>
       <c r="J407">
-        <v>0.4539086952462608</v>
+        <v>0.4539086952462606</v>
       </c>
       <c r="K407">
         <v>0</v>
@@ -22475,19 +22475,19 @@
         <v>0.4967914261551117</v>
       </c>
       <c r="K408">
-        <v>-0.1556328450884252</v>
+        <v>-0.1556328450884255</v>
       </c>
       <c r="L408">
         <v>0.1127501141795744</v>
       </c>
       <c r="M408">
-        <v>0.04288273090885086</v>
+        <v>0.04288273090885109</v>
       </c>
       <c r="N408">
-        <v>0.1556328450884252</v>
+        <v>0.1556328450884255</v>
       </c>
       <c r="O408">
-        <v>0.3112656901768505</v>
+        <v>0.3112656901768509</v>
       </c>
       <c r="P408">
         <v>0.1993140743136567</v>
@@ -22519,13 +22519,13 @@
         <v>0</v>
       </c>
       <c r="H409">
-        <v>0.2828596274148305</v>
+        <v>0.2828596274148304</v>
       </c>
       <c r="I409">
         <v>0.2575077157323418</v>
       </c>
       <c r="J409">
-        <v>0.4596326568528277</v>
+        <v>0.4596326568528278</v>
       </c>
       <c r="K409">
         <v>0</v>
@@ -22581,19 +22581,19 @@
         <v>0.674955467804348</v>
       </c>
       <c r="K410">
-        <v>-0.1587934045110813</v>
+        <v>-0.1587934045110811</v>
       </c>
       <c r="L410">
         <v>-0.05652940644043905</v>
       </c>
       <c r="M410">
-        <v>0.2153228109515203</v>
+        <v>0.2153228109515202</v>
       </c>
       <c r="N410">
-        <v>0.2153228109515203</v>
+        <v>0.2153228109515202</v>
       </c>
       <c r="O410">
-        <v>0.4306456219030407</v>
+        <v>0.4306456219030405</v>
       </c>
       <c r="P410">
         <v>0.1628834693365264</v>
@@ -22678,13 +22678,13 @@
         <v>0</v>
       </c>
       <c r="H412">
-        <v>0.3180193565131922</v>
+        <v>0.3180193565131924</v>
       </c>
       <c r="I412">
         <v>0.2638967225588925</v>
       </c>
       <c r="J412">
-        <v>0.4180839209279153</v>
+        <v>0.4180839209279152</v>
       </c>
       <c r="K412">
         <v>0</v>
@@ -22740,19 +22740,19 @@
         <v>0.3096976101296661</v>
       </c>
       <c r="K413">
-        <v>-0.2066066952365511</v>
+        <v>-0.2066066952365512</v>
       </c>
       <c r="L413">
         <v>0.3149930060348002</v>
       </c>
       <c r="M413">
-        <v>-0.1083863107982492</v>
+        <v>-0.1083863107982491</v>
       </c>
       <c r="N413">
         <v>0.3149930060348002</v>
       </c>
       <c r="O413">
-        <v>0.6299860120696006</v>
+        <v>0.6299860120696004</v>
       </c>
       <c r="P413">
         <v>0.1855204304386502</v>
@@ -23052,10 +23052,10 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I419">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="J419">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="K419">
         <v>0.2462360113982813</v>
@@ -23073,7 +23073,7 @@
         <v>0.4924720227965627</v>
       </c>
       <c r="P419">
-        <v>1.333355592950743E-12</v>
+        <v>1.333355592950743e-12</v>
       </c>
       <c r="Q419" t="s">
         <v>125</v>
@@ -23105,28 +23105,28 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I420">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="J420">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="K420">
         <v>0</v>
       </c>
       <c r="L420">
-        <v>-2.01948391736579E-28</v>
+        <v>-2.01948391736579e-28</v>
       </c>
       <c r="M420">
-        <v>-2.01948391736579E-28</v>
+        <v>-2.01948391736579e-28</v>
       </c>
       <c r="N420">
-        <v>2.01948391736579E-28</v>
+        <v>2.01948391736579e-28</v>
       </c>
       <c r="O420">
-        <v>4.03896783473158E-28</v>
+        <v>4.03896783473158e-28</v>
       </c>
       <c r="P420">
-        <v>1.333355592950743E-12</v>
+        <v>1.333355592950743e-12</v>
       </c>
       <c r="Q420" t="s">
         <v>125</v>
@@ -23158,28 +23158,28 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I421">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="J421">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="K421">
-        <v>-1.110223024625157E-16</v>
+        <v>-1.110223024625157e-16</v>
       </c>
       <c r="L421">
-        <v>2.01948391736579E-28</v>
+        <v>2.01948391736579e-28</v>
       </c>
       <c r="M421">
-        <v>2.01948391736579E-28</v>
+        <v>2.01948391736579e-28</v>
       </c>
       <c r="N421">
-        <v>1.110223024625157E-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="O421">
-        <v>1.110223024629196E-16</v>
+        <v>1.110223024629196e-16</v>
       </c>
       <c r="P421">
-        <v>1.333392600384897E-12</v>
+        <v>1.333392600384897e-12</v>
       </c>
       <c r="Q421" t="s">
         <v>125</v>
@@ -23370,10 +23370,10 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I425">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="J425">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="K425">
         <v>0</v>
@@ -23391,7 +23391,7 @@
         <v>0</v>
       </c>
       <c r="P425">
-        <v>1.333355592950743E-12</v>
+        <v>1.333355592950743e-12</v>
       </c>
       <c r="Q425" t="s">
         <v>101</v>
@@ -23476,10 +23476,10 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I427">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="J427">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="K427">
         <v>0.379995001824498</v>
@@ -23497,7 +23497,7 @@
         <v>0.759990003648996</v>
       </c>
       <c r="P427">
-        <v>1.333392600384897E-12</v>
+        <v>1.333392600384897e-12</v>
       </c>
       <c r="Q427" t="s">
         <v>110</v>
@@ -23582,10 +23582,10 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I429">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="J429">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="K429">
         <v>0.7190827520410722</v>
@@ -23603,7 +23603,7 @@
         <v>1.438165504082144</v>
       </c>
       <c r="P429">
-        <v>1.333355592950743E-12</v>
+        <v>1.333355592950743e-12</v>
       </c>
       <c r="Q429" t="s">
         <v>110</v>
@@ -23850,7 +23850,7 @@
         <v>0.3956512659648367</v>
       </c>
       <c r="J434">
-        <v>0.4049835125782556</v>
+        <v>0.4049835125782555</v>
       </c>
       <c r="K434">
         <v>-0.2151783929248881</v>
@@ -23859,7 +23859,7 @@
         <v>0.1298949440333877</v>
       </c>
       <c r="M434">
-        <v>0.08528344889150036</v>
+        <v>0.0852834488915003</v>
       </c>
       <c r="N434">
         <v>0.2151783929248881</v>
@@ -23912,13 +23912,13 @@
         <v>0.1990111292955907</v>
       </c>
       <c r="M435">
-        <v>-0.220831199653186</v>
+        <v>-0.2208311996531859</v>
       </c>
       <c r="N435">
-        <v>0.220831199653186</v>
+        <v>0.2208311996531859</v>
       </c>
       <c r="O435">
-        <v>0.441662399306372</v>
+        <v>0.4416623993063719</v>
       </c>
       <c r="P435">
         <v>0.1878472093308039</v>
@@ -23950,22 +23950,22 @@
         <v>2</v>
       </c>
       <c r="H436">
-        <v>0.08108126389931924</v>
+        <v>0.08108126389931913</v>
       </c>
       <c r="I436">
         <v>0.7754888201808413</v>
       </c>
       <c r="J436">
-        <v>0.1434299159198394</v>
+        <v>0.1434299159198396</v>
       </c>
       <c r="K436">
-        <v>-0.1401040279151837</v>
+        <v>-0.1401040279151838</v>
       </c>
       <c r="L436">
         <v>0.1808264249204139</v>
       </c>
       <c r="M436">
-        <v>-0.04072239700523017</v>
+        <v>-0.04072239700523006</v>
       </c>
       <c r="N436">
         <v>0.1808264249204139</v>
@@ -24430,10 +24430,10 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I445">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="J445">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="K445">
         <v>0.3092559910297279</v>
@@ -24451,7 +24451,7 @@
         <v>0.6185119820594559</v>
       </c>
       <c r="P445">
-        <v>1.333392600384897E-12</v>
+        <v>1.333392600384897e-12</v>
       </c>
       <c r="Q445" t="s">
         <v>153</v>
@@ -24536,10 +24536,10 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I447">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="J447">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="K447">
         <v>0.5019684762408921</v>
@@ -24557,7 +24557,7 @@
         <v>1.003936952481784</v>
       </c>
       <c r="P447">
-        <v>1.333355592950743E-12</v>
+        <v>1.333355592950743e-12</v>
       </c>
       <c r="Q447" t="s">
         <v>153</v>
@@ -24586,25 +24586,25 @@
         <v>2</v>
       </c>
       <c r="H448">
-        <v>0.1332505978084229</v>
+        <v>0.133250597808423</v>
       </c>
       <c r="I448">
         <v>0.8210235714708324</v>
       </c>
       <c r="J448">
-        <v>0.04572583072074476</v>
+        <v>0.04572583072074465</v>
       </c>
       <c r="K448">
-        <v>-0.8667494021895771</v>
+        <v>-0.866749402189577</v>
       </c>
       <c r="L448">
         <v>0.8210235714698324</v>
       </c>
       <c r="M448">
-        <v>0.04572583071974477</v>
+        <v>0.04572583071974465</v>
       </c>
       <c r="N448">
-        <v>0.8667494021895771</v>
+        <v>0.866749402189577</v>
       </c>
       <c r="O448">
         <v>1.733498804379154</v>
@@ -25593,28 +25593,28 @@
         <v>1</v>
       </c>
       <c r="H467">
-        <v>0.3727776844225283</v>
+        <v>0.3727776844225282</v>
       </c>
       <c r="I467">
         <v>0.3737069505113326</v>
       </c>
       <c r="J467">
-        <v>0.2535153650661391</v>
+        <v>0.2535153650661392</v>
       </c>
       <c r="K467">
-        <v>-0.3169294476333299</v>
+        <v>-0.31692944763333</v>
       </c>
       <c r="L467">
         <v>0.1858467188846302</v>
       </c>
       <c r="M467">
-        <v>0.1310827287486997</v>
+        <v>0.1310827287486998</v>
       </c>
       <c r="N467">
-        <v>0.3169294476333299</v>
+        <v>0.31692944763333</v>
       </c>
       <c r="O467">
-        <v>0.6338588952666597</v>
+        <v>0.6338588952666599</v>
       </c>
       <c r="P467">
         <v>0.2190366242704935</v>
@@ -25655,19 +25655,19 @@
         <v>0.1214075999492584</v>
       </c>
       <c r="K468">
-        <v>0.05322209038120884</v>
+        <v>0.05322209038120895</v>
       </c>
       <c r="L468">
         <v>0.07888567473567182</v>
       </c>
       <c r="M468">
-        <v>-0.1321077651168807</v>
+        <v>-0.1321077651168808</v>
       </c>
       <c r="N468">
-        <v>0.1321077651168807</v>
+        <v>0.1321077651168808</v>
       </c>
       <c r="O468">
-        <v>0.2642155302337613</v>
+        <v>0.2642155302337615</v>
       </c>
       <c r="P468">
         <v>0.1996481007045836</v>
@@ -25755,10 +25755,10 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I470">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="J470">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="K470">
         <v>0</v>
@@ -25776,7 +25776,7 @@
         <v>0</v>
       </c>
       <c r="P470">
-        <v>1.333392600384897E-12</v>
+        <v>1.333392600384897e-12</v>
       </c>
       <c r="Q470" t="s">
         <v>101</v>
@@ -25808,28 +25808,28 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I471">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="J471">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="K471">
         <v>0</v>
       </c>
       <c r="L471">
-        <v>-2.01948391736579E-28</v>
+        <v>-2.01948391736579e-28</v>
       </c>
       <c r="M471">
-        <v>-2.01948391736579E-28</v>
+        <v>-2.01948391736579e-28</v>
       </c>
       <c r="N471">
-        <v>2.01948391736579E-28</v>
+        <v>2.01948391736579e-28</v>
       </c>
       <c r="O471">
-        <v>4.03896783473158E-28</v>
+        <v>4.03896783473158e-28</v>
       </c>
       <c r="P471">
-        <v>1.333392600384897E-12</v>
+        <v>1.333392600384897e-12</v>
       </c>
       <c r="Q471" t="s">
         <v>126</v>
@@ -25861,28 +25861,28 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I472">
-        <v>9.999999999980039E-13</v>
+        <v>9.999999999980039e-13</v>
       </c>
       <c r="J472">
-        <v>9.999999999980039E-13</v>
+        <v>9.999999999980039e-13</v>
       </c>
       <c r="K472">
         <v>0</v>
       </c>
       <c r="L472">
-        <v>-4.03896783473158E-28</v>
+        <v>-4.03896783473158e-28</v>
       </c>
       <c r="M472">
-        <v>-4.03896783473158E-28</v>
+        <v>-4.03896783473158e-28</v>
       </c>
       <c r="N472">
-        <v>4.03896783473158E-28</v>
+        <v>4.03896783473158e-28</v>
       </c>
       <c r="O472">
-        <v>8.077935669463161E-28</v>
+        <v>8.077935669463161e-28</v>
       </c>
       <c r="P472">
-        <v>1.333392600384896E-12</v>
+        <v>1.333392600384896e-12</v>
       </c>
       <c r="Q472" t="s">
         <v>126</v>
@@ -25911,13 +25911,13 @@
         <v>0</v>
       </c>
       <c r="H473">
-        <v>0.5165499007804483</v>
+        <v>0.5165499007804485</v>
       </c>
       <c r="I473">
         <v>0.2471368380394902</v>
       </c>
       <c r="J473">
-        <v>0.2363132611800615</v>
+        <v>0.2363132611800613</v>
       </c>
       <c r="K473">
         <v>0</v>
@@ -25935,7 +25935,7 @@
         <v>0</v>
       </c>
       <c r="P473">
-        <v>0.205418541959332</v>
+        <v>0.2054185419593319</v>
       </c>
       <c r="Q473" t="s">
         <v>101</v>
@@ -25973,19 +25973,19 @@
         <v>0.3758808797169404</v>
       </c>
       <c r="K474">
-        <v>-0.2429170150869915</v>
+        <v>-0.2429170150869917</v>
       </c>
       <c r="L474">
         <v>0.1033493965501126</v>
       </c>
       <c r="M474">
-        <v>0.1395676185368789</v>
+        <v>0.1395676185368791</v>
       </c>
       <c r="N474">
-        <v>0.2429170150869915</v>
+        <v>0.2429170150869917</v>
       </c>
       <c r="O474">
-        <v>0.485834030173983</v>
+        <v>0.4858340301739834</v>
       </c>
       <c r="P474">
         <v>0.2203326691644975</v>
@@ -26229,7 +26229,7 @@
         <v>0</v>
       </c>
       <c r="H479">
-        <v>0.1870544510511249</v>
+        <v>0.1870544510511248</v>
       </c>
       <c r="I479">
         <v>0.2253938273274399</v>
@@ -26291,7 +26291,7 @@
         <v>0.6440991340120368</v>
       </c>
       <c r="K480">
-        <v>-0.1045923542288149</v>
+        <v>-0.1045923542288147</v>
       </c>
       <c r="L480">
         <v>0.04804494183821328</v>
@@ -26300,10 +26300,10 @@
         <v>0.05654741239060157</v>
       </c>
       <c r="N480">
-        <v>0.1045923542288149</v>
+        <v>0.1045923542288147</v>
       </c>
       <c r="O480">
-        <v>0.2091847084576297</v>
+        <v>0.2091847084576296</v>
       </c>
       <c r="P480">
         <v>0.1678558492232617</v>
@@ -26341,22 +26341,22 @@
         <v>0.378351704982138</v>
       </c>
       <c r="J481">
-        <v>0.5765057060601879</v>
+        <v>0.576505706060188</v>
       </c>
       <c r="K481">
         <v>-0.03731950786463611</v>
       </c>
       <c r="L481">
-        <v>0.1049129358164849</v>
+        <v>0.1049129358164848</v>
       </c>
       <c r="M481">
-        <v>-0.06759342795184886</v>
+        <v>-0.06759342795184875</v>
       </c>
       <c r="N481">
-        <v>0.1049129358164849</v>
+        <v>0.1049129358164848</v>
       </c>
       <c r="O481">
-        <v>0.2098258716329698</v>
+        <v>0.2098258716329697</v>
       </c>
       <c r="P481">
         <v>0.1741511016264506</v>
@@ -26653,31 +26653,31 @@
         <v>0</v>
       </c>
       <c r="H487">
-        <v>0.3208961851582733</v>
+        <v>0.3208961851582732</v>
       </c>
       <c r="I487">
         <v>0.4562705131617057</v>
       </c>
       <c r="J487">
-        <v>0.222833301680021</v>
+        <v>0.2228333016800211</v>
       </c>
       <c r="K487">
-        <v>0.06677264245511771</v>
+        <v>0.0667726424551176</v>
       </c>
       <c r="L487">
         <v>0.2061658062808228</v>
       </c>
       <c r="M487">
-        <v>-0.2729384487359405</v>
+        <v>-0.2729384487359404</v>
       </c>
       <c r="N487">
-        <v>0.2729384487359405</v>
+        <v>0.2729384487359404</v>
       </c>
       <c r="O487">
-        <v>0.545876897471881</v>
+        <v>0.5458768974718807</v>
       </c>
       <c r="P487">
-        <v>0.2130627256108005</v>
+        <v>0.2130627256108006</v>
       </c>
       <c r="Q487" t="s">
         <v>152</v>
@@ -27663,28 +27663,28 @@
         <v>0.05832606716527677</v>
       </c>
       <c r="I506">
-        <v>0.8070964201077026</v>
+        <v>0.8070964201077024</v>
       </c>
       <c r="J506">
-        <v>0.1345775127270207</v>
+        <v>0.1345775127270208</v>
       </c>
       <c r="K506">
         <v>0.004867569147985251</v>
       </c>
       <c r="L506">
-        <v>0.6814915281973031</v>
+        <v>0.681491528197303</v>
       </c>
       <c r="M506">
-        <v>-0.6863590973452883</v>
+        <v>-0.6863590973452882</v>
       </c>
       <c r="N506">
-        <v>0.6863590973452883</v>
+        <v>0.6863590973452882</v>
       </c>
       <c r="O506">
-        <v>1.372718194690577</v>
+        <v>1.372718194690576</v>
       </c>
       <c r="P506">
-        <v>0.109027443868857</v>
+        <v>0.1090274438688571</v>
       </c>
       <c r="Q506" t="s">
         <v>129</v>
@@ -27831,16 +27831,16 @@
         <v>0.1765287352705804</v>
       </c>
       <c r="L509">
-        <v>0.002966232531387558</v>
+        <v>0.002966232531387503</v>
       </c>
       <c r="M509">
-        <v>-0.179494967801968</v>
+        <v>-0.1794949678019679</v>
       </c>
       <c r="N509">
-        <v>0.179494967801968</v>
+        <v>0.1794949678019679</v>
       </c>
       <c r="O509">
-        <v>0.358989935603936</v>
+        <v>0.3589899356039359</v>
       </c>
       <c r="P509">
         <v>0.2126588127176295</v>
@@ -27884,7 +27884,7 @@
         <v>0.1705713572421326</v>
       </c>
       <c r="L510">
-        <v>-0.04739627412421649</v>
+        <v>-0.04739627412421643</v>
       </c>
       <c r="M510">
         <v>-0.1231750831179161</v>
@@ -28190,13 +28190,13 @@
         <v>0</v>
       </c>
       <c r="H516">
-        <v>0.2837978010886755</v>
+        <v>0.2837978010886754</v>
       </c>
       <c r="I516">
         <v>0.2577169089226354</v>
       </c>
       <c r="J516">
-        <v>0.4584852899886891</v>
+        <v>0.4584852899886892</v>
       </c>
       <c r="K516">
         <v>0</v>
@@ -28252,19 +28252,19 @@
         <v>0.6763096420004518</v>
       </c>
       <c r="K517">
-        <v>-0.1595349245749222</v>
+        <v>-0.1595349245749221</v>
       </c>
       <c r="L517">
         <v>-0.05828942743684049</v>
       </c>
       <c r="M517">
-        <v>0.2178243520117628</v>
+        <v>0.2178243520117626</v>
       </c>
       <c r="N517">
-        <v>0.2178243520117628</v>
+        <v>0.2178243520117626</v>
       </c>
       <c r="O517">
-        <v>0.4356487040235255</v>
+        <v>0.4356487040235253</v>
       </c>
       <c r="P517">
         <v>0.1624642284286605</v>

--- a/data/out/wiki/men/fifa/wc/tab_prob_fifa_wc_csato.xlsx
+++ b/data/out/wiki/men/fifa/wc/tab_prob_fifa_wc_csato.xlsx
@@ -1001,31 +1001,31 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.7571243881112502</v>
+        <v>0.7571243881112499</v>
       </c>
       <c r="I3">
         <v>0.1608155933170785</v>
       </c>
       <c r="J3">
-        <v>0.08206001857167133</v>
+        <v>0.08206001857167156</v>
       </c>
       <c r="K3">
-        <v>0.201273800727523</v>
+        <v>0.2012738007275228</v>
       </c>
       <c r="L3">
         <v>-0.0753506158565582</v>
       </c>
       <c r="M3">
-        <v>-0.1259231848709648</v>
+        <v>-0.1259231848709646</v>
       </c>
       <c r="N3">
-        <v>0.201273800727523</v>
+        <v>0.2012738007275228</v>
       </c>
       <c r="O3">
-        <v>0.402547601455046</v>
+        <v>0.4025476014550455</v>
       </c>
       <c r="P3">
-        <v>0.131389053075086</v>
+        <v>0.1313890530750861</v>
       </c>
       <c r="Q3" t="s">
         <v>102</v>
@@ -1054,31 +1054,31 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.9999999999979999</v>
+        <v>0.9999999999979998</v>
       </c>
       <c r="I4">
-        <v>9.999999999980045e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="J4">
-        <v>9.999999999980045e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="K4">
-        <v>0.2428756118867498</v>
+        <v>0.2428756118867499</v>
       </c>
       <c r="L4">
         <v>-0.1608155933160785</v>
       </c>
       <c r="M4">
-        <v>-0.08206001857067133</v>
+        <v>-0.08206001857067155</v>
       </c>
       <c r="N4">
-        <v>0.2428756118867498</v>
+        <v>0.2428756118867499</v>
       </c>
       <c r="O4">
-        <v>0.4857512237734997</v>
+        <v>0.4857512237735</v>
       </c>
       <c r="P4">
-        <v>1.333355592950743e-12</v>
+        <v>1.333392600384897E-12</v>
       </c>
       <c r="Q4" t="s">
         <v>102</v>
@@ -1322,25 +1322,25 @@
         <v>0.04476991048765988</v>
       </c>
       <c r="I9">
-        <v>0.5875259692355835</v>
+        <v>0.5875259692355836</v>
       </c>
       <c r="J9">
-        <v>0.3677041202767566</v>
+        <v>0.3677041202767565</v>
       </c>
       <c r="K9">
         <v>-0.05329684550909575</v>
       </c>
       <c r="L9">
-        <v>0.08068524418705847</v>
+        <v>0.08068524418705858</v>
       </c>
       <c r="M9">
-        <v>-0.02738839867796272</v>
+        <v>-0.02738839867796283</v>
       </c>
       <c r="N9">
-        <v>0.08068524418705847</v>
+        <v>0.08068524418705858</v>
       </c>
       <c r="O9">
-        <v>0.1613704883741169</v>
+        <v>0.1613704883741172</v>
       </c>
       <c r="P9">
         <v>0.1725341901734039</v>
@@ -1384,16 +1384,16 @@
         <v>0.01286138254123981</v>
       </c>
       <c r="L10">
-        <v>0.151227027209786</v>
+        <v>0.1512270272097859</v>
       </c>
       <c r="M10">
-        <v>-0.1640884097510258</v>
+        <v>-0.1640884097510257</v>
       </c>
       <c r="N10">
-        <v>0.1640884097510258</v>
+        <v>0.1640884097510257</v>
       </c>
       <c r="O10">
-        <v>0.3281768195020516</v>
+        <v>0.3281768195020514</v>
       </c>
       <c r="P10">
         <v>0.1364877622446356</v>
@@ -1478,7 +1478,7 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>0.1265664994412591</v>
+        <v>0.126566499441259</v>
       </c>
       <c r="I12">
         <v>0.3617149258554834</v>
@@ -1487,7 +1487,7 @@
         <v>0.5117185747032575</v>
       </c>
       <c r="K12">
-        <v>-0.1488117944671549</v>
+        <v>-0.148811794467155</v>
       </c>
       <c r="L12">
         <v>0.1059496314281577</v>
@@ -1496,13 +1496,13 @@
         <v>0.04286216303899726</v>
       </c>
       <c r="N12">
-        <v>0.1488117944671549</v>
+        <v>0.148811794467155</v>
       </c>
       <c r="O12">
-        <v>0.2976235889343098</v>
+        <v>0.2976235889343099</v>
       </c>
       <c r="P12">
-        <v>0.1970957779787382</v>
+        <v>0.1970957779787381</v>
       </c>
       <c r="Q12" t="s">
         <v>105</v>
@@ -1637,28 +1637,28 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>0.388796166612318</v>
+        <v>0.3887961666123181</v>
       </c>
       <c r="I15">
         <v>0.3918663784960509</v>
       </c>
       <c r="J15">
-        <v>0.2193374548916311</v>
+        <v>0.219337454891631</v>
       </c>
       <c r="K15">
-        <v>0.1155150317032448</v>
+        <v>0.115515031703245</v>
       </c>
       <c r="L15">
-        <v>0.06886481412304157</v>
+        <v>0.06886481412304163</v>
       </c>
       <c r="M15">
-        <v>-0.1843798458262864</v>
+        <v>-0.1843798458262866</v>
       </c>
       <c r="N15">
-        <v>0.1843798458262864</v>
+        <v>0.1843798458262866</v>
       </c>
       <c r="O15">
-        <v>0.3687596916525728</v>
+        <v>0.3687596916525732</v>
       </c>
       <c r="P15">
         <v>0.2157231210378727</v>
@@ -1699,19 +1699,19 @@
         <v>0.3228611833540532</v>
       </c>
       <c r="K16">
-        <v>-0.1587996055060321</v>
+        <v>-0.1587996055060322</v>
       </c>
       <c r="L16">
-        <v>0.05527587704361009</v>
+        <v>0.05527587704361003</v>
       </c>
       <c r="M16">
-        <v>0.103523728462422</v>
+        <v>0.1035237284624222</v>
       </c>
       <c r="N16">
-        <v>0.1587996055060321</v>
+        <v>0.1587996055060322</v>
       </c>
       <c r="O16">
-        <v>0.3175992110120642</v>
+        <v>0.3175992110120645</v>
       </c>
       <c r="P16">
         <v>0.2143086804911358</v>
@@ -1796,13 +1796,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.3995158330516634</v>
+        <v>0.3995158330516633</v>
       </c>
       <c r="I18">
         <v>0.2669154849838805</v>
       </c>
       <c r="J18">
-        <v>0.3335686819644562</v>
+        <v>0.3335686819644563</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1820,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.219291719143117</v>
+        <v>0.2192917191431169</v>
       </c>
       <c r="Q18" t="s">
         <v>101</v>
@@ -1858,19 +1858,19 @@
         <v>0.4955621108772233</v>
       </c>
       <c r="K19">
-        <v>-0.1924601820925645</v>
+        <v>-0.1924601820925644</v>
       </c>
       <c r="L19">
         <v>0.03046675317979736</v>
       </c>
       <c r="M19">
-        <v>0.1619934289127672</v>
+        <v>0.1619934289127671</v>
       </c>
       <c r="N19">
-        <v>0.1924601820925645</v>
+        <v>0.1924601820925644</v>
       </c>
       <c r="O19">
-        <v>0.3849203641851291</v>
+        <v>0.3849203641851289</v>
       </c>
       <c r="P19">
         <v>0.2077033186978587</v>
@@ -2011,10 +2011,10 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I22">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="J22">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2032,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>1.333392600384897e-12</v>
+        <v>1.333392600384897E-12</v>
       </c>
       <c r="Q22" t="s">
         <v>101</v>
@@ -2064,28 +2064,28 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I23">
-        <v>9.999999999980045e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="J23">
-        <v>9.999999999980045e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="K23">
-        <v>1.110223024625157e-16</v>
+        <v>1.110223024625157E-16</v>
       </c>
       <c r="L23">
-        <v>2.01948391736579e-28</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>2.01948391736579e-28</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>1.110223024625157e-16</v>
+        <v>1.110223024625157E-16</v>
       </c>
       <c r="O23">
-        <v>1.110223024629196e-16</v>
+        <v>1.110223024625157E-16</v>
       </c>
       <c r="P23">
-        <v>1.333355592950743e-12</v>
+        <v>1.333355592950743E-12</v>
       </c>
       <c r="Q23" t="s">
         <v>109</v>
@@ -2117,28 +2117,28 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I24">
-        <v>9.999999999980045e-13</v>
+        <v>9.999999999980045E-13</v>
       </c>
       <c r="J24">
-        <v>9.999999999980045e-13</v>
+        <v>9.999999999980045E-13</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>2.01948391736579E-28</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>2.01948391736579E-28</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>2.01948391736579E-28</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>4.03896783473158E-28</v>
       </c>
       <c r="P24">
-        <v>1.333355592950743e-12</v>
+        <v>1.333355592950743E-12</v>
       </c>
       <c r="Q24" t="s">
         <v>109</v>
@@ -2167,13 +2167,13 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.2262073493195615</v>
+        <v>0.2262073493195614</v>
       </c>
       <c r="I25">
         <v>0.2410965119296804</v>
       </c>
       <c r="J25">
-        <v>0.5326961387507581</v>
+        <v>0.5326961387507582</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2220,31 +2220,31 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>0.0958762498726764</v>
+        <v>0.09587624987267651</v>
       </c>
       <c r="I26">
         <v>0.1973415897810714</v>
       </c>
       <c r="J26">
-        <v>0.7067821603462523</v>
+        <v>0.7067821603462521</v>
       </c>
       <c r="K26">
-        <v>-0.1303310994468851</v>
+        <v>-0.1303310994468849</v>
       </c>
       <c r="L26">
         <v>-0.04375492214860904</v>
       </c>
       <c r="M26">
-        <v>0.1740860215954942</v>
+        <v>0.1740860215954939</v>
       </c>
       <c r="N26">
-        <v>0.1740860215954942</v>
+        <v>0.1740860215954939</v>
       </c>
       <c r="O26">
-        <v>0.3481720431909884</v>
+        <v>0.3481720431909879</v>
       </c>
       <c r="P26">
-        <v>0.1507743398231053</v>
+        <v>0.1507743398231054</v>
       </c>
       <c r="Q26" t="s">
         <v>110</v>
@@ -2282,19 +2282,19 @@
         <v>0.5453893158483734</v>
       </c>
       <c r="K27">
-        <v>-0.04439704044167236</v>
+        <v>-0.04439704044167248</v>
       </c>
       <c r="L27">
         <v>0.2057898849395512</v>
       </c>
       <c r="M27">
-        <v>-0.1613928444978789</v>
+        <v>-0.1613928444978787</v>
       </c>
       <c r="N27">
         <v>0.2057898849395512</v>
       </c>
       <c r="O27">
-        <v>0.4115797698791025</v>
+        <v>0.4115797698791024</v>
       </c>
       <c r="P27">
         <v>0.1791284664147927</v>
@@ -2379,13 +2379,13 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>0.4444998810138061</v>
+        <v>0.444499881013806</v>
       </c>
       <c r="I29">
         <v>0.2620770925775258</v>
       </c>
       <c r="J29">
-        <v>0.2934230264086681</v>
+        <v>0.2934230264086682</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -2441,19 +2441,19 @@
         <v>0.482638045067834</v>
       </c>
       <c r="K30">
-        <v>-0.2019996082625987</v>
+        <v>-0.2019996082625986</v>
       </c>
       <c r="L30">
         <v>0.01278458960343276</v>
       </c>
       <c r="M30">
-        <v>0.1892150186591659</v>
+        <v>0.1892150186591658</v>
       </c>
       <c r="N30">
-        <v>0.2019996082625987</v>
+        <v>0.2019996082625986</v>
       </c>
       <c r="O30">
-        <v>0.4039992165251973</v>
+        <v>0.4039992165251971</v>
       </c>
       <c r="P30">
         <v>0.2109017302791144</v>
@@ -2700,10 +2700,10 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I35">
-        <v>9.999999999980039e-13</v>
+        <v>9.999999999980039E-13</v>
       </c>
       <c r="J35">
-        <v>9.999999999980039e-13</v>
+        <v>9.999999999980039E-13</v>
       </c>
       <c r="K35">
         <v>0.4340283762729581</v>
@@ -2721,7 +2721,7 @@
         <v>0.8680567525459164</v>
       </c>
       <c r="P35">
-        <v>1.333392600384896e-12</v>
+        <v>1.333392600384896E-12</v>
       </c>
       <c r="Q35" t="s">
         <v>112</v>
@@ -2806,10 +2806,10 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I37">
-        <v>9.999999999980045e-13</v>
+        <v>9.999999999980045E-13</v>
       </c>
       <c r="J37">
-        <v>9.999999999980045e-13</v>
+        <v>9.999999999980045E-13</v>
       </c>
       <c r="K37">
         <v>0.2703451014193966</v>
@@ -2827,7 +2827,7 @@
         <v>0.5406902028387932</v>
       </c>
       <c r="P37">
-        <v>1.333355592950743e-12</v>
+        <v>1.333355592950743E-12</v>
       </c>
       <c r="Q37" t="s">
         <v>113</v>
@@ -2856,31 +2856,31 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>0.9999999999979998</v>
+        <v>0.9999999999979999</v>
       </c>
       <c r="I38">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980045E-13</v>
       </c>
       <c r="J38">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980045E-13</v>
       </c>
       <c r="K38">
-        <v>-1.110223024625157e-16</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>-2.01948391736579e-28</v>
+        <v>0</v>
       </c>
       <c r="M38">
-        <v>-2.01948391736579e-28</v>
+        <v>0</v>
       </c>
       <c r="N38">
-        <v>1.110223024625157e-16</v>
+        <v>0</v>
       </c>
       <c r="O38">
-        <v>1.110223024629196e-16</v>
+        <v>0</v>
       </c>
       <c r="P38">
-        <v>1.333392600384897e-12</v>
+        <v>1.333355592950743E-12</v>
       </c>
       <c r="Q38" t="s">
         <v>113</v>
@@ -2912,28 +2912,28 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I39">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="J39">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>-2.01948391736579E-28</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>-2.01948391736579E-28</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>1.110223024625157E-16</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>1.110223024629196E-16</v>
       </c>
       <c r="P39">
-        <v>1.333392600384897e-12</v>
+        <v>1.333392600384897E-12</v>
       </c>
       <c r="Q39" t="s">
         <v>113</v>
@@ -3015,28 +3015,28 @@
         <v>1</v>
       </c>
       <c r="H41">
-        <v>0.4406217672919546</v>
+        <v>0.4406217672919548</v>
       </c>
       <c r="I41">
         <v>0.2940515729682254</v>
       </c>
       <c r="J41">
-        <v>0.26532665973982</v>
+        <v>0.2653266597398198</v>
       </c>
       <c r="K41">
-        <v>-0.2633254246011763</v>
+        <v>-0.263325424601176</v>
       </c>
       <c r="L41">
         <v>0.1122112170447642</v>
       </c>
       <c r="M41">
-        <v>0.1511142075564121</v>
+        <v>0.1511142075564118</v>
       </c>
       <c r="N41">
-        <v>0.2633254246011763</v>
+        <v>0.263325424601176</v>
       </c>
       <c r="O41">
-        <v>0.5266508492023525</v>
+        <v>0.5266508492023521</v>
       </c>
       <c r="P41">
         <v>0.2163292980849123</v>
@@ -3077,19 +3077,19 @@
         <v>0.4360987097648811</v>
       </c>
       <c r="K42">
-        <v>-0.185706430730592</v>
+        <v>-0.1857064307305922</v>
       </c>
       <c r="L42">
         <v>0.01493438070553094</v>
       </c>
       <c r="M42">
-        <v>0.1707720500250611</v>
+        <v>0.1707720500250613</v>
       </c>
       <c r="N42">
-        <v>0.185706430730592</v>
+        <v>0.1857064307305922</v>
       </c>
       <c r="O42">
-        <v>0.371412861461184</v>
+        <v>0.3714128614611845</v>
       </c>
       <c r="P42">
         <v>0.2164545889865108</v>
@@ -3177,25 +3177,25 @@
         <v>0.1476568492407275</v>
       </c>
       <c r="I44">
-        <v>0.6302954527274287</v>
+        <v>0.6302954527274288</v>
       </c>
       <c r="J44">
-        <v>0.2220476980318438</v>
+        <v>0.2220476980318437</v>
       </c>
       <c r="K44">
         <v>0.03023197620255103</v>
       </c>
       <c r="L44">
-        <v>0.2183254278648496</v>
+        <v>0.2183254278648497</v>
       </c>
       <c r="M44">
-        <v>-0.2485574040674006</v>
+        <v>-0.2485574040674007</v>
       </c>
       <c r="N44">
-        <v>0.2485574040674006</v>
+        <v>0.2485574040674007</v>
       </c>
       <c r="O44">
-        <v>0.4971148081348012</v>
+        <v>0.4971148081348015</v>
       </c>
       <c r="P44">
         <v>0.1772066389807286</v>
@@ -3283,10 +3283,10 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I46">
-        <v>9.999999999980047e-13</v>
+        <v>9.999999999980045E-13</v>
       </c>
       <c r="J46">
-        <v>9.999999999980047e-13</v>
+        <v>9.999999999980045E-13</v>
       </c>
       <c r="K46">
         <v>0.2767816016607595</v>
@@ -3304,7 +3304,7 @@
         <v>0.553563203321519</v>
       </c>
       <c r="P46">
-        <v>1.333355592950743e-12</v>
+        <v>1.333355592950743E-12</v>
       </c>
       <c r="Q46" t="s">
         <v>116</v>
@@ -3336,28 +3336,28 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I47">
-        <v>9.999999999980047e-13</v>
+        <v>9.999999999980047E-13</v>
       </c>
       <c r="J47">
-        <v>9.999999999980047e-13</v>
+        <v>9.999999999980047E-13</v>
       </c>
       <c r="K47">
         <v>0</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>2.01948391736579E-28</v>
       </c>
       <c r="M47">
-        <v>0</v>
+        <v>2.01948391736579E-28</v>
       </c>
       <c r="N47">
-        <v>0</v>
+        <v>2.01948391736579E-28</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>4.03896783473158E-28</v>
       </c>
       <c r="P47">
-        <v>1.333355592950743e-12</v>
+        <v>1.333355592950743E-12</v>
       </c>
       <c r="Q47" t="s">
         <v>116</v>
@@ -3389,28 +3389,28 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I48">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="J48">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="K48">
         <v>0</v>
       </c>
       <c r="L48">
-        <v>-4.03896783473158e-28</v>
+        <v>-4.03896783473158E-28</v>
       </c>
       <c r="M48">
-        <v>-4.03896783473158e-28</v>
+        <v>-4.03896783473158E-28</v>
       </c>
       <c r="N48">
-        <v>4.03896783473158e-28</v>
+        <v>4.03896783473158E-28</v>
       </c>
       <c r="O48">
-        <v>8.077935669463161e-28</v>
+        <v>8.077935669463161E-28</v>
       </c>
       <c r="P48">
-        <v>1.333355592950743e-12</v>
+        <v>1.333355592950743E-12</v>
       </c>
       <c r="Q48" t="s">
         <v>117</v>
@@ -3492,16 +3492,16 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>0.9999999999979998</v>
+        <v>0.9999999999979999</v>
       </c>
       <c r="I50">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="J50">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="K50">
-        <v>0.3483414798516409</v>
+        <v>0.348341479851641</v>
       </c>
       <c r="L50">
         <v>-0.2031390166605352</v>
@@ -3510,13 +3510,13 @@
         <v>-0.1452024631911059</v>
       </c>
       <c r="N50">
-        <v>0.3483414798516409</v>
+        <v>0.348341479851641</v>
       </c>
       <c r="O50">
-        <v>0.6966829597032819</v>
+        <v>0.696682959703282</v>
       </c>
       <c r="P50">
-        <v>1.333392600384897e-12</v>
+        <v>1.333355592950743E-12</v>
       </c>
       <c r="Q50" t="s">
         <v>103</v>
@@ -3548,13 +3548,13 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I51">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="J51">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="L51">
         <v>0</v>
@@ -3563,13 +3563,13 @@
         <v>0</v>
       </c>
       <c r="N51">
-        <v>0</v>
+        <v>1.110223024625157E-16</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>1.110223024625157E-16</v>
       </c>
       <c r="P51">
-        <v>1.333392600384897e-12</v>
+        <v>1.333392600384897E-12</v>
       </c>
       <c r="Q51" t="s">
         <v>103</v>
@@ -3654,7 +3654,7 @@
         <v>0.4255685492567209</v>
       </c>
       <c r="I53">
-        <v>0.4282337172991389</v>
+        <v>0.428233717299139</v>
       </c>
       <c r="J53">
         <v>0.1461977334441401</v>
@@ -3663,19 +3663,19 @@
         <v>0.0239263100483792</v>
       </c>
       <c r="L53">
-        <v>0.1614524668108804</v>
+        <v>0.1614524668108805</v>
       </c>
       <c r="M53">
-        <v>-0.1853787768592596</v>
+        <v>-0.1853787768592597</v>
       </c>
       <c r="N53">
-        <v>0.1853787768592596</v>
+        <v>0.1853787768592597</v>
       </c>
       <c r="O53">
-        <v>0.3707575537185193</v>
+        <v>0.3707575537185194</v>
       </c>
       <c r="P53">
-        <v>0.2047111719958291</v>
+        <v>0.204711171995829</v>
       </c>
       <c r="Q53" t="s">
         <v>102</v>
@@ -3716,10 +3716,10 @@
         <v>-0.1685640833381195</v>
       </c>
       <c r="L54">
-        <v>0.09167266351736958</v>
+        <v>0.09167266351736952</v>
       </c>
       <c r="M54">
-        <v>0.07689141982074987</v>
+        <v>0.07689141982074993</v>
       </c>
       <c r="N54">
         <v>0.1685640833381195</v>
@@ -3928,16 +3928,16 @@
         <v>-0.01525198730691668</v>
       </c>
       <c r="L58">
-        <v>0.0247546880863819</v>
+        <v>0.02475468808638187</v>
       </c>
       <c r="M58">
         <v>-0.009502700779465134</v>
       </c>
       <c r="N58">
-        <v>0.0247546880863819</v>
+        <v>0.02475468808638187</v>
       </c>
       <c r="O58">
-        <v>0.04950937617276371</v>
+        <v>0.04950937617276369</v>
       </c>
       <c r="P58">
         <v>0.1141156859447787</v>
@@ -3972,25 +3972,25 @@
         <v>0.01948701805508835</v>
       </c>
       <c r="I59">
-        <v>0.220249660845826</v>
+        <v>0.2202496608458261</v>
       </c>
       <c r="J59">
-        <v>0.7602633210990857</v>
+        <v>0.7602633210990856</v>
       </c>
       <c r="K59">
         <v>-0.004457250319257366</v>
       </c>
       <c r="L59">
-        <v>0.03283551607549839</v>
+        <v>0.03283551607549848</v>
       </c>
       <c r="M59">
-        <v>-0.02837826575624103</v>
+        <v>-0.02837826575624114</v>
       </c>
       <c r="N59">
-        <v>0.03283551607549839</v>
+        <v>0.03283551607549848</v>
       </c>
       <c r="O59">
-        <v>0.06567103215099679</v>
+        <v>0.06567103215099698</v>
       </c>
       <c r="P59">
         <v>0.1243700085386693</v>
@@ -4078,10 +4078,10 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I61">
-        <v>9.999999999980039e-13</v>
+        <v>9.999999999980039E-13</v>
       </c>
       <c r="J61">
-        <v>9.999999999980039e-13</v>
+        <v>9.999999999980039E-13</v>
       </c>
       <c r="K61">
         <v>0.2176937690693255</v>
@@ -4099,7 +4099,7 @@
         <v>0.4353875381386511</v>
       </c>
       <c r="P61">
-        <v>1.333392600384896e-12</v>
+        <v>1.333392600384896E-12</v>
       </c>
       <c r="Q61" t="s">
         <v>111</v>
@@ -4131,10 +4131,10 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I62">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="J62">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="K62">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="P62">
-        <v>1.333392600384897e-12</v>
+        <v>1.333392600384897E-12</v>
       </c>
       <c r="Q62" t="s">
         <v>101</v>
@@ -4184,10 +4184,10 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I63">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="J63">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="K63">
         <v>0</v>
@@ -4205,7 +4205,7 @@
         <v>0</v>
       </c>
       <c r="P63">
-        <v>1.333392600384897e-12</v>
+        <v>1.333392600384897E-12</v>
       </c>
       <c r="Q63" t="s">
         <v>119</v>
@@ -4237,10 +4237,10 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I64">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="J64">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="K64">
         <v>0</v>
@@ -4258,7 +4258,7 @@
         <v>0</v>
       </c>
       <c r="P64">
-        <v>1.333392600384897e-12</v>
+        <v>1.333392600384897E-12</v>
       </c>
       <c r="Q64" t="s">
         <v>120</v>
@@ -4393,16 +4393,16 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>0.9999999999979999</v>
+        <v>0.9999999999979998</v>
       </c>
       <c r="I67">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980039E-13</v>
       </c>
       <c r="J67">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980039E-13</v>
       </c>
       <c r="K67">
-        <v>0.262309101693602</v>
+        <v>0.2623091016936019</v>
       </c>
       <c r="L67">
         <v>-0.1669146998385018</v>
@@ -4411,13 +4411,13 @@
         <v>-0.09539440185510023</v>
       </c>
       <c r="N67">
-        <v>0.262309101693602</v>
+        <v>0.2623091016936019</v>
       </c>
       <c r="O67">
         <v>0.524618203387204</v>
       </c>
       <c r="P67">
-        <v>1.333355592950743e-12</v>
+        <v>1.333392600384896E-12</v>
       </c>
       <c r="Q67" t="s">
         <v>121</v>
@@ -4446,28 +4446,28 @@
         <v>1</v>
       </c>
       <c r="H68">
-        <v>0.1431143558249921</v>
+        <v>0.1431143558249922</v>
       </c>
       <c r="I68">
         <v>0.8161078119001218</v>
       </c>
       <c r="J68">
-        <v>0.04077783227488607</v>
+        <v>0.04077783227488596</v>
       </c>
       <c r="K68">
-        <v>-0.8568856441730078</v>
+        <v>-0.8568856441730076</v>
       </c>
       <c r="L68">
         <v>0.8161078118991218</v>
       </c>
       <c r="M68">
-        <v>0.04077783227388607</v>
+        <v>0.04077783227388596</v>
       </c>
       <c r="N68">
-        <v>0.8568856441730078</v>
+        <v>0.8568856441730076</v>
       </c>
       <c r="O68">
-        <v>1.713771288346016</v>
+        <v>1.713771288346015</v>
       </c>
       <c r="P68">
         <v>0.1039411629691181</v>
@@ -4499,13 +4499,13 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>0.9999999999979998</v>
+        <v>0.9999999999979999</v>
       </c>
       <c r="I69">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="J69">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="K69">
         <v>0</v>
@@ -4523,7 +4523,7 @@
         <v>0</v>
       </c>
       <c r="P69">
-        <v>1.333392600384897e-12</v>
+        <v>1.333355592950743E-12</v>
       </c>
       <c r="Q69" t="s">
         <v>101</v>
@@ -4555,28 +4555,28 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I70">
-        <v>9.999999999980039e-13</v>
+        <v>9.999999999980039E-13</v>
       </c>
       <c r="J70">
-        <v>9.999999999980039e-13</v>
+        <v>9.999999999980039E-13</v>
       </c>
       <c r="K70">
-        <v>0</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="L70">
-        <v>-4.03896783473158e-28</v>
+        <v>-4.03896783473158E-28</v>
       </c>
       <c r="M70">
-        <v>-4.03896783473158e-28</v>
+        <v>-4.03896783473158E-28</v>
       </c>
       <c r="N70">
-        <v>4.03896783473158e-28</v>
+        <v>1.110223024625157E-16</v>
       </c>
       <c r="O70">
-        <v>8.077935669463161e-28</v>
+        <v>1.110223024633234E-16</v>
       </c>
       <c r="P70">
-        <v>1.333392600384896e-12</v>
+        <v>1.333392600384896E-12</v>
       </c>
       <c r="Q70" t="s">
         <v>123</v>
@@ -4608,28 +4608,28 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I71">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="J71">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="K71">
         <v>0</v>
       </c>
       <c r="L71">
-        <v>4.03896783473158e-28</v>
+        <v>4.03896783473158E-28</v>
       </c>
       <c r="M71">
-        <v>4.03896783473158e-28</v>
+        <v>4.03896783473158E-28</v>
       </c>
       <c r="N71">
-        <v>4.03896783473158e-28</v>
+        <v>4.03896783473158E-28</v>
       </c>
       <c r="O71">
-        <v>8.077935669463161e-28</v>
+        <v>8.077935669463161E-28</v>
       </c>
       <c r="P71">
-        <v>1.333392600384897e-12</v>
+        <v>1.333392600384897E-12</v>
       </c>
       <c r="Q71" t="s">
         <v>123</v>
@@ -4661,13 +4661,13 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I72">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="J72">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="K72">
-        <v>1.110223024625157e-16</v>
+        <v>1.110223024625157E-16</v>
       </c>
       <c r="L72">
         <v>0</v>
@@ -4676,13 +4676,13 @@
         <v>0</v>
       </c>
       <c r="N72">
-        <v>1.110223024625157e-16</v>
+        <v>1.110223024625157E-16</v>
       </c>
       <c r="O72">
-        <v>1.110223024625157e-16</v>
+        <v>1.110223024625157E-16</v>
       </c>
       <c r="P72">
-        <v>1.333355592950743e-12</v>
+        <v>1.333355592950743E-12</v>
       </c>
       <c r="Q72" t="s">
         <v>124</v>
@@ -4714,28 +4714,28 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I73">
-        <v>9.999999999980045e-13</v>
+        <v>9.999999999980045E-13</v>
       </c>
       <c r="J73">
-        <v>9.999999999980045e-13</v>
+        <v>9.999999999980045E-13</v>
       </c>
       <c r="K73">
         <v>0</v>
       </c>
       <c r="L73">
-        <v>2.01948391736579e-28</v>
+        <v>2.01948391736579E-28</v>
       </c>
       <c r="M73">
-        <v>2.01948391736579e-28</v>
+        <v>2.01948391736579E-28</v>
       </c>
       <c r="N73">
-        <v>2.01948391736579e-28</v>
+        <v>2.01948391736579E-28</v>
       </c>
       <c r="O73">
-        <v>4.03896783473158e-28</v>
+        <v>4.03896783473158E-28</v>
       </c>
       <c r="P73">
-        <v>1.333355592950743e-12</v>
+        <v>1.333355592950743E-12</v>
       </c>
       <c r="Q73" t="s">
         <v>123</v>
@@ -4767,28 +4767,28 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I74">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="J74">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="K74">
-        <v>-1.110223024625157e-16</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="L74">
-        <v>-2.01948391736579e-28</v>
+        <v>-2.01948391736579E-28</v>
       </c>
       <c r="M74">
-        <v>-2.01948391736579e-28</v>
+        <v>-2.01948391736579E-28</v>
       </c>
       <c r="N74">
-        <v>1.110223024625157e-16</v>
+        <v>1.110223024625157E-16</v>
       </c>
       <c r="O74">
-        <v>1.110223024629196e-16</v>
+        <v>1.110223024629196E-16</v>
       </c>
       <c r="P74">
-        <v>1.333392600384897e-12</v>
+        <v>1.333392600384897E-12</v>
       </c>
       <c r="Q74" t="s">
         <v>123</v>
@@ -4817,13 +4817,13 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>0.4210883582527053</v>
+        <v>0.4210883582527054</v>
       </c>
       <c r="I75">
         <v>0.2651026146472967</v>
       </c>
       <c r="J75">
-        <v>0.313809027099998</v>
+        <v>0.3138090270999979</v>
       </c>
       <c r="K75">
         <v>0</v>
@@ -4870,13 +4870,13 @@
         <v>1</v>
       </c>
       <c r="H76">
-        <v>0.2226753758880575</v>
+        <v>0.2226753758880576</v>
       </c>
       <c r="I76">
         <v>0.2950362063923719</v>
       </c>
       <c r="J76">
-        <v>0.4822884177195706</v>
+        <v>0.4822884177195705</v>
       </c>
       <c r="K76">
         <v>-0.1984129823646478</v>
@@ -4932,19 +4932,19 @@
         <v>0.2927774828227167</v>
       </c>
       <c r="K77">
-        <v>0.1580745158049011</v>
+        <v>0.158074515804901</v>
       </c>
       <c r="L77">
         <v>0.03143641909195288</v>
       </c>
       <c r="M77">
-        <v>-0.1895109348968539</v>
+        <v>-0.1895109348968538</v>
       </c>
       <c r="N77">
-        <v>0.1895109348968539</v>
+        <v>0.1895109348968538</v>
       </c>
       <c r="O77">
-        <v>0.3790218697937079</v>
+        <v>0.3790218697937077</v>
       </c>
       <c r="P77">
         <v>0.2209088301123886</v>
@@ -5138,10 +5138,10 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I81">
-        <v>9.999999999980045e-13</v>
+        <v>9.999999999980045E-13</v>
       </c>
       <c r="J81">
-        <v>9.999999999980045e-13</v>
+        <v>9.999999999980045E-13</v>
       </c>
       <c r="K81">
         <v>0</v>
@@ -5159,7 +5159,7 @@
         <v>0</v>
       </c>
       <c r="P81">
-        <v>1.333392600384897e-12</v>
+        <v>1.333392600384897E-12</v>
       </c>
       <c r="Q81" t="s">
         <v>101</v>
@@ -5191,10 +5191,10 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I82">
-        <v>9.999999999980045e-13</v>
+        <v>9.999999999980045E-13</v>
       </c>
       <c r="J82">
-        <v>9.999999999980045e-13</v>
+        <v>9.999999999980045E-13</v>
       </c>
       <c r="K82">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>0</v>
       </c>
       <c r="P82">
-        <v>1.333392600384897e-12</v>
+        <v>1.333392600384897E-12</v>
       </c>
       <c r="Q82" t="s">
         <v>113</v>
@@ -5294,31 +5294,31 @@
         <v>1</v>
       </c>
       <c r="H84">
-        <v>0.1796161912819901</v>
+        <v>0.1796161912819902</v>
       </c>
       <c r="I84">
         <v>0.2412178706725884</v>
       </c>
       <c r="J84">
-        <v>0.5791659380454215</v>
+        <v>0.5791659380454214</v>
       </c>
       <c r="K84">
-        <v>-0.1806700579319415</v>
+        <v>-0.1806700579319414</v>
       </c>
       <c r="L84">
         <v>-0.02628945223549256</v>
       </c>
       <c r="M84">
-        <v>0.206959510167434</v>
+        <v>0.2069595101674339</v>
       </c>
       <c r="N84">
-        <v>0.206959510167434</v>
+        <v>0.2069595101674339</v>
       </c>
       <c r="O84">
-        <v>0.413919020334868</v>
+        <v>0.4139190203348678</v>
       </c>
       <c r="P84">
-        <v>0.1913729263018336</v>
+        <v>0.1913729263018337</v>
       </c>
       <c r="Q84" t="s">
         <v>126</v>
@@ -5356,19 +5356,19 @@
         <v>0.2297371564160182</v>
       </c>
       <c r="K85">
-        <v>0.04475711127872095</v>
+        <v>0.04475711127872084</v>
       </c>
       <c r="L85">
         <v>0.3046716703506823</v>
       </c>
       <c r="M85">
-        <v>-0.3494287816294033</v>
+        <v>-0.3494287816294032</v>
       </c>
       <c r="N85">
-        <v>0.3494287816294033</v>
+        <v>0.3494287816294032</v>
       </c>
       <c r="O85">
-        <v>0.6988575632588065</v>
+        <v>0.6988575632588063</v>
       </c>
       <c r="P85">
         <v>0.1996273563537615</v>
@@ -5559,13 +5559,13 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>0.2744461759413324</v>
+        <v>0.2744461759413322</v>
       </c>
       <c r="I89">
         <v>0.2555390019415993</v>
       </c>
       <c r="J89">
-        <v>0.4700148221170683</v>
+        <v>0.4700148221170684</v>
       </c>
       <c r="K89">
         <v>0</v>
@@ -5621,19 +5621,19 @@
         <v>0.6526995549620432</v>
       </c>
       <c r="K90">
-        <v>-0.1510436065060571</v>
+        <v>-0.151043606506057</v>
       </c>
       <c r="L90">
         <v>-0.03164112633891789</v>
       </c>
       <c r="M90">
-        <v>0.1826847328449749</v>
+        <v>0.1826847328449748</v>
       </c>
       <c r="N90">
-        <v>0.1826847328449749</v>
+        <v>0.1826847328449748</v>
       </c>
       <c r="O90">
-        <v>0.3653694656899499</v>
+        <v>0.3653694656899497</v>
       </c>
       <c r="P90">
         <v>0.169541612703243</v>
@@ -5774,25 +5774,25 @@
         <v>0.461876559145604</v>
       </c>
       <c r="I93">
-        <v>0.3565717905357991</v>
+        <v>0.356571790535799</v>
       </c>
       <c r="J93">
-        <v>0.1815516503185969</v>
+        <v>0.181551650318597</v>
       </c>
       <c r="K93">
         <v>0.1259170024202321</v>
       </c>
       <c r="L93">
-        <v>0.04401450425892889</v>
+        <v>0.04401450425892878</v>
       </c>
       <c r="M93">
-        <v>-0.169931506679161</v>
+        <v>-0.1699315066791608</v>
       </c>
       <c r="N93">
-        <v>0.169931506679161</v>
+        <v>0.1699315066791608</v>
       </c>
       <c r="O93">
-        <v>0.3398630133583219</v>
+        <v>0.3398630133583217</v>
       </c>
       <c r="P93">
         <v>0.2088552001908352</v>
@@ -5877,16 +5877,16 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>0.9999999999979999</v>
+        <v>0.9999999999979998</v>
       </c>
       <c r="I95">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="J95">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="K95">
-        <v>0.278650312537627</v>
+        <v>0.2786503125376268</v>
       </c>
       <c r="L95">
         <v>-0.1742597010311111</v>
@@ -5895,13 +5895,13 @@
         <v>-0.1043906115065159</v>
       </c>
       <c r="N95">
-        <v>0.278650312537627</v>
+        <v>0.2786503125376268</v>
       </c>
       <c r="O95">
         <v>0.5573006250752539</v>
       </c>
       <c r="P95">
-        <v>1.333355592950743e-12</v>
+        <v>1.333392600384897E-12</v>
       </c>
       <c r="Q95" t="s">
         <v>128</v>
@@ -5933,28 +5933,28 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I96">
-        <v>9.999999999980047e-13</v>
+        <v>9.999999999980045E-13</v>
       </c>
       <c r="J96">
-        <v>9.999999999980047e-13</v>
+        <v>9.999999999980045E-13</v>
       </c>
       <c r="K96">
-        <v>0</v>
+        <v>1.110223024625157E-16</v>
       </c>
       <c r="L96">
-        <v>4.03896783473158e-28</v>
+        <v>2.01948391736579E-28</v>
       </c>
       <c r="M96">
-        <v>4.03896783473158e-28</v>
+        <v>2.01948391736579E-28</v>
       </c>
       <c r="N96">
-        <v>4.03896783473158e-28</v>
+        <v>1.110223024625157E-16</v>
       </c>
       <c r="O96">
-        <v>8.077935669463161e-28</v>
+        <v>1.110223024629196E-16</v>
       </c>
       <c r="P96">
-        <v>1.333355592950743e-12</v>
+        <v>1.333355592950743E-12</v>
       </c>
       <c r="Q96" t="s">
         <v>128</v>
@@ -5986,10 +5986,10 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I97">
-        <v>9.999999999980047e-13</v>
+        <v>9.999999999980045E-13</v>
       </c>
       <c r="J97">
-        <v>9.999999999980047e-13</v>
+        <v>9.999999999980045E-13</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -6007,7 +6007,7 @@
         <v>0</v>
       </c>
       <c r="P97">
-        <v>1.333355592950743e-12</v>
+        <v>1.333355592950743E-12</v>
       </c>
       <c r="Q97" t="s">
         <v>128</v>
@@ -6036,31 +6036,31 @@
         <v>1</v>
       </c>
       <c r="H98">
-        <v>0.9999999999979998</v>
+        <v>0.9999999999979999</v>
       </c>
       <c r="I98">
-        <v>9.999999999980045e-13</v>
+        <v>9.999999999980045E-13</v>
       </c>
       <c r="J98">
-        <v>9.999999999980045e-13</v>
+        <v>9.999999999980045E-13</v>
       </c>
       <c r="K98">
-        <v>-1.110223024625157e-16</v>
+        <v>0</v>
       </c>
       <c r="L98">
-        <v>-2.01948391736579e-28</v>
+        <v>0</v>
       </c>
       <c r="M98">
-        <v>-2.01948391736579e-28</v>
+        <v>0</v>
       </c>
       <c r="N98">
-        <v>1.110223024625157e-16</v>
+        <v>0</v>
       </c>
       <c r="O98">
-        <v>1.110223024629196e-16</v>
+        <v>0</v>
       </c>
       <c r="P98">
-        <v>1.333392600384897e-12</v>
+        <v>1.333355592950743E-12</v>
       </c>
       <c r="Q98" t="s">
         <v>129</v>
@@ -6092,28 +6092,28 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I99">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="J99">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="K99">
-        <v>1.110223024625157e-16</v>
+        <v>0</v>
       </c>
       <c r="L99">
-        <v>-2.01948391736579e-28</v>
+        <v>-2.01948391736579E-28</v>
       </c>
       <c r="M99">
-        <v>-2.01948391736579e-28</v>
+        <v>-2.01948391736579E-28</v>
       </c>
       <c r="N99">
-        <v>1.110223024625157e-16</v>
+        <v>2.01948391736579E-28</v>
       </c>
       <c r="O99">
-        <v>1.110223024629196e-16</v>
+        <v>4.03896783473158E-28</v>
       </c>
       <c r="P99">
-        <v>1.333355592950743e-12</v>
+        <v>1.333355592950743E-12</v>
       </c>
       <c r="Q99" t="s">
         <v>128</v>
@@ -6145,10 +6145,10 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I100">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="J100">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="K100">
         <v>0</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="P100">
-        <v>1.333355592950743e-12</v>
+        <v>1.333355592950743E-12</v>
       </c>
       <c r="Q100" t="s">
         <v>128</v>
@@ -6198,28 +6198,28 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I101">
-        <v>9.999999999980039e-13</v>
+        <v>9.999999999980039E-13</v>
       </c>
       <c r="J101">
-        <v>9.999999999980039e-13</v>
+        <v>9.999999999980039E-13</v>
       </c>
       <c r="K101">
         <v>0</v>
       </c>
       <c r="L101">
-        <v>-4.03896783473158e-28</v>
+        <v>-4.03896783473158E-28</v>
       </c>
       <c r="M101">
-        <v>-4.03896783473158e-28</v>
+        <v>-4.03896783473158E-28</v>
       </c>
       <c r="N101">
-        <v>4.03896783473158e-28</v>
+        <v>4.03896783473158E-28</v>
       </c>
       <c r="O101">
-        <v>8.077935669463161e-28</v>
+        <v>8.077935669463161E-28</v>
       </c>
       <c r="P101">
-        <v>1.333355592950742e-12</v>
+        <v>1.333355592950742E-12</v>
       </c>
       <c r="Q101" t="s">
         <v>128</v>
@@ -6354,22 +6354,22 @@
         <v>2</v>
       </c>
       <c r="H104">
-        <v>0.06669983122452428</v>
+        <v>0.06669983122452439</v>
       </c>
       <c r="I104">
         <v>0.3946692686940582</v>
       </c>
       <c r="J104">
-        <v>0.5386309000814176</v>
+        <v>0.5386309000814175</v>
       </c>
       <c r="K104">
-        <v>-0.07999027994413044</v>
+        <v>-0.07999027994413033</v>
       </c>
       <c r="L104">
         <v>0.1539754262677122</v>
       </c>
       <c r="M104">
-        <v>-0.07398514632358177</v>
+        <v>-0.07398514632358189</v>
       </c>
       <c r="N104">
         <v>0.1539754262677122</v>
@@ -6416,19 +6416,19 @@
         <v>0.4046705014306621</v>
       </c>
       <c r="K105">
-        <v>0.06475040843385227</v>
+        <v>0.06475040843385216</v>
       </c>
       <c r="L105">
         <v>0.06920999021690322</v>
       </c>
       <c r="M105">
-        <v>-0.1339603986507555</v>
+        <v>-0.1339603986507554</v>
       </c>
       <c r="N105">
-        <v>0.1339603986507555</v>
+        <v>0.1339603986507554</v>
       </c>
       <c r="O105">
-        <v>0.267920797301511</v>
+        <v>0.2679207973015107</v>
       </c>
       <c r="P105">
         <v>0.2012595509726097</v>
@@ -6472,7 +6472,7 @@
         <v>-0.06636244747900943</v>
       </c>
       <c r="L106">
-        <v>-0.02985414282181736</v>
+        <v>-0.02985414282181742</v>
       </c>
       <c r="M106">
         <v>0.09621659030082685</v>
@@ -6516,10 +6516,10 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I107">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="J107">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="K107">
         <v>0</v>
@@ -6537,7 +6537,7 @@
         <v>0</v>
       </c>
       <c r="P107">
-        <v>1.333355592950743e-12</v>
+        <v>1.333355592950743E-12</v>
       </c>
       <c r="Q107" t="s">
         <v>101</v>
@@ -6569,10 +6569,10 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I108">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="J108">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="K108">
         <v>0</v>
@@ -6590,7 +6590,7 @@
         <v>0</v>
       </c>
       <c r="P108">
-        <v>1.333355592950743e-12</v>
+        <v>1.333355592950743E-12</v>
       </c>
       <c r="Q108" t="s">
         <v>131</v>
@@ -6622,28 +6622,28 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I109">
-        <v>9.999999999980045e-13</v>
+        <v>9.999999999980045E-13</v>
       </c>
       <c r="J109">
-        <v>9.999999999980045e-13</v>
+        <v>9.999999999980045E-13</v>
       </c>
       <c r="K109">
         <v>0</v>
       </c>
       <c r="L109">
-        <v>2.01948391736579e-28</v>
+        <v>2.01948391736579E-28</v>
       </c>
       <c r="M109">
-        <v>2.01948391736579e-28</v>
+        <v>2.01948391736579E-28</v>
       </c>
       <c r="N109">
-        <v>2.01948391736579e-28</v>
+        <v>2.01948391736579E-28</v>
       </c>
       <c r="O109">
-        <v>4.03896783473158e-28</v>
+        <v>4.03896783473158E-28</v>
       </c>
       <c r="P109">
-        <v>1.333355592950743e-12</v>
+        <v>1.333355592950743E-12</v>
       </c>
       <c r="Q109" t="s">
         <v>131</v>
@@ -6675,10 +6675,10 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I110">
-        <v>9.999999999980045e-13</v>
+        <v>9.999999999980045E-13</v>
       </c>
       <c r="J110">
-        <v>9.999999999980045e-13</v>
+        <v>9.999999999980045E-13</v>
       </c>
       <c r="K110">
         <v>0</v>
@@ -6696,7 +6696,7 @@
         <v>0</v>
       </c>
       <c r="P110">
-        <v>1.333355592950743e-12</v>
+        <v>1.333355592950743E-12</v>
       </c>
       <c r="Q110" t="s">
         <v>131</v>
@@ -6728,28 +6728,28 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I111">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="J111">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="K111">
         <v>0</v>
       </c>
       <c r="L111">
-        <v>-2.01948391736579e-28</v>
+        <v>-2.01948391736579E-28</v>
       </c>
       <c r="M111">
-        <v>-2.01948391736579e-28</v>
+        <v>-2.01948391736579E-28</v>
       </c>
       <c r="N111">
-        <v>2.01948391736579e-28</v>
+        <v>2.01948391736579E-28</v>
       </c>
       <c r="O111">
-        <v>4.03896783473158e-28</v>
+        <v>4.03896783473158E-28</v>
       </c>
       <c r="P111">
-        <v>1.333355592950743e-12</v>
+        <v>1.333355592950743E-12</v>
       </c>
       <c r="Q111" t="s">
         <v>104</v>
@@ -6781,13 +6781,13 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I112">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="J112">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="K112">
-        <v>-1.110223024625157e-16</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="L112">
         <v>0</v>
@@ -6796,13 +6796,13 @@
         <v>0</v>
       </c>
       <c r="N112">
-        <v>1.110223024625157e-16</v>
+        <v>1.110223024625157E-16</v>
       </c>
       <c r="O112">
-        <v>1.110223024625157e-16</v>
+        <v>1.110223024625157E-16</v>
       </c>
       <c r="P112">
-        <v>1.333392600384897e-12</v>
+        <v>1.333392600384897E-12</v>
       </c>
       <c r="Q112" t="s">
         <v>104</v>
@@ -7205,10 +7205,10 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I120">
-        <v>9.999999999980039e-13</v>
+        <v>9.999999999980039E-13</v>
       </c>
       <c r="J120">
-        <v>9.999999999980039e-13</v>
+        <v>9.999999999980039E-13</v>
       </c>
       <c r="K120">
         <v>0.32403735043729</v>
@@ -7226,7 +7226,7 @@
         <v>0.6480747008745801</v>
       </c>
       <c r="P120">
-        <v>1.333355592950742e-12</v>
+        <v>1.333355592950742E-12</v>
       </c>
       <c r="Q120" t="s">
         <v>103</v>
@@ -7361,31 +7361,31 @@
         <v>1</v>
       </c>
       <c r="H123">
-        <v>0.4930672380997954</v>
+        <v>0.4930672380997956</v>
       </c>
       <c r="I123">
         <v>0.2594627469471152</v>
       </c>
       <c r="J123">
-        <v>0.2474700149530894</v>
+        <v>0.2474700149530892</v>
       </c>
       <c r="K123">
-        <v>-0.2356781020444327</v>
+        <v>-0.2356781020444325</v>
       </c>
       <c r="L123">
         <v>0.0884998231265319</v>
       </c>
       <c r="M123">
-        <v>0.1471782789179008</v>
+        <v>0.1471782789179006</v>
       </c>
       <c r="N123">
-        <v>0.2356781020444327</v>
+        <v>0.2356781020444325</v>
       </c>
       <c r="O123">
-        <v>0.4713562040888655</v>
+        <v>0.471356204088865</v>
       </c>
       <c r="P123">
-        <v>0.2094407911194716</v>
+        <v>0.2094407911194715</v>
       </c>
       <c r="Q123" t="s">
         <v>134</v>
@@ -7682,10 +7682,10 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I129">
-        <v>9.999999999980045e-13</v>
+        <v>9.999999999980045E-13</v>
       </c>
       <c r="J129">
-        <v>9.999999999980045e-13</v>
+        <v>9.999999999980045E-13</v>
       </c>
       <c r="K129">
         <v>0.2712546598537717</v>
@@ -7703,7 +7703,7 @@
         <v>0.5425093197075437</v>
       </c>
       <c r="P129">
-        <v>1.333392600384897e-12</v>
+        <v>1.333392600384897E-12</v>
       </c>
       <c r="Q129" t="s">
         <v>111</v>
@@ -7838,13 +7838,13 @@
         <v>0</v>
       </c>
       <c r="H132">
-        <v>0.5718535049744473</v>
+        <v>0.5718535049744472</v>
       </c>
       <c r="I132">
         <v>0.2312330848187554</v>
       </c>
       <c r="J132">
-        <v>0.1969134102067973</v>
+        <v>0.1969134102067974</v>
       </c>
       <c r="K132">
         <v>0</v>
@@ -7862,7 +7862,7 @@
         <v>0</v>
       </c>
       <c r="P132">
-        <v>0.1935799794047905</v>
+        <v>0.1935799794047906</v>
       </c>
       <c r="Q132" t="s">
         <v>101</v>
@@ -7900,19 +7900,19 @@
         <v>0.3623793085449069</v>
       </c>
       <c r="K133">
-        <v>-0.2461069754696131</v>
+        <v>-0.246106975469613</v>
       </c>
       <c r="L133">
         <v>0.08064107713150354</v>
       </c>
       <c r="M133">
-        <v>0.1654658983381096</v>
+        <v>0.1654658983381095</v>
       </c>
       <c r="N133">
-        <v>0.2461069754696131</v>
+        <v>0.246106975469613</v>
       </c>
       <c r="O133">
-        <v>0.4922139509392263</v>
+        <v>0.492213950939226</v>
       </c>
       <c r="P133">
         <v>0.2217683141206317</v>
@@ -7956,10 +7956,10 @@
         <v>-0.1588439538323136</v>
       </c>
       <c r="L134">
-        <v>0.03036156538884854</v>
+        <v>0.03036156538884849</v>
       </c>
       <c r="M134">
-        <v>0.1284823884434651</v>
+        <v>0.1284823884434652</v>
       </c>
       <c r="N134">
         <v>0.1588439538323136</v>
@@ -8012,13 +8012,13 @@
         <v>0.2996500669853804</v>
       </c>
       <c r="M135">
-        <v>-0.185819715019812</v>
+        <v>-0.1858197150198121</v>
       </c>
       <c r="N135">
         <v>0.2996500669853804</v>
       </c>
       <c r="O135">
-        <v>0.5993001339707608</v>
+        <v>0.5993001339707609</v>
       </c>
       <c r="P135">
         <v>0.1640384517839711</v>
@@ -8050,13 +8050,13 @@
         <v>0</v>
       </c>
       <c r="H136">
-        <v>0.7241478170655452</v>
+        <v>0.7241478170655453</v>
       </c>
       <c r="I136">
         <v>0.1730176752776907</v>
       </c>
       <c r="J136">
-        <v>0.1028345076567641</v>
+        <v>0.102834507656764</v>
       </c>
       <c r="K136">
         <v>0</v>
@@ -8103,13 +8103,13 @@
         <v>0</v>
       </c>
       <c r="H137">
-        <v>0.9999999999979998</v>
+        <v>0.9999999999979999</v>
       </c>
       <c r="I137">
-        <v>9.999999999980045e-13</v>
+        <v>9.999999999980045E-13</v>
       </c>
       <c r="J137">
-        <v>9.999999999980045e-13</v>
+        <v>9.999999999980045E-13</v>
       </c>
       <c r="K137">
         <v>0.2758521829324546</v>
@@ -8118,16 +8118,16 @@
         <v>-0.1730176752766907</v>
       </c>
       <c r="M137">
-        <v>-0.1028345076557641</v>
+        <v>-0.102834507655764</v>
       </c>
       <c r="N137">
         <v>0.2758521829324546</v>
       </c>
       <c r="O137">
-        <v>0.5517043658649095</v>
+        <v>0.5517043658649092</v>
       </c>
       <c r="P137">
-        <v>1.333392600384897e-12</v>
+        <v>1.333355592950743E-12</v>
       </c>
       <c r="Q137" t="s">
         <v>136</v>
@@ -8156,13 +8156,13 @@
         <v>1</v>
       </c>
       <c r="H138">
-        <v>0.5236333835960454</v>
+        <v>0.5236333835960455</v>
       </c>
       <c r="I138">
         <v>0.3601245643163248</v>
       </c>
       <c r="J138">
-        <v>0.1162420520876298</v>
+        <v>0.1162420520876297</v>
       </c>
       <c r="K138">
         <v>-0.4763666164019544</v>
@@ -8171,13 +8171,13 @@
         <v>0.3601245643153248</v>
       </c>
       <c r="M138">
-        <v>0.1162420520866298</v>
+        <v>0.1162420520866297</v>
       </c>
       <c r="N138">
         <v>0.4763666164019544</v>
       </c>
       <c r="O138">
-        <v>0.9527332328039091</v>
+        <v>0.952733232803909</v>
       </c>
       <c r="P138">
         <v>0.1942020543620636</v>
@@ -8262,16 +8262,16 @@
         <v>0</v>
       </c>
       <c r="H140">
-        <v>0.9999999999979999</v>
+        <v>0.9999999999979998</v>
       </c>
       <c r="I140">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="J140">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="K140">
-        <v>0.2163216520534121</v>
+        <v>0.216321652053412</v>
       </c>
       <c r="L140">
         <v>-0.1450262052279077</v>
@@ -8280,13 +8280,13 @@
         <v>-0.07129544682550448</v>
       </c>
       <c r="N140">
-        <v>0.2163216520534121</v>
+        <v>0.216321652053412</v>
       </c>
       <c r="O140">
-        <v>0.4326433041068243</v>
+        <v>0.4326433041068242</v>
       </c>
       <c r="P140">
-        <v>1.333355592950743e-12</v>
+        <v>1.333392600384897E-12</v>
       </c>
       <c r="Q140" t="s">
         <v>103</v>
@@ -8318,13 +8318,13 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I141">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="J141">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="K141">
-        <v>0</v>
+        <v>1.110223024625157E-16</v>
       </c>
       <c r="L141">
         <v>0</v>
@@ -8333,13 +8333,13 @@
         <v>0</v>
       </c>
       <c r="N141">
-        <v>0</v>
+        <v>1.110223024625157E-16</v>
       </c>
       <c r="O141">
-        <v>0</v>
+        <v>1.110223024625157E-16</v>
       </c>
       <c r="P141">
-        <v>1.333355592950743e-12</v>
+        <v>1.333355592950743E-12</v>
       </c>
       <c r="Q141" t="s">
         <v>103</v>
@@ -8371,10 +8371,10 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I142">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="J142">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="K142">
         <v>0</v>
@@ -8392,7 +8392,7 @@
         <v>0</v>
       </c>
       <c r="P142">
-        <v>1.333355592950743e-12</v>
+        <v>1.333355592950743E-12</v>
       </c>
       <c r="Q142" t="s">
         <v>116</v>
@@ -8477,10 +8477,10 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I144">
-        <v>9.999999999980045e-13</v>
+        <v>9.999999999980045E-13</v>
       </c>
       <c r="J144">
-        <v>9.999999999980045e-13</v>
+        <v>9.999999999980045E-13</v>
       </c>
       <c r="K144">
         <v>0.3371405948432151</v>
@@ -8498,7 +8498,7 @@
         <v>0.6742811896864302</v>
       </c>
       <c r="P144">
-        <v>1.333355592950743e-12</v>
+        <v>1.333355592950743E-12</v>
       </c>
       <c r="Q144" t="s">
         <v>108</v>
@@ -8583,10 +8583,10 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I146">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="J146">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="K146">
         <v>0.4576105788791285</v>
@@ -8604,7 +8604,7 @@
         <v>0.9152211577582572</v>
       </c>
       <c r="P146">
-        <v>1.333392600384897e-12</v>
+        <v>1.333392600384897E-12</v>
       </c>
       <c r="Q146" t="s">
         <v>108</v>
@@ -8686,31 +8686,31 @@
         <v>0</v>
       </c>
       <c r="H148">
-        <v>0.6912093242846897</v>
+        <v>0.6912093242846898</v>
       </c>
       <c r="I148">
         <v>0.2048017609852056</v>
       </c>
       <c r="J148">
-        <v>0.1039889147301047</v>
+        <v>0.1039889147301046</v>
       </c>
       <c r="K148">
-        <v>0.1795296027127109</v>
+        <v>0.179529602712711</v>
       </c>
       <c r="L148">
         <v>-0.04357133366437688</v>
       </c>
       <c r="M148">
-        <v>-0.135958269048334</v>
+        <v>-0.1359582690483341</v>
       </c>
       <c r="N148">
-        <v>0.1795296027127109</v>
+        <v>0.179529602712711</v>
       </c>
       <c r="O148">
-        <v>0.3590592054254218</v>
+        <v>0.359059205425422</v>
       </c>
       <c r="P148">
-        <v>0.1564907381108388</v>
+        <v>0.1564907381108387</v>
       </c>
       <c r="Q148" t="s">
         <v>137</v>
@@ -8748,19 +8748,19 @@
         <v>0.2182024776161638</v>
       </c>
       <c r="K149">
-        <v>-0.285135151324436</v>
+        <v>-0.2851351513244361</v>
       </c>
       <c r="L149">
         <v>0.1709215884383769</v>
       </c>
       <c r="M149">
-        <v>0.1142135628860591</v>
+        <v>0.1142135628860592</v>
       </c>
       <c r="N149">
-        <v>0.285135151324436</v>
+        <v>0.2851351513244361</v>
       </c>
       <c r="O149">
-        <v>0.570270302648872</v>
+        <v>0.5702703026488722</v>
       </c>
       <c r="P149">
         <v>0.2154411365049127</v>
@@ -9060,7 +9060,7 @@
         <v>0.2217047437430411</v>
       </c>
       <c r="I155">
-        <v>0.4371902874804523</v>
+        <v>0.4371902874804524</v>
       </c>
       <c r="J155">
         <v>0.3411049687765066</v>
@@ -9069,10 +9069,10 @@
         <v>-0.239976421122817</v>
       </c>
       <c r="L155">
-        <v>0.1616551189620117</v>
+        <v>0.1616551189620118</v>
       </c>
       <c r="M155">
-        <v>0.0783213021608053</v>
+        <v>0.07832130216080524</v>
       </c>
       <c r="N155">
         <v>0.239976421122817</v>
@@ -9110,28 +9110,28 @@
         <v>3</v>
       </c>
       <c r="H156">
-        <v>0.07381367488026569</v>
+        <v>0.0738136748802658</v>
       </c>
       <c r="I156">
         <v>0.6875740337073648</v>
       </c>
       <c r="J156">
-        <v>0.2386122914123695</v>
+        <v>0.2386122914123694</v>
       </c>
       <c r="K156">
-        <v>-0.1478910688627754</v>
+        <v>-0.1478910688627753</v>
       </c>
       <c r="L156">
         <v>0.2503837462269125</v>
       </c>
       <c r="M156">
-        <v>-0.1024926773641371</v>
+        <v>-0.1024926773641372</v>
       </c>
       <c r="N156">
         <v>0.2503837462269125</v>
       </c>
       <c r="O156">
-        <v>0.500767492453825</v>
+        <v>0.5007674924538249</v>
       </c>
       <c r="P156">
         <v>0.1549525546529975</v>
@@ -9163,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="H157">
-        <v>0.7693779230244548</v>
+        <v>0.769377923024455</v>
       </c>
       <c r="I157">
         <v>0.1520304543108697</v>
       </c>
       <c r="J157">
-        <v>0.07859162266467543</v>
+        <v>0.07859162266467531</v>
       </c>
       <c r="K157">
         <v>0</v>
@@ -9219,28 +9219,28 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I158">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="J158">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="K158">
-        <v>0.2306220769735451</v>
+        <v>0.230622076973545</v>
       </c>
       <c r="L158">
         <v>-0.1520304543098697</v>
       </c>
       <c r="M158">
-        <v>-0.07859162266367542</v>
+        <v>-0.07859162266367531</v>
       </c>
       <c r="N158">
-        <v>0.2306220769735451</v>
+        <v>0.230622076973545</v>
       </c>
       <c r="O158">
-        <v>0.4612441539470902</v>
+        <v>0.46124415394709</v>
       </c>
       <c r="P158">
-        <v>1.333355592950743e-12</v>
+        <v>1.333355592950743E-12</v>
       </c>
       <c r="Q158" t="s">
         <v>110</v>
@@ -9269,31 +9269,31 @@
         <v>0</v>
       </c>
       <c r="H159">
-        <v>0.9999999999979998</v>
+        <v>0.9999999999979999</v>
       </c>
       <c r="I159">
-        <v>9.999999999980045e-13</v>
+        <v>9.999999999980047E-13</v>
       </c>
       <c r="J159">
-        <v>9.999999999980045e-13</v>
+        <v>9.999999999980047E-13</v>
       </c>
       <c r="K159">
-        <v>-1.110223024625157e-16</v>
+        <v>0</v>
       </c>
       <c r="L159">
-        <v>2.01948391736579e-28</v>
+        <v>4.03896783473158E-28</v>
       </c>
       <c r="M159">
-        <v>2.01948391736579e-28</v>
+        <v>4.03896783473158E-28</v>
       </c>
       <c r="N159">
-        <v>1.110223024625157e-16</v>
+        <v>4.03896783473158E-28</v>
       </c>
       <c r="O159">
-        <v>1.110223024629196e-16</v>
+        <v>8.077935669463161E-28</v>
       </c>
       <c r="P159">
-        <v>1.333392600384897e-12</v>
+        <v>1.333355592950743E-12</v>
       </c>
       <c r="Q159" t="s">
         <v>110</v>
@@ -9325,28 +9325,28 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I160">
-        <v>9.999999999980045e-13</v>
+        <v>9.999999999980045E-13</v>
       </c>
       <c r="J160">
-        <v>9.999999999980045e-13</v>
+        <v>9.999999999980045E-13</v>
       </c>
       <c r="K160">
-        <v>1.110223024625157e-16</v>
+        <v>0</v>
       </c>
       <c r="L160">
-        <v>0</v>
+        <v>-2.01948391736579E-28</v>
       </c>
       <c r="M160">
-        <v>0</v>
+        <v>-2.01948391736579E-28</v>
       </c>
       <c r="N160">
-        <v>1.110223024625157e-16</v>
+        <v>2.01948391736579E-28</v>
       </c>
       <c r="O160">
-        <v>1.110223024625157e-16</v>
+        <v>4.03896783473158E-28</v>
       </c>
       <c r="P160">
-        <v>1.333355592950743e-12</v>
+        <v>1.333355592950743E-12</v>
       </c>
       <c r="Q160" t="s">
         <v>110</v>
@@ -9378,28 +9378,28 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I161">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="J161">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="K161">
-        <v>-1.110223024625157e-16</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="L161">
-        <v>-2.01948391736579e-28</v>
+        <v>-2.01948391736579E-28</v>
       </c>
       <c r="M161">
-        <v>-2.01948391736579e-28</v>
+        <v>-2.01948391736579E-28</v>
       </c>
       <c r="N161">
-        <v>1.110223024625157e-16</v>
+        <v>1.110223024625157E-16</v>
       </c>
       <c r="O161">
-        <v>1.110223024629196e-16</v>
+        <v>1.110223024629196E-16</v>
       </c>
       <c r="P161">
-        <v>1.333392600384897e-12</v>
+        <v>1.333392600384897E-12</v>
       </c>
       <c r="Q161" t="s">
         <v>132</v>
@@ -9431,28 +9431,28 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I162">
-        <v>9.999999999980039e-13</v>
+        <v>9.999999999980039E-13</v>
       </c>
       <c r="J162">
-        <v>9.999999999980039e-13</v>
+        <v>9.999999999980039E-13</v>
       </c>
       <c r="K162">
         <v>0</v>
       </c>
       <c r="L162">
-        <v>-4.03896783473158e-28</v>
+        <v>-4.03896783473158E-28</v>
       </c>
       <c r="M162">
-        <v>-4.03896783473158e-28</v>
+        <v>-4.03896783473158E-28</v>
       </c>
       <c r="N162">
-        <v>4.03896783473158e-28</v>
+        <v>4.03896783473158E-28</v>
       </c>
       <c r="O162">
-        <v>8.077935669463161e-28</v>
+        <v>8.077935669463161E-28</v>
       </c>
       <c r="P162">
-        <v>1.333392600384896e-12</v>
+        <v>1.333392600384896E-12</v>
       </c>
       <c r="Q162" t="s">
         <v>110</v>
@@ -9484,28 +9484,28 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I163">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="J163">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="K163">
         <v>0</v>
       </c>
       <c r="L163">
-        <v>4.03896783473158e-28</v>
+        <v>4.03896783473158E-28</v>
       </c>
       <c r="M163">
-        <v>4.03896783473158e-28</v>
+        <v>4.03896783473158E-28</v>
       </c>
       <c r="N163">
-        <v>4.03896783473158e-28</v>
+        <v>4.03896783473158E-28</v>
       </c>
       <c r="O163">
-        <v>8.077935669463161e-28</v>
+        <v>8.077935669463161E-28</v>
       </c>
       <c r="P163">
-        <v>1.333392600384897e-12</v>
+        <v>1.333392600384897E-12</v>
       </c>
       <c r="Q163" t="s">
         <v>110</v>
@@ -9537,28 +9537,28 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I164">
-        <v>9.999999999980047e-13</v>
+        <v>9.999999999980047E-13</v>
       </c>
       <c r="J164">
-        <v>9.999999999980047e-13</v>
+        <v>9.999999999980047E-13</v>
       </c>
       <c r="K164">
-        <v>1.110223024625157e-16</v>
+        <v>1.110223024625157E-16</v>
       </c>
       <c r="L164">
-        <v>4.03896783473158e-28</v>
+        <v>4.03896783473158E-28</v>
       </c>
       <c r="M164">
-        <v>4.03896783473158e-28</v>
+        <v>4.03896783473158E-28</v>
       </c>
       <c r="N164">
-        <v>1.110223024625157e-16</v>
+        <v>1.110223024625157E-16</v>
       </c>
       <c r="O164">
-        <v>1.110223024633234e-16</v>
+        <v>1.110223024633234E-16</v>
       </c>
       <c r="P164">
-        <v>1.333355592950743e-12</v>
+        <v>1.333355592950743E-12</v>
       </c>
       <c r="Q164" t="s">
         <v>110</v>
@@ -9746,13 +9746,13 @@
         <v>0</v>
       </c>
       <c r="H168">
-        <v>0.658408470749469</v>
+        <v>0.6584084707494688</v>
       </c>
       <c r="I168">
         <v>0.2005144061535595</v>
       </c>
       <c r="J168">
-        <v>0.1410771230969715</v>
+        <v>0.1410771230969716</v>
       </c>
       <c r="K168">
         <v>0</v>
@@ -9770,7 +9770,7 @@
         <v>0</v>
       </c>
       <c r="P168">
-        <v>0.168796501302971</v>
+        <v>0.1687965013029711</v>
       </c>
       <c r="Q168" t="s">
         <v>101</v>
@@ -9802,28 +9802,28 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I169">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="J169">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="K169">
-        <v>0.3415915292485309</v>
+        <v>0.341591529248531</v>
       </c>
       <c r="L169">
         <v>-0.2005144061525595</v>
       </c>
       <c r="M169">
-        <v>-0.1410771230959715</v>
+        <v>-0.1410771230959716</v>
       </c>
       <c r="N169">
-        <v>0.3415915292485309</v>
+        <v>0.341591529248531</v>
       </c>
       <c r="O169">
-        <v>0.683183058497062</v>
+        <v>0.6831830584970622</v>
       </c>
       <c r="P169">
-        <v>1.333392600384897e-12</v>
+        <v>1.333392600384897E-12</v>
       </c>
       <c r="Q169" t="s">
         <v>126</v>
@@ -9855,13 +9855,13 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I170">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="J170">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="K170">
-        <v>1.110223024625157e-16</v>
+        <v>1.110223024625157E-16</v>
       </c>
       <c r="L170">
         <v>0</v>
@@ -9870,13 +9870,13 @@
         <v>0</v>
       </c>
       <c r="N170">
-        <v>1.110223024625157e-16</v>
+        <v>1.110223024625157E-16</v>
       </c>
       <c r="O170">
-        <v>1.110223024625157e-16</v>
+        <v>1.110223024625157E-16</v>
       </c>
       <c r="P170">
-        <v>1.333355592950743e-12</v>
+        <v>1.333355592950743E-12</v>
       </c>
       <c r="Q170" t="s">
         <v>126</v>
@@ -9908,28 +9908,28 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I171">
-        <v>9.999999999980039e-13</v>
+        <v>9.999999999980039E-13</v>
       </c>
       <c r="J171">
-        <v>9.999999999980039e-13</v>
+        <v>9.999999999980039E-13</v>
       </c>
       <c r="K171">
-        <v>-1.110223024625157e-16</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="L171">
-        <v>-4.03896783473158e-28</v>
+        <v>-4.03896783473158E-28</v>
       </c>
       <c r="M171">
-        <v>-4.03896783473158e-28</v>
+        <v>-4.03896783473158E-28</v>
       </c>
       <c r="N171">
-        <v>1.110223024625157e-16</v>
+        <v>1.110223024625157E-16</v>
       </c>
       <c r="O171">
-        <v>1.110223024633234e-16</v>
+        <v>1.110223024633234E-16</v>
       </c>
       <c r="P171">
-        <v>1.333392600384896e-12</v>
+        <v>1.333392600384896E-12</v>
       </c>
       <c r="Q171" t="s">
         <v>105</v>
@@ -10014,10 +10014,10 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I173">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="J173">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="K173">
         <v>0</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="P173">
-        <v>1.333355592950743e-12</v>
+        <v>1.333355592950743E-12</v>
       </c>
       <c r="Q173" t="s">
         <v>101</v>
@@ -10067,13 +10067,13 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I174">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="J174">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="K174">
-        <v>-1.110223024625157e-16</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="L174">
         <v>0</v>
@@ -10082,13 +10082,13 @@
         <v>0</v>
       </c>
       <c r="N174">
-        <v>1.110223024625157e-16</v>
+        <v>1.110223024625157E-16</v>
       </c>
       <c r="O174">
-        <v>1.110223024625157e-16</v>
+        <v>1.110223024625157E-16</v>
       </c>
       <c r="P174">
-        <v>1.333392600384897e-12</v>
+        <v>1.333392600384897E-12</v>
       </c>
       <c r="Q174" t="s">
         <v>131</v>
@@ -10120,28 +10120,28 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I175">
-        <v>9.999999999980045e-13</v>
+        <v>9.999999999980045E-13</v>
       </c>
       <c r="J175">
-        <v>9.999999999980045e-13</v>
+        <v>9.999999999980045E-13</v>
       </c>
       <c r="K175">
-        <v>1.110223024625157e-16</v>
+        <v>1.110223024625157E-16</v>
       </c>
       <c r="L175">
-        <v>2.01948391736579e-28</v>
+        <v>2.01948391736579E-28</v>
       </c>
       <c r="M175">
-        <v>2.01948391736579e-28</v>
+        <v>2.01948391736579E-28</v>
       </c>
       <c r="N175">
-        <v>1.110223024625157e-16</v>
+        <v>1.110223024625157E-16</v>
       </c>
       <c r="O175">
-        <v>1.110223024629196e-16</v>
+        <v>1.110223024629196E-16</v>
       </c>
       <c r="P175">
-        <v>1.333355592950743e-12</v>
+        <v>1.333355592950743E-12</v>
       </c>
       <c r="Q175" t="s">
         <v>131</v>
@@ -10170,13 +10170,13 @@
         <v>0</v>
       </c>
       <c r="H176">
-        <v>0.293215776444209</v>
+        <v>0.2932157764442092</v>
       </c>
       <c r="I176">
         <v>0.2597008793525803</v>
       </c>
       <c r="J176">
-        <v>0.4470833442032106</v>
+        <v>0.4470833442032105</v>
       </c>
       <c r="K176">
         <v>0</v>
@@ -10232,19 +10232,19 @@
         <v>0.6686653283239168</v>
       </c>
       <c r="K177">
-        <v>-0.1632777394168419</v>
+        <v>-0.163277739416842</v>
       </c>
       <c r="L177">
         <v>-0.05830424470386436</v>
       </c>
       <c r="M177">
-        <v>0.2215819841207062</v>
+        <v>0.2215819841207063</v>
       </c>
       <c r="N177">
-        <v>0.2215819841207062</v>
+        <v>0.2215819841207063</v>
       </c>
       <c r="O177">
-        <v>0.4431639682414124</v>
+        <v>0.4431639682414126</v>
       </c>
       <c r="P177">
         <v>0.1651473935943716</v>
@@ -10329,28 +10329,28 @@
         <v>1</v>
       </c>
       <c r="H179">
-        <v>0.1348087276469954</v>
+        <v>0.1348087276469955</v>
       </c>
       <c r="I179">
         <v>0.2358368653331877</v>
       </c>
       <c r="J179">
-        <v>0.6293544070198169</v>
+        <v>0.6293544070198168</v>
       </c>
       <c r="K179">
-        <v>-0.1574622906134734</v>
+        <v>-0.1574622906134733</v>
       </c>
       <c r="L179">
         <v>-0.02367456632761336</v>
       </c>
       <c r="M179">
-        <v>0.1811368569410868</v>
+        <v>0.1811368569410867</v>
       </c>
       <c r="N179">
-        <v>0.1811368569410868</v>
+        <v>0.1811368569410867</v>
       </c>
       <c r="O179">
-        <v>0.3622737138821736</v>
+        <v>0.3622737138821733</v>
       </c>
       <c r="P179">
         <v>0.1767068700882496</v>
@@ -10391,19 +10391,19 @@
         <v>0.7589013699364384</v>
       </c>
       <c r="K180">
-        <v>-0.07901324355767059</v>
+        <v>-0.0790132435576707</v>
       </c>
       <c r="L180">
         <v>-0.0505337193589509</v>
       </c>
       <c r="M180">
-        <v>0.1295469629166215</v>
+        <v>0.1295469629166216</v>
       </c>
       <c r="N180">
-        <v>0.1295469629166215</v>
+        <v>0.1295469629166216</v>
       </c>
       <c r="O180">
-        <v>0.259093925833243</v>
+        <v>0.2590939258332432</v>
       </c>
       <c r="P180">
         <v>0.1288727729186286</v>
@@ -10541,22 +10541,22 @@
         <v>1</v>
       </c>
       <c r="H183">
-        <v>0.4463502669399626</v>
+        <v>0.4463502669399628</v>
       </c>
       <c r="I183">
         <v>0.4652832812505081</v>
       </c>
       <c r="J183">
-        <v>0.08836645180952929</v>
+        <v>0.08836645180952907</v>
       </c>
       <c r="K183">
-        <v>-0.09522105928504487</v>
+        <v>-0.09522105928504465</v>
       </c>
       <c r="L183">
         <v>0.2096866637872705</v>
       </c>
       <c r="M183">
-        <v>-0.1144656045022256</v>
+        <v>-0.1144656045022259</v>
       </c>
       <c r="N183">
         <v>0.2096866637872705</v>
@@ -10594,13 +10594,13 @@
         <v>0</v>
       </c>
       <c r="H184">
-        <v>0.5386074991032545</v>
+        <v>0.5386074991032546</v>
       </c>
       <c r="I184">
         <v>0.2411888167678478</v>
       </c>
       <c r="J184">
-        <v>0.2202036841288977</v>
+        <v>0.2202036841288976</v>
       </c>
       <c r="K184">
         <v>0</v>
@@ -10656,19 +10656,19 @@
         <v>0.1011662264475267</v>
       </c>
       <c r="K185">
-        <v>0.1092456234775682</v>
+        <v>0.1092456234775681</v>
       </c>
       <c r="L185">
         <v>0.00979183420380289</v>
       </c>
       <c r="M185">
-        <v>-0.1190374576813711</v>
+        <v>-0.1190374576813709</v>
       </c>
       <c r="N185">
-        <v>0.1190374576813711</v>
+        <v>0.1190374576813709</v>
       </c>
       <c r="O185">
-        <v>0.2380749153627421</v>
+        <v>0.2380749153627419</v>
       </c>
       <c r="P185">
         <v>0.1690201463421639</v>
@@ -10700,13 +10700,13 @@
         <v>0</v>
       </c>
       <c r="H186">
-        <v>0.6344268658830067</v>
+        <v>0.6344268658830068</v>
       </c>
       <c r="I186">
         <v>0.2096691013604769</v>
       </c>
       <c r="J186">
-        <v>0.1559040327565164</v>
+        <v>0.1559040327565163</v>
       </c>
       <c r="K186">
         <v>0</v>
@@ -10762,19 +10762,19 @@
         <v>0.2961179903508213</v>
       </c>
       <c r="K187">
-        <v>-0.2905914252184661</v>
+        <v>-0.2905914252184663</v>
       </c>
       <c r="L187">
         <v>0.1503774676241613</v>
       </c>
       <c r="M187">
-        <v>0.1402139575943048</v>
+        <v>0.1402139575943049</v>
       </c>
       <c r="N187">
-        <v>0.2905914252184661</v>
+        <v>0.2905914252184663</v>
       </c>
       <c r="O187">
-        <v>0.5811828504369323</v>
+        <v>0.5811828504369325</v>
       </c>
       <c r="P187">
         <v>0.2214859312320008</v>
@@ -10965,28 +10965,28 @@
         <v>0</v>
       </c>
       <c r="H191">
-        <v>0.4414043050457405</v>
+        <v>0.4414043050457404</v>
       </c>
       <c r="I191">
         <v>0.2998135874264165</v>
       </c>
       <c r="J191">
-        <v>0.2587821075278431</v>
+        <v>0.2587821075278432</v>
       </c>
       <c r="K191">
-        <v>0.1706796663736011</v>
+        <v>0.170679666373601</v>
       </c>
       <c r="L191">
         <v>0.04519827192998671</v>
       </c>
       <c r="M191">
-        <v>-0.2158779383035878</v>
+        <v>-0.2158779383035877</v>
       </c>
       <c r="N191">
-        <v>0.2158779383035878</v>
+        <v>0.2158779383035877</v>
       </c>
       <c r="O191">
-        <v>0.4317558766071756</v>
+        <v>0.4317558766071754</v>
       </c>
       <c r="P191">
         <v>0.2161019577016791</v>
@@ -11021,13 +11021,13 @@
         <v>0.439194679698071</v>
       </c>
       <c r="I192">
-        <v>0.44649905173327</v>
+        <v>0.4464990517332699</v>
       </c>
       <c r="J192">
-        <v>0.114306268568659</v>
+        <v>0.1143062685686591</v>
       </c>
       <c r="K192">
-        <v>-0.002209625347669442</v>
+        <v>-0.002209625347669331</v>
       </c>
       <c r="L192">
         <v>0.1466854643068535</v>
@@ -11039,7 +11039,7 @@
         <v>0.1466854643068535</v>
       </c>
       <c r="O192">
-        <v>0.2933709286137071</v>
+        <v>0.2933709286137069</v>
       </c>
       <c r="P192">
         <v>0.1982269023640364</v>
@@ -11180,10 +11180,10 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I195">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="J195">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="K195">
         <v>0.4158708042784688</v>
@@ -11201,7 +11201,7 @@
         <v>0.8317416085569377</v>
       </c>
       <c r="P195">
-        <v>1.333355592950743e-12</v>
+        <v>1.333355592950743E-12</v>
       </c>
       <c r="Q195" t="s">
         <v>141</v>
@@ -11230,31 +11230,31 @@
         <v>0</v>
       </c>
       <c r="H196">
-        <v>0.9999999999979999</v>
+        <v>0.9999999999979998</v>
       </c>
       <c r="I196">
-        <v>9.999999999980045e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="J196">
-        <v>9.999999999980045e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="K196">
-        <v>0</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="L196">
-        <v>2.01948391736579e-28</v>
+        <v>0</v>
       </c>
       <c r="M196">
-        <v>2.01948391736579e-28</v>
+        <v>0</v>
       </c>
       <c r="N196">
-        <v>2.01948391736579e-28</v>
+        <v>1.110223024625157E-16</v>
       </c>
       <c r="O196">
-        <v>4.03896783473158e-28</v>
+        <v>1.110223024625157E-16</v>
       </c>
       <c r="P196">
-        <v>1.333355592950743e-12</v>
+        <v>1.333392600384897E-12</v>
       </c>
       <c r="Q196" t="s">
         <v>141</v>
@@ -11286,28 +11286,28 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I197">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="J197">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="K197">
-        <v>-1.110223024625157e-16</v>
+        <v>0</v>
       </c>
       <c r="L197">
-        <v>-2.01948391736579e-28</v>
+        <v>0</v>
       </c>
       <c r="M197">
-        <v>-2.01948391736579e-28</v>
+        <v>0</v>
       </c>
       <c r="N197">
-        <v>1.110223024625157e-16</v>
+        <v>0</v>
       </c>
       <c r="O197">
-        <v>1.110223024629196e-16</v>
+        <v>0</v>
       </c>
       <c r="P197">
-        <v>1.333392600384897e-12</v>
+        <v>1.333392600384897E-12</v>
       </c>
       <c r="Q197" t="s">
         <v>125</v>
@@ -11392,28 +11392,28 @@
         <v>0.1287587276864013</v>
       </c>
       <c r="I199">
-        <v>0.7547350389045719</v>
+        <v>0.7547350389045721</v>
       </c>
       <c r="J199">
-        <v>0.1165062334090268</v>
+        <v>0.1165062334090267</v>
       </c>
       <c r="K199">
         <v>-0.2456412785805759</v>
       </c>
       <c r="L199">
-        <v>0.2677019645593524</v>
+        <v>0.2677019645593525</v>
       </c>
       <c r="M199">
-        <v>-0.02206068597877642</v>
+        <v>-0.02206068597877653</v>
       </c>
       <c r="N199">
-        <v>0.2677019645593524</v>
+        <v>0.2677019645593525</v>
       </c>
       <c r="O199">
-        <v>0.5354039291187047</v>
+        <v>0.5354039291187049</v>
       </c>
       <c r="P199">
-        <v>0.1334075028903783</v>
+        <v>0.1334075028903782</v>
       </c>
       <c r="Q199" t="s">
         <v>125</v>
@@ -11442,13 +11442,13 @@
         <v>0</v>
       </c>
       <c r="H200">
-        <v>0.5361480227212282</v>
+        <v>0.5361480227212284</v>
       </c>
       <c r="I200">
         <v>0.2418793035486966</v>
       </c>
       <c r="J200">
-        <v>0.2219726737300752</v>
+        <v>0.221972673730075</v>
       </c>
       <c r="K200">
         <v>0</v>
@@ -11504,19 +11504,19 @@
         <v>0.1040396688381028</v>
       </c>
       <c r="K201">
-        <v>0.06595523938723635</v>
+        <v>0.06595523938723613</v>
       </c>
       <c r="L201">
         <v>0.05197776550473607</v>
       </c>
       <c r="M201">
-        <v>-0.1179330048919724</v>
+        <v>-0.1179330048919722</v>
       </c>
       <c r="N201">
-        <v>0.1179330048919724</v>
+        <v>0.1179330048919722</v>
       </c>
       <c r="O201">
-        <v>0.2358660097839448</v>
+        <v>0.2358660097839444</v>
       </c>
       <c r="P201">
         <v>0.1800984773445765</v>
@@ -11551,7 +11551,7 @@
         <v>0.3446676811096778</v>
       </c>
       <c r="I202">
-        <v>0.4766198436603258</v>
+        <v>0.4766198436603257</v>
       </c>
       <c r="J202">
         <v>0.1787124752299964</v>
@@ -11563,7 +11563,7 @@
         <v>0.1827627746068931</v>
       </c>
       <c r="M202">
-        <v>0.07467280639189361</v>
+        <v>0.07467280639189366</v>
       </c>
       <c r="N202">
         <v>0.2574355809987867</v>
@@ -11613,10 +11613,10 @@
         <v>-0.1470505660411306</v>
       </c>
       <c r="L203">
-        <v>0.08441018885527535</v>
+        <v>0.0844101888552754</v>
       </c>
       <c r="M203">
-        <v>0.0626403771858553</v>
+        <v>0.06264037718585524</v>
       </c>
       <c r="N203">
         <v>0.1470505660411306</v>
@@ -12558,10 +12558,10 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I221">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="J221">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="K221">
         <v>0.2296931153113948</v>
@@ -12579,7 +12579,7 @@
         <v>0.4593862306227897</v>
       </c>
       <c r="P221">
-        <v>1.333392600384897e-12</v>
+        <v>1.333392600384897E-12</v>
       </c>
       <c r="Q221" t="s">
         <v>143</v>
@@ -12611,28 +12611,28 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I222">
-        <v>9.999999999980039e-13</v>
+        <v>9.999999999980039E-13</v>
       </c>
       <c r="J222">
-        <v>9.999999999980039e-13</v>
+        <v>9.999999999980039E-13</v>
       </c>
       <c r="K222">
         <v>0</v>
       </c>
       <c r="L222">
-        <v>-4.03896783473158e-28</v>
+        <v>-4.03896783473158E-28</v>
       </c>
       <c r="M222">
-        <v>-4.03896783473158e-28</v>
+        <v>-4.03896783473158E-28</v>
       </c>
       <c r="N222">
-        <v>4.03896783473158e-28</v>
+        <v>4.03896783473158E-28</v>
       </c>
       <c r="O222">
-        <v>8.077935669463161e-28</v>
+        <v>8.077935669463161E-28</v>
       </c>
       <c r="P222">
-        <v>1.333392600384896e-12</v>
+        <v>1.333392600384896E-12</v>
       </c>
       <c r="Q222" t="s">
         <v>143</v>
@@ -12770,10 +12770,10 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I225">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="J225">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="K225">
         <v>0.3380911404102069</v>
@@ -12791,7 +12791,7 @@
         <v>0.6761822808204141</v>
       </c>
       <c r="P225">
-        <v>1.333392600384897e-12</v>
+        <v>1.333392600384897E-12</v>
       </c>
       <c r="Q225" t="s">
         <v>144</v>
@@ -12823,28 +12823,28 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I226">
-        <v>9.999999999980045e-13</v>
+        <v>9.999999999980045E-13</v>
       </c>
       <c r="J226">
-        <v>9.999999999980045e-13</v>
+        <v>9.999999999980045E-13</v>
       </c>
       <c r="K226">
-        <v>1.110223024625157e-16</v>
+        <v>1.110223024625157E-16</v>
       </c>
       <c r="L226">
-        <v>2.01948391736579e-28</v>
+        <v>2.01948391736579E-28</v>
       </c>
       <c r="M226">
-        <v>2.01948391736579e-28</v>
+        <v>2.01948391736579E-28</v>
       </c>
       <c r="N226">
-        <v>1.110223024625157e-16</v>
+        <v>1.110223024625157E-16</v>
       </c>
       <c r="O226">
-        <v>1.110223024629196e-16</v>
+        <v>1.110223024629196E-16</v>
       </c>
       <c r="P226">
-        <v>1.333355592950743e-12</v>
+        <v>1.333355592950743E-12</v>
       </c>
       <c r="Q226" t="s">
         <v>144</v>
@@ -12876,13 +12876,13 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I227">
-        <v>9.999999999980045e-13</v>
+        <v>9.999999999980045E-13</v>
       </c>
       <c r="J227">
-        <v>9.999999999980045e-13</v>
+        <v>9.999999999980045E-13</v>
       </c>
       <c r="K227">
-        <v>-1.110223024625157e-16</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="L227">
         <v>0</v>
@@ -12891,13 +12891,13 @@
         <v>0</v>
       </c>
       <c r="N227">
-        <v>1.110223024625157e-16</v>
+        <v>1.110223024625157E-16</v>
       </c>
       <c r="O227">
-        <v>1.110223024625157e-16</v>
+        <v>1.110223024625157E-16</v>
       </c>
       <c r="P227">
-        <v>1.333392600384897e-12</v>
+        <v>1.333392600384897E-12</v>
       </c>
       <c r="Q227" t="s">
         <v>117</v>
@@ -12926,13 +12926,13 @@
         <v>0</v>
       </c>
       <c r="H228">
-        <v>0.7752535286419603</v>
+        <v>0.7752535286419605</v>
       </c>
       <c r="I228">
         <v>0.1491747635174634</v>
       </c>
       <c r="J228">
-        <v>0.07557170784057626</v>
+        <v>0.07557170784057604</v>
       </c>
       <c r="K228">
         <v>0</v>
@@ -12950,7 +12950,7 @@
         <v>0</v>
       </c>
       <c r="P228">
-        <v>0.1236725910772522</v>
+        <v>0.1236725910772521</v>
       </c>
       <c r="Q228" t="s">
         <v>101</v>
@@ -12982,25 +12982,25 @@
         <v>0.3338859589641693</v>
       </c>
       <c r="I229">
-        <v>0.5106929750507841</v>
+        <v>0.5106929750507843</v>
       </c>
       <c r="J229">
-        <v>0.1554210659850466</v>
+        <v>0.1554210659850465</v>
       </c>
       <c r="K229">
-        <v>-0.441367569677791</v>
+        <v>-0.4413675696777912</v>
       </c>
       <c r="L229">
-        <v>0.3615182115333207</v>
+        <v>0.3615182115333208</v>
       </c>
       <c r="M229">
-        <v>0.07984935814447031</v>
+        <v>0.07984935814447042</v>
       </c>
       <c r="N229">
-        <v>0.441367569677791</v>
+        <v>0.4413675696777912</v>
       </c>
       <c r="O229">
-        <v>0.882735139355582</v>
+        <v>0.8827351393555825</v>
       </c>
       <c r="P229">
         <v>0.201185714629476</v>
@@ -13721,28 +13721,28 @@
         <v>0</v>
       </c>
       <c r="H243">
-        <v>0.4705727249391705</v>
+        <v>0.4705727249391706</v>
       </c>
       <c r="I243">
-        <v>0.3182210115506974</v>
+        <v>0.3182210115506975</v>
       </c>
       <c r="J243">
-        <v>0.2112062635101321</v>
+        <v>0.2112062635101319</v>
       </c>
       <c r="K243">
-        <v>0.1477266083179498</v>
+        <v>0.1477266083179499</v>
       </c>
       <c r="L243">
-        <v>0.05368457756696232</v>
+        <v>0.05368457756696238</v>
       </c>
       <c r="M243">
-        <v>-0.2014111858849121</v>
+        <v>-0.2014111858849123</v>
       </c>
       <c r="N243">
-        <v>0.2014111858849121</v>
+        <v>0.2014111858849123</v>
       </c>
       <c r="O243">
-        <v>0.4028223717698243</v>
+        <v>0.4028223717698246</v>
       </c>
       <c r="P243">
         <v>0.2108962042016878</v>
@@ -13783,16 +13783,16 @@
         <v>0.1590743666384876</v>
       </c>
       <c r="K244">
-        <v>-0.335516318281347</v>
+        <v>-0.3355163182813471</v>
       </c>
       <c r="L244">
-        <v>0.3876482151529915</v>
+        <v>0.3876482151529914</v>
       </c>
       <c r="M244">
-        <v>-0.05213189687164449</v>
+        <v>-0.05213189687164432</v>
       </c>
       <c r="N244">
-        <v>0.3876482151529915</v>
+        <v>0.3876482151529914</v>
       </c>
       <c r="O244">
         <v>0.7752964303059828</v>
@@ -14042,10 +14042,10 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I249">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="J249">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="K249">
         <v>0.6269553384277828</v>
@@ -14063,7 +14063,7 @@
         <v>1.253910676855566</v>
       </c>
       <c r="P249">
-        <v>1.333355592950743e-12</v>
+        <v>1.333355592950743E-12</v>
       </c>
       <c r="Q249" t="s">
         <v>106</v>
@@ -14516,13 +14516,13 @@
         <v>0</v>
       </c>
       <c r="H258">
-        <v>0.3036520743724542</v>
+        <v>0.3036520743724541</v>
       </c>
       <c r="I258">
         <v>0.2616500268162733</v>
       </c>
       <c r="J258">
-        <v>0.4346978988112725</v>
+        <v>0.4346978988112726</v>
       </c>
       <c r="K258">
         <v>0</v>
@@ -14578,19 +14578,19 @@
         <v>0.6574243538609008</v>
       </c>
       <c r="K259">
-        <v>-0.1667471935959377</v>
+        <v>-0.1667471935959376</v>
       </c>
       <c r="L259">
         <v>-0.05597926145369062</v>
       </c>
       <c r="M259">
-        <v>0.2227264550496283</v>
+        <v>0.2227264550496282</v>
       </c>
       <c r="N259">
-        <v>0.2227264550496283</v>
+        <v>0.2227264550496282</v>
       </c>
       <c r="O259">
-        <v>0.4454529100992566</v>
+        <v>0.4454529100992564</v>
       </c>
       <c r="P259">
         <v>0.1689166029484381</v>
@@ -14634,7 +14634,7 @@
         <v>-0.07329173948365608</v>
       </c>
       <c r="L260">
-        <v>0.04081987105698234</v>
+        <v>0.04081987105698232</v>
       </c>
       <c r="M260">
         <v>0.03247186842667382</v>
@@ -14678,7 +14678,7 @@
         <v>0.03536301834756894</v>
       </c>
       <c r="I261">
-        <v>0.2631199100143454</v>
+        <v>0.2631199100143455</v>
       </c>
       <c r="J261">
         <v>0.7015170716380856</v>
@@ -14687,7 +14687,7 @@
         <v>-0.0282501229452915</v>
       </c>
       <c r="L261">
-        <v>0.01662927359478045</v>
+        <v>0.01662927359478053</v>
       </c>
       <c r="M261">
         <v>0.011620849350511</v>
@@ -14696,7 +14696,7 @@
         <v>0.0282501229452915</v>
       </c>
       <c r="O261">
-        <v>0.05650024589058295</v>
+        <v>0.05650024589058303</v>
       </c>
       <c r="P261">
         <v>0.1457970560292391</v>
@@ -14728,13 +14728,13 @@
         <v>0</v>
       </c>
       <c r="H262">
-        <v>0.7504809262193562</v>
+        <v>0.7504809262193564</v>
       </c>
       <c r="I262">
         <v>0.1610102171797474</v>
       </c>
       <c r="J262">
-        <v>0.08850885660089633</v>
+        <v>0.08850885660089622</v>
       </c>
       <c r="K262">
         <v>0</v>
@@ -14784,28 +14784,28 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I263">
-        <v>9.999999999980047e-13</v>
+        <v>9.999999999980047E-13</v>
       </c>
       <c r="J263">
-        <v>9.999999999980047e-13</v>
+        <v>9.999999999980047E-13</v>
       </c>
       <c r="K263">
-        <v>0.2495190737786437</v>
+        <v>0.2495190737786436</v>
       </c>
       <c r="L263">
         <v>-0.1610102171787474</v>
       </c>
       <c r="M263">
-        <v>-0.08850885659989632</v>
+        <v>-0.08850885659989621</v>
       </c>
       <c r="N263">
-        <v>0.2495190737786437</v>
+        <v>0.2495190737786436</v>
       </c>
       <c r="O263">
-        <v>0.4990381475572874</v>
+        <v>0.4990381475572872</v>
       </c>
       <c r="P263">
-        <v>1.333355592950743e-12</v>
+        <v>1.333355592950743E-12</v>
       </c>
       <c r="Q263" t="s">
         <v>107</v>
@@ -14837,28 +14837,28 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I264">
-        <v>9.999999999980039e-13</v>
+        <v>9.999999999980039E-13</v>
       </c>
       <c r="J264">
-        <v>9.999999999980039e-13</v>
+        <v>9.999999999980039E-13</v>
       </c>
       <c r="K264">
         <v>0</v>
       </c>
       <c r="L264">
-        <v>-8.077935669463161e-28</v>
+        <v>-8.077935669463161E-28</v>
       </c>
       <c r="M264">
-        <v>-8.077935669463161e-28</v>
+        <v>-8.077935669463161E-28</v>
       </c>
       <c r="N264">
-        <v>8.077935669463161e-28</v>
+        <v>8.077935669463161E-28</v>
       </c>
       <c r="O264">
-        <v>1.615587133892632e-27</v>
+        <v>1.615587133892632E-27</v>
       </c>
       <c r="P264">
-        <v>1.333355592950742e-12</v>
+        <v>1.333355592950742E-12</v>
       </c>
       <c r="Q264" t="s">
         <v>107</v>
@@ -14996,25 +14996,25 @@
         <v>0.3091900306382873</v>
       </c>
       <c r="I267">
-        <v>0.4110942277636823</v>
+        <v>0.4110942277636824</v>
       </c>
       <c r="J267">
-        <v>0.2797157415980304</v>
+        <v>0.2797157415980303</v>
       </c>
       <c r="K267">
         <v>0.1106859221966995</v>
       </c>
       <c r="L267">
-        <v>0.1014869278593151</v>
+        <v>0.1014869278593152</v>
       </c>
       <c r="M267">
-        <v>-0.2121728500560146</v>
+        <v>-0.2121728500560147</v>
       </c>
       <c r="N267">
-        <v>0.2121728500560146</v>
+        <v>0.2121728500560147</v>
       </c>
       <c r="O267">
-        <v>0.4243457001120292</v>
+        <v>0.4243457001120294</v>
       </c>
       <c r="P267">
         <v>0.2190540549185135</v>
@@ -15058,16 +15058,16 @@
         <v>-0.2046381237500033</v>
       </c>
       <c r="L268">
-        <v>0.2767770088289994</v>
+        <v>0.2767770088289993</v>
       </c>
       <c r="M268">
-        <v>-0.07213888507899607</v>
+        <v>-0.07213888507899596</v>
       </c>
       <c r="N268">
-        <v>0.2767770088289994</v>
+        <v>0.2767770088289993</v>
       </c>
       <c r="O268">
-        <v>0.5535540176579988</v>
+        <v>0.5535540176579986</v>
       </c>
       <c r="P268">
         <v>0.1576046364240516</v>
@@ -15523,28 +15523,28 @@
         <v>1</v>
       </c>
       <c r="H277">
-        <v>0.3965099295500749</v>
+        <v>0.396509929550075</v>
       </c>
       <c r="I277">
         <v>0.4311491823445148</v>
       </c>
       <c r="J277">
-        <v>0.1723408881054103</v>
+        <v>0.1723408881054102</v>
       </c>
       <c r="K277">
-        <v>-0.3823101616074696</v>
+        <v>-0.3823101616074694</v>
       </c>
       <c r="L277">
         <v>0.2837228643226156</v>
       </c>
       <c r="M277">
-        <v>0.09858729728485394</v>
+        <v>0.09858729728485383</v>
       </c>
       <c r="N277">
-        <v>0.3823101616074696</v>
+        <v>0.3823101616074694</v>
       </c>
       <c r="O277">
-        <v>0.7646203232149391</v>
+        <v>0.7646203232149389</v>
       </c>
       <c r="P277">
         <v>0.2090629588729631</v>
@@ -15585,19 +15585,19 @@
         <v>0.08135038290422991</v>
       </c>
       <c r="K278">
-        <v>0.01450920207829065</v>
+        <v>0.01450920207829054</v>
       </c>
       <c r="L278">
         <v>0.0764813031228897</v>
       </c>
       <c r="M278">
-        <v>-0.09099050520118035</v>
+        <v>-0.09099050520118024</v>
       </c>
       <c r="N278">
-        <v>0.09099050520118035</v>
+        <v>0.09099050520118024</v>
       </c>
       <c r="O278">
-        <v>0.1819810104023607</v>
+        <v>0.1819810104023605</v>
       </c>
       <c r="P278">
         <v>0.1889188929536422</v>
@@ -15738,10 +15738,10 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I281">
-        <v>9.999999999980045e-13</v>
+        <v>9.999999999980045E-13</v>
       </c>
       <c r="J281">
-        <v>9.999999999980045e-13</v>
+        <v>9.999999999980045E-13</v>
       </c>
       <c r="K281">
         <v>0.2154417738223428</v>
@@ -15759,7 +15759,7 @@
         <v>0.4308835476446857</v>
       </c>
       <c r="P281">
-        <v>1.333392600384897e-12</v>
+        <v>1.333392600384897E-12</v>
       </c>
       <c r="Q281" t="s">
         <v>115</v>
@@ -15788,31 +15788,31 @@
         <v>1</v>
       </c>
       <c r="H282">
-        <v>0.7161082087028707</v>
+        <v>0.7161082087028708</v>
       </c>
       <c r="I282">
-        <v>0.2066164756636226</v>
+        <v>0.2066164756636225</v>
       </c>
       <c r="J282">
-        <v>0.07727531563350667</v>
+        <v>0.07727531563350662</v>
       </c>
       <c r="K282">
-        <v>-0.2838917912951291</v>
+        <v>-0.283891791295129</v>
       </c>
       <c r="L282">
-        <v>0.2066164756626226</v>
+        <v>0.2066164756626225</v>
       </c>
       <c r="M282">
-        <v>0.07727531563250667</v>
+        <v>0.07727531563250661</v>
       </c>
       <c r="N282">
-        <v>0.2838917912951291</v>
+        <v>0.283891791295129</v>
       </c>
       <c r="O282">
-        <v>0.5677835825902584</v>
+        <v>0.5677835825902582</v>
       </c>
       <c r="P282">
-        <v>0.1461757303354838</v>
+        <v>0.1461757303354837</v>
       </c>
       <c r="Q282" t="s">
         <v>105</v>
@@ -16212,13 +16212,13 @@
         <v>0</v>
       </c>
       <c r="H290">
-        <v>0.5620103587542933</v>
+        <v>0.5620103587542934</v>
       </c>
       <c r="I290">
         <v>0.2342974595507027</v>
       </c>
       <c r="J290">
-        <v>0.203692181695004</v>
+        <v>0.2036921816950039</v>
       </c>
       <c r="K290">
         <v>0</v>
@@ -16274,19 +16274,19 @@
         <v>0.07915952285125041</v>
       </c>
       <c r="K291">
-        <v>0.2035595564019557</v>
+        <v>0.2035595564019556</v>
       </c>
       <c r="L291">
         <v>-0.07902689755820208</v>
       </c>
       <c r="M291">
-        <v>-0.1245326588437536</v>
+        <v>-0.1245326588437535</v>
       </c>
       <c r="N291">
-        <v>0.2035595564019557</v>
+        <v>0.2035595564019556</v>
       </c>
       <c r="O291">
-        <v>0.4071191128039113</v>
+        <v>0.4071191128039111</v>
       </c>
       <c r="P291">
         <v>0.1278425091760497</v>
@@ -16904,10 +16904,10 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I303">
-        <v>9.999999999980045e-13</v>
+        <v>9.999999999980045E-13</v>
       </c>
       <c r="J303">
-        <v>9.999999999980045e-13</v>
+        <v>9.999999999980045E-13</v>
       </c>
       <c r="K303">
         <v>0.2689385539605423</v>
@@ -16925,7 +16925,7 @@
         <v>0.5378771079210847</v>
       </c>
       <c r="P303">
-        <v>1.333355592950743e-12</v>
+        <v>1.333355592950743E-12</v>
       </c>
       <c r="Q303" t="s">
         <v>153</v>
@@ -17275,10 +17275,10 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I310">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="J310">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="K310">
         <v>0.3784964818732459</v>
@@ -17296,7 +17296,7 @@
         <v>0.7569929637464921</v>
       </c>
       <c r="P310">
-        <v>1.333392600384897e-12</v>
+        <v>1.333392600384897E-12</v>
       </c>
       <c r="Q310" t="s">
         <v>154</v>
@@ -17431,28 +17431,28 @@
         <v>2</v>
       </c>
       <c r="H313">
-        <v>0.325714434010958</v>
+        <v>0.3257144340109579</v>
       </c>
       <c r="I313">
         <v>0.3535074688307907</v>
       </c>
       <c r="J313">
-        <v>0.3207780971582513</v>
+        <v>0.3207780971582514</v>
       </c>
       <c r="K313">
-        <v>-0.2319998340409002</v>
+        <v>-0.2319998340409003</v>
       </c>
       <c r="L313">
         <v>0.09160922006673855</v>
       </c>
       <c r="M313">
-        <v>0.1403906139741616</v>
+        <v>0.1403906139741617</v>
       </c>
       <c r="N313">
-        <v>0.2319998340409002</v>
+        <v>0.2319998340409003</v>
       </c>
       <c r="O313">
-        <v>0.4639996680818004</v>
+        <v>0.4639996680818006</v>
       </c>
       <c r="P313">
         <v>0.2220146631137668</v>
@@ -17493,19 +17493,19 @@
         <v>0.1457422906629356</v>
       </c>
       <c r="K314">
-        <v>0.02512132511647758</v>
+        <v>0.02512132511647769</v>
       </c>
       <c r="L314">
         <v>0.1499144813788381</v>
       </c>
       <c r="M314">
-        <v>-0.1750358064953156</v>
+        <v>-0.1750358064953157</v>
       </c>
       <c r="N314">
-        <v>0.1750358064953156</v>
+        <v>0.1750358064953157</v>
       </c>
       <c r="O314">
-        <v>0.3500716129906313</v>
+        <v>0.3500716129906315</v>
       </c>
       <c r="P314">
         <v>0.2007465982923101</v>
@@ -17643,13 +17643,13 @@
         <v>0</v>
       </c>
       <c r="H317">
-        <v>0.3180193565131924</v>
+        <v>0.3180193565131922</v>
       </c>
       <c r="I317">
         <v>0.2638967225588925</v>
       </c>
       <c r="J317">
-        <v>0.4180839209279152</v>
+        <v>0.4180839209279153</v>
       </c>
       <c r="K317">
         <v>0</v>
@@ -17705,19 +17705,19 @@
         <v>0.3191718205898556</v>
       </c>
       <c r="K318">
-        <v>-0.2039211808140902</v>
+        <v>-0.2039211808140901</v>
       </c>
       <c r="L318">
         <v>0.3028332811521497</v>
       </c>
       <c r="M318">
-        <v>-0.09891210033805958</v>
+        <v>-0.09891210033805969</v>
       </c>
       <c r="N318">
         <v>0.3028332811521497</v>
       </c>
       <c r="O318">
-        <v>0.6056665623042994</v>
+        <v>0.6056665623042996</v>
       </c>
       <c r="P318">
         <v>0.1879760193790586</v>
@@ -18132,7 +18132,7 @@
         <v>-0.1189689322859875</v>
       </c>
       <c r="L326">
-        <v>-0.03426032082522584</v>
+        <v>-0.03426032082522587</v>
       </c>
       <c r="M326">
         <v>0.1532292531112134</v>
@@ -18141,7 +18141,7 @@
         <v>0.1532292531112134</v>
       </c>
       <c r="O326">
-        <v>0.3064585062224267</v>
+        <v>0.3064585062224268</v>
       </c>
       <c r="P326">
         <v>0.144538615190212</v>
@@ -18173,13 +18173,13 @@
         <v>0</v>
       </c>
       <c r="H327">
-        <v>0.7759733116402439</v>
+        <v>0.7759733116402437</v>
       </c>
       <c r="I327">
         <v>0.1488228199238153</v>
       </c>
       <c r="J327">
-        <v>0.07520386843594085</v>
+        <v>0.07520386843594096</v>
       </c>
       <c r="K327">
         <v>0</v>
@@ -18197,7 +18197,7 @@
         <v>0</v>
       </c>
       <c r="P327">
-        <v>0.1233538553547554</v>
+        <v>0.1233538553547555</v>
       </c>
       <c r="Q327" t="s">
         <v>101</v>
@@ -18229,28 +18229,28 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I328">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="J328">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="K328">
-        <v>0.2240266883577561</v>
+        <v>0.2240266883577562</v>
       </c>
       <c r="L328">
         <v>-0.1488228199228153</v>
       </c>
       <c r="M328">
-        <v>-0.07520386843494084</v>
+        <v>-0.07520386843494095</v>
       </c>
       <c r="N328">
-        <v>0.2240266883577561</v>
+        <v>0.2240266883577562</v>
       </c>
       <c r="O328">
-        <v>0.4480533767155123</v>
+        <v>0.4480533767155125</v>
       </c>
       <c r="P328">
-        <v>1.333355592950743e-12</v>
+        <v>1.333355592950743E-12</v>
       </c>
       <c r="Q328" t="s">
         <v>117</v>
@@ -18388,10 +18388,10 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I331">
-        <v>9.999999999980045e-13</v>
+        <v>9.999999999980045E-13</v>
       </c>
       <c r="J331">
-        <v>9.999999999980045e-13</v>
+        <v>9.999999999980045E-13</v>
       </c>
       <c r="K331">
         <v>0.5964993409680095</v>
@@ -18409,7 +18409,7 @@
         <v>1.192998681936019</v>
       </c>
       <c r="P331">
-        <v>1.333392600384897e-12</v>
+        <v>1.333392600384897E-12</v>
       </c>
       <c r="Q331" t="s">
         <v>152</v>
@@ -18441,19 +18441,19 @@
         <v>0.2579364145470779</v>
       </c>
       <c r="I332">
-        <v>0.6549169034082032</v>
+        <v>0.6549169034082033</v>
       </c>
       <c r="J332">
-        <v>0.08714668204471887</v>
+        <v>0.08714668204471876</v>
       </c>
       <c r="K332">
         <v>-0.7420635854509219</v>
       </c>
       <c r="L332">
-        <v>0.6549169034072032</v>
+        <v>0.6549169034072033</v>
       </c>
       <c r="M332">
-        <v>0.08714668204371886</v>
+        <v>0.08714668204371875</v>
       </c>
       <c r="N332">
         <v>0.7420635854509219</v>
@@ -18597,13 +18597,13 @@
         <v>0</v>
       </c>
       <c r="H335">
-        <v>0.1719585903634997</v>
+        <v>0.1719585903634996</v>
       </c>
       <c r="I335">
         <v>0.2183163509554033</v>
       </c>
       <c r="J335">
-        <v>0.6097250586810971</v>
+        <v>0.6097250586810972</v>
       </c>
       <c r="K335">
         <v>0</v>
@@ -18659,19 +18659,19 @@
         <v>0.7048885904079532</v>
       </c>
       <c r="K336">
-        <v>-0.09923285745815091</v>
+        <v>-0.0992328574581508</v>
       </c>
       <c r="L336">
         <v>0.004069325731294732</v>
       </c>
       <c r="M336">
-        <v>0.0951635317268561</v>
+        <v>0.09516353172685599</v>
       </c>
       <c r="N336">
-        <v>0.09923285745815091</v>
+        <v>0.0992328574581508</v>
       </c>
       <c r="O336">
-        <v>0.1984657149163017</v>
+        <v>0.1984657149163015</v>
       </c>
       <c r="P336">
         <v>0.1494625512302227</v>
@@ -18706,16 +18706,16 @@
         <v>0.1526534874849319</v>
       </c>
       <c r="I337">
-        <v>0.4580266838531429</v>
+        <v>0.458026683853143</v>
       </c>
       <c r="J337">
-        <v>0.3893198286619252</v>
+        <v>0.3893198286619251</v>
       </c>
       <c r="K337">
         <v>0.07992775457958312</v>
       </c>
       <c r="L337">
-        <v>0.2356410071664449</v>
+        <v>0.235641007166445</v>
       </c>
       <c r="M337">
         <v>-0.315568761746028</v>
@@ -18724,7 +18724,7 @@
         <v>0.315568761746028</v>
       </c>
       <c r="O337">
-        <v>0.631137523492056</v>
+        <v>0.6311375234920562</v>
       </c>
       <c r="P337">
         <v>0.20511284688261</v>
@@ -18768,16 +18768,16 @@
         <v>-0.0942878072688943</v>
       </c>
       <c r="L338">
-        <v>0.1509628034844718</v>
+        <v>0.1509628034844717</v>
       </c>
       <c r="M338">
-        <v>-0.05667499621557748</v>
+        <v>-0.05667499621557742</v>
       </c>
       <c r="N338">
-        <v>0.1509628034844718</v>
+        <v>0.1509628034844717</v>
       </c>
       <c r="O338">
-        <v>0.3019256069689435</v>
+        <v>0.3019256069689434</v>
       </c>
       <c r="P338">
         <v>0.1716908890439766</v>
@@ -18809,13 +18809,13 @@
         <v>0</v>
       </c>
       <c r="H339">
-        <v>0.6344268658830067</v>
+        <v>0.6344268658830068</v>
       </c>
       <c r="I339">
         <v>0.2096691013604769</v>
       </c>
       <c r="J339">
-        <v>0.1559040327565164</v>
+        <v>0.1559040327565163</v>
       </c>
       <c r="K339">
         <v>0</v>
@@ -18871,19 +18871,19 @@
         <v>0.3220774384213037</v>
       </c>
       <c r="K340">
-        <v>-0.2549296311377259</v>
+        <v>-0.254929631137726</v>
       </c>
       <c r="L340">
         <v>0.08875622547293865</v>
       </c>
       <c r="M340">
-        <v>0.1661734056647873</v>
+        <v>0.1661734056647874</v>
       </c>
       <c r="N340">
-        <v>0.2549296311377259</v>
+        <v>0.254929631137726</v>
       </c>
       <c r="O340">
-        <v>0.5098592622754519</v>
+        <v>0.5098592622754521</v>
       </c>
       <c r="P340">
         <v>0.2210634322616752</v>
@@ -18971,25 +18971,25 @@
         <v>0.1834500746254781</v>
       </c>
       <c r="I342">
-        <v>0.6538028826983078</v>
+        <v>0.6538028826983077</v>
       </c>
       <c r="J342">
-        <v>0.1627470426762141</v>
+        <v>0.1627470426762142</v>
       </c>
       <c r="K342">
         <v>-0.02259963949447052</v>
       </c>
       <c r="L342">
-        <v>0.3538130087695147</v>
+        <v>0.3538130087695146</v>
       </c>
       <c r="M342">
-        <v>-0.3312133692750442</v>
+        <v>-0.3312133692750441</v>
       </c>
       <c r="N342">
-        <v>0.3538130087695147</v>
+        <v>0.3538130087695146</v>
       </c>
       <c r="O342">
-        <v>0.7076260175390294</v>
+        <v>0.7076260175390292</v>
       </c>
       <c r="P342">
         <v>0.1708004202651453</v>
@@ -19021,28 +19021,28 @@
         <v>3</v>
       </c>
       <c r="H343">
-        <v>0.09619475720621307</v>
+        <v>0.09619475720621318</v>
       </c>
       <c r="I343">
         <v>0.7211736893519158</v>
       </c>
       <c r="J343">
-        <v>0.1826315534418711</v>
+        <v>0.182631553441871</v>
       </c>
       <c r="K343">
-        <v>-0.08725531741926507</v>
+        <v>-0.08725531741926495</v>
       </c>
       <c r="L343">
-        <v>0.06737080665360806</v>
+        <v>0.06737080665360817</v>
       </c>
       <c r="M343">
-        <v>0.019884510765657</v>
+        <v>0.01988451076565678</v>
       </c>
       <c r="N343">
-        <v>0.08725531741926507</v>
+        <v>0.08725531741926495</v>
       </c>
       <c r="O343">
-        <v>0.1745106348385301</v>
+        <v>0.1745106348385299</v>
       </c>
       <c r="P343">
         <v>0.1457669313866644</v>
@@ -19130,25 +19130,25 @@
         <v>0.4028079883042649</v>
       </c>
       <c r="I345">
-        <v>0.3135964233996958</v>
+        <v>0.3135964233996957</v>
       </c>
       <c r="J345">
-        <v>0.2835955882960393</v>
+        <v>0.2835955882960394</v>
       </c>
       <c r="K345">
         <v>0.1623126359471896</v>
       </c>
       <c r="L345">
-        <v>0.06766671973931918</v>
+        <v>0.06766671973931912</v>
       </c>
       <c r="M345">
-        <v>-0.2299793556865088</v>
+        <v>-0.2299793556865087</v>
       </c>
       <c r="N345">
-        <v>0.2299793556865088</v>
+        <v>0.2299793556865087</v>
       </c>
       <c r="O345">
-        <v>0.4599587113730176</v>
+        <v>0.4599587113730175</v>
       </c>
       <c r="P345">
         <v>0.2196588500294044</v>
@@ -19180,28 +19180,28 @@
         <v>0</v>
       </c>
       <c r="H346">
-        <v>0.3695701287954315</v>
+        <v>0.3695701287954316</v>
       </c>
       <c r="I346">
         <v>0.5138242145495715</v>
       </c>
       <c r="J346">
-        <v>0.116605656654997</v>
+        <v>0.1166056566549969</v>
       </c>
       <c r="K346">
-        <v>-0.0332378595088334</v>
+        <v>-0.03323785950883329</v>
       </c>
       <c r="L346">
-        <v>0.2002277911498757</v>
+        <v>0.2002277911498758</v>
       </c>
       <c r="M346">
-        <v>-0.1669899316410423</v>
+        <v>-0.1669899316410425</v>
       </c>
       <c r="N346">
-        <v>0.2002277911498757</v>
+        <v>0.2002277911498758</v>
       </c>
       <c r="O346">
-        <v>0.4004555822997514</v>
+        <v>0.4004555822997515</v>
       </c>
       <c r="P346">
         <v>0.1952685724269003</v>
@@ -19242,19 +19242,19 @@
         <v>0.1513674334508186</v>
       </c>
       <c r="K347">
-        <v>-0.1724190973265112</v>
+        <v>-0.1724190973265113</v>
       </c>
       <c r="L347">
         <v>0.1376573205306896</v>
       </c>
       <c r="M347">
-        <v>0.0347617767958216</v>
+        <v>0.03476177679582171</v>
       </c>
       <c r="N347">
-        <v>0.1724190973265112</v>
+        <v>0.1724190973265113</v>
       </c>
       <c r="O347">
-        <v>0.3448381946530223</v>
+        <v>0.3448381946530226</v>
       </c>
       <c r="P347">
         <v>0.1712637267769065</v>
@@ -19660,25 +19660,25 @@
         <v>0.1274770733099759</v>
       </c>
       <c r="I355">
-        <v>0.2410175126096809</v>
+        <v>0.241017512609681</v>
       </c>
       <c r="J355">
-        <v>0.6315054140803432</v>
+        <v>0.6315054140803431</v>
       </c>
       <c r="K355">
         <v>-0.1507016711770817</v>
       </c>
       <c r="L355">
-        <v>-0.01541541967478791</v>
+        <v>-0.01541541967478782</v>
       </c>
       <c r="M355">
-        <v>0.1661170908518696</v>
+        <v>0.1661170908518695</v>
       </c>
       <c r="N355">
-        <v>0.1661170908518696</v>
+        <v>0.1661170908518695</v>
       </c>
       <c r="O355">
-        <v>0.3322341817037392</v>
+        <v>0.332234181703739</v>
       </c>
       <c r="P355">
         <v>0.1756203554609932</v>
@@ -19722,16 +19722,16 @@
         <v>-0.07110437464683173</v>
       </c>
       <c r="L356">
-        <v>-0.02873465872239889</v>
+        <v>-0.02873465872239897</v>
       </c>
       <c r="M356">
-        <v>0.09983903336923061</v>
+        <v>0.09983903336923072</v>
       </c>
       <c r="N356">
-        <v>0.09983903336923061</v>
+        <v>0.09983903336923072</v>
       </c>
       <c r="O356">
-        <v>0.1996780667384612</v>
+        <v>0.1996780667384614</v>
       </c>
       <c r="P356">
         <v>0.1389644693251943</v>
@@ -19928,22 +19928,22 @@
         <v>0.1965031421694378</v>
       </c>
       <c r="J360">
-        <v>0.7281965136241312</v>
+        <v>0.7281965136241311</v>
       </c>
       <c r="K360">
         <v>0.04362173180988949</v>
       </c>
       <c r="L360">
-        <v>0.07408877822060164</v>
+        <v>0.07408877822060167</v>
       </c>
       <c r="M360">
-        <v>-0.117710510030491</v>
+        <v>-0.1177105100304912</v>
       </c>
       <c r="N360">
-        <v>0.117710510030491</v>
+        <v>0.1177105100304912</v>
       </c>
       <c r="O360">
-        <v>0.2354210200609822</v>
+        <v>0.2354210200609823</v>
       </c>
       <c r="P360">
         <v>0.1418154036085304</v>
@@ -19987,16 +19987,16 @@
         <v>-0.03691865456121723</v>
       </c>
       <c r="L361">
-        <v>-0.01936187548184445</v>
+        <v>-0.01936187548184448</v>
       </c>
       <c r="M361">
-        <v>0.05628053004306166</v>
+        <v>0.05628053004306177</v>
       </c>
       <c r="N361">
-        <v>0.05628053004306166</v>
+        <v>0.05628053004306177</v>
       </c>
       <c r="O361">
-        <v>0.1125610600861233</v>
+        <v>0.1125610600861235</v>
       </c>
       <c r="P361">
         <v>0.1172478618318249</v>
@@ -20296,19 +20296,19 @@
         <v>0.05288164654134142</v>
       </c>
       <c r="I367">
-        <v>0.5899862714953461</v>
+        <v>0.589986271495346</v>
       </c>
       <c r="J367">
-        <v>0.3571320819633125</v>
+        <v>0.3571320819633126</v>
       </c>
       <c r="K367">
         <v>-0.06251094109580513</v>
       </c>
       <c r="L367">
-        <v>0.04852760356255725</v>
+        <v>0.04852760356255714</v>
       </c>
       <c r="M367">
-        <v>0.01398333753324787</v>
+        <v>0.01398333753324799</v>
       </c>
       <c r="N367">
         <v>0.06251094109580513</v>
@@ -20358,16 +20358,16 @@
         <v>0.02472407446311564</v>
       </c>
       <c r="L368">
-        <v>0.11912086221332</v>
+        <v>0.1191208622133201</v>
       </c>
       <c r="M368">
-        <v>-0.1438449366764356</v>
+        <v>-0.1438449366764357</v>
       </c>
       <c r="N368">
-        <v>0.1438449366764356</v>
+        <v>0.1438449366764357</v>
       </c>
       <c r="O368">
-        <v>0.2876898733528712</v>
+        <v>0.2876898733528714</v>
       </c>
       <c r="P368">
         <v>0.148551006215411</v>
@@ -20720,10 +20720,10 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I375">
-        <v>9.999999999980039e-13</v>
+        <v>9.999999999980039E-13</v>
       </c>
       <c r="J375">
-        <v>9.999999999980039e-13</v>
+        <v>9.999999999980039E-13</v>
       </c>
       <c r="K375">
         <v>0.6037011408670404</v>
@@ -20741,7 +20741,7 @@
         <v>1.207402281734081</v>
       </c>
       <c r="P375">
-        <v>1.333355592950742e-12</v>
+        <v>1.333355592950742E-12</v>
       </c>
       <c r="Q375" t="s">
         <v>126</v>
@@ -20823,28 +20823,28 @@
         <v>0</v>
       </c>
       <c r="H377">
-        <v>0.6437994018818683</v>
+        <v>0.6437994018818685</v>
       </c>
       <c r="I377">
         <v>0.264716091389762</v>
       </c>
       <c r="J377">
-        <v>0.09148450672836966</v>
+        <v>0.09148450672836955</v>
       </c>
       <c r="K377">
-        <v>0.06703426893663056</v>
+        <v>0.06703426893663067</v>
       </c>
       <c r="L377">
         <v>0.03504722001544394</v>
       </c>
       <c r="M377">
-        <v>-0.1020814889520745</v>
+        <v>-0.1020814889520746</v>
       </c>
       <c r="N377">
-        <v>0.1020814889520745</v>
+        <v>0.1020814889520746</v>
       </c>
       <c r="O377">
-        <v>0.204162977904149</v>
+        <v>0.2041629779041492</v>
       </c>
       <c r="P377">
         <v>0.1690261020415142</v>
@@ -20885,19 +20885,19 @@
         <v>0.1430236029232985</v>
       </c>
       <c r="K378">
-        <v>-0.3352114649749639</v>
+        <v>-0.335211464974964</v>
       </c>
       <c r="L378">
         <v>0.283672368780035</v>
       </c>
       <c r="M378">
-        <v>0.05153909619492886</v>
+        <v>0.05153909619492897</v>
       </c>
       <c r="N378">
-        <v>0.3352114649749639</v>
+        <v>0.335211464974964</v>
       </c>
       <c r="O378">
-        <v>0.6704229299499278</v>
+        <v>0.670422929949928</v>
       </c>
       <c r="P378">
         <v>0.1945292769849926</v>
@@ -21250,25 +21250,25 @@
         <v>0.02607024451149542</v>
       </c>
       <c r="I385">
-        <v>0.7259966444519823</v>
+        <v>0.7259966444519822</v>
       </c>
       <c r="J385">
-        <v>0.2479331110365223</v>
+        <v>0.2479331110365224</v>
       </c>
       <c r="K385">
         <v>-0.03618507985340635</v>
       </c>
       <c r="L385">
-        <v>0.1307577025600495</v>
+        <v>0.1307577025600494</v>
       </c>
       <c r="M385">
-        <v>-0.09457262270664313</v>
+        <v>-0.09457262270664302</v>
       </c>
       <c r="N385">
-        <v>0.1307577025600495</v>
+        <v>0.1307577025600494</v>
       </c>
       <c r="O385">
-        <v>0.261515405120099</v>
+        <v>0.2615154051200987</v>
       </c>
       <c r="P385">
         <v>0.1369261290157748</v>
@@ -21300,13 +21300,13 @@
         <v>0</v>
       </c>
       <c r="H386">
-        <v>0.480450475643297</v>
+        <v>0.4804504756432971</v>
       </c>
       <c r="I386">
         <v>0.2555713422595532</v>
       </c>
       <c r="J386">
-        <v>0.2639781820971497</v>
+        <v>0.2639781820971496</v>
       </c>
       <c r="K386">
         <v>0</v>
@@ -21324,7 +21324,7 @@
         <v>0</v>
       </c>
       <c r="P386">
-        <v>0.2113887162821547</v>
+        <v>0.2113887162821546</v>
       </c>
       <c r="Q386" t="s">
         <v>101</v>
@@ -21362,13 +21362,13 @@
         <v>0.2102905470243992</v>
       </c>
       <c r="K387">
-        <v>-0.335176624606552</v>
+        <v>-0.3351766246065521</v>
       </c>
       <c r="L387">
         <v>0.3888642596793025</v>
       </c>
       <c r="M387">
-        <v>-0.05368763507275054</v>
+        <v>-0.05368763507275043</v>
       </c>
       <c r="N387">
         <v>0.3888642596793025</v>
@@ -21727,10 +21727,10 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I394">
-        <v>9.999999999980039e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="J394">
-        <v>9.999999999980039e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="K394">
         <v>0.2657851904306487</v>
@@ -21748,7 +21748,7 @@
         <v>0.5315703808612976</v>
       </c>
       <c r="P394">
-        <v>1.333355592950742e-12</v>
+        <v>1.333355592950743E-12</v>
       </c>
       <c r="Q394" t="s">
         <v>158</v>
@@ -21830,16 +21830,16 @@
         <v>1</v>
       </c>
       <c r="H396">
-        <v>0.9999999999979999</v>
+        <v>0.9999999999979998</v>
       </c>
       <c r="I396">
-        <v>9.999999999980045e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="J396">
-        <v>9.999999999980045e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="K396">
-        <v>0.6634548415924176</v>
+        <v>0.6634548415924175</v>
       </c>
       <c r="L396">
         <v>-0.5985605019856045</v>
@@ -21848,13 +21848,13 @@
         <v>-0.06489433960681321</v>
       </c>
       <c r="N396">
-        <v>0.6634548415924176</v>
+        <v>0.6634548415924175</v>
       </c>
       <c r="O396">
         <v>1.326909683184835</v>
       </c>
       <c r="P396">
-        <v>1.333355592950743e-12</v>
+        <v>1.333392600384897E-12</v>
       </c>
       <c r="Q396" t="s">
         <v>158</v>
@@ -22257,10 +22257,10 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I404">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="J404">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="K404">
         <v>0.2321237615793315</v>
@@ -22278,7 +22278,7 @@
         <v>0.4642475231586631</v>
       </c>
       <c r="P404">
-        <v>1.333392600384897e-12</v>
+        <v>1.333392600384897E-12</v>
       </c>
       <c r="Q404" t="s">
         <v>115</v>
@@ -22363,10 +22363,10 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I406">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980045E-13</v>
       </c>
       <c r="J406">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980045E-13</v>
       </c>
       <c r="K406">
         <v>0.4476234097955253</v>
@@ -22384,7 +22384,7 @@
         <v>0.8952468195910508</v>
       </c>
       <c r="P406">
-        <v>1.333392600384897e-12</v>
+        <v>1.333392600384897E-12</v>
       </c>
       <c r="Q406" t="s">
         <v>115</v>
@@ -22413,13 +22413,13 @@
         <v>0</v>
       </c>
       <c r="H407">
-        <v>0.2875570969960497</v>
+        <v>0.2875570969960495</v>
       </c>
       <c r="I407">
         <v>0.2585342077576897</v>
       </c>
       <c r="J407">
-        <v>0.4539086952462606</v>
+        <v>0.4539086952462608</v>
       </c>
       <c r="K407">
         <v>0</v>
@@ -22475,19 +22475,19 @@
         <v>0.4967914261551117</v>
       </c>
       <c r="K408">
-        <v>-0.1556328450884255</v>
+        <v>-0.1556328450884252</v>
       </c>
       <c r="L408">
         <v>0.1127501141795744</v>
       </c>
       <c r="M408">
-        <v>0.04288273090885109</v>
+        <v>0.04288273090885086</v>
       </c>
       <c r="N408">
-        <v>0.1556328450884255</v>
+        <v>0.1556328450884252</v>
       </c>
       <c r="O408">
-        <v>0.3112656901768509</v>
+        <v>0.3112656901768505</v>
       </c>
       <c r="P408">
         <v>0.1993140743136567</v>
@@ -22519,13 +22519,13 @@
         <v>0</v>
       </c>
       <c r="H409">
-        <v>0.2828596274148304</v>
+        <v>0.2828596274148305</v>
       </c>
       <c r="I409">
         <v>0.2575077157323418</v>
       </c>
       <c r="J409">
-        <v>0.4596326568528278</v>
+        <v>0.4596326568528277</v>
       </c>
       <c r="K409">
         <v>0</v>
@@ -22581,19 +22581,19 @@
         <v>0.674955467804348</v>
       </c>
       <c r="K410">
-        <v>-0.1587934045110811</v>
+        <v>-0.1587934045110813</v>
       </c>
       <c r="L410">
         <v>-0.05652940644043905</v>
       </c>
       <c r="M410">
-        <v>0.2153228109515202</v>
+        <v>0.2153228109515203</v>
       </c>
       <c r="N410">
-        <v>0.2153228109515202</v>
+        <v>0.2153228109515203</v>
       </c>
       <c r="O410">
-        <v>0.4306456219030405</v>
+        <v>0.4306456219030407</v>
       </c>
       <c r="P410">
         <v>0.1628834693365264</v>
@@ -22678,13 +22678,13 @@
         <v>0</v>
       </c>
       <c r="H412">
-        <v>0.3180193565131924</v>
+        <v>0.3180193565131922</v>
       </c>
       <c r="I412">
         <v>0.2638967225588925</v>
       </c>
       <c r="J412">
-        <v>0.4180839209279152</v>
+        <v>0.4180839209279153</v>
       </c>
       <c r="K412">
         <v>0</v>
@@ -22740,19 +22740,19 @@
         <v>0.3096976101296661</v>
       </c>
       <c r="K413">
-        <v>-0.2066066952365512</v>
+        <v>-0.2066066952365511</v>
       </c>
       <c r="L413">
         <v>0.3149930060348002</v>
       </c>
       <c r="M413">
-        <v>-0.1083863107982491</v>
+        <v>-0.1083863107982492</v>
       </c>
       <c r="N413">
         <v>0.3149930060348002</v>
       </c>
       <c r="O413">
-        <v>0.6299860120696004</v>
+        <v>0.6299860120696006</v>
       </c>
       <c r="P413">
         <v>0.1855204304386502</v>
@@ -23052,10 +23052,10 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I419">
-        <v>9.999999999980045e-13</v>
+        <v>9.999999999980045E-13</v>
       </c>
       <c r="J419">
-        <v>9.999999999980045e-13</v>
+        <v>9.999999999980045E-13</v>
       </c>
       <c r="K419">
         <v>0.2462360113982813</v>
@@ -23073,7 +23073,7 @@
         <v>0.4924720227965627</v>
       </c>
       <c r="P419">
-        <v>1.333355592950743e-12</v>
+        <v>1.333355592950743E-12</v>
       </c>
       <c r="Q419" t="s">
         <v>125</v>
@@ -23105,28 +23105,28 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I420">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="J420">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="K420">
         <v>0</v>
       </c>
       <c r="L420">
-        <v>-2.01948391736579e-28</v>
+        <v>-2.01948391736579E-28</v>
       </c>
       <c r="M420">
-        <v>-2.01948391736579e-28</v>
+        <v>-2.01948391736579E-28</v>
       </c>
       <c r="N420">
-        <v>2.01948391736579e-28</v>
+        <v>2.01948391736579E-28</v>
       </c>
       <c r="O420">
-        <v>4.03896783473158e-28</v>
+        <v>4.03896783473158E-28</v>
       </c>
       <c r="P420">
-        <v>1.333355592950743e-12</v>
+        <v>1.333355592950743E-12</v>
       </c>
       <c r="Q420" t="s">
         <v>125</v>
@@ -23158,28 +23158,28 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I421">
-        <v>9.999999999980045e-13</v>
+        <v>9.999999999980045E-13</v>
       </c>
       <c r="J421">
-        <v>9.999999999980045e-13</v>
+        <v>9.999999999980045E-13</v>
       </c>
       <c r="K421">
-        <v>-1.110223024625157e-16</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="L421">
-        <v>2.01948391736579e-28</v>
+        <v>2.01948391736579E-28</v>
       </c>
       <c r="M421">
-        <v>2.01948391736579e-28</v>
+        <v>2.01948391736579E-28</v>
       </c>
       <c r="N421">
-        <v>1.110223024625157e-16</v>
+        <v>1.110223024625157E-16</v>
       </c>
       <c r="O421">
-        <v>1.110223024629196e-16</v>
+        <v>1.110223024629196E-16</v>
       </c>
       <c r="P421">
-        <v>1.333392600384897e-12</v>
+        <v>1.333392600384897E-12</v>
       </c>
       <c r="Q421" t="s">
         <v>125</v>
@@ -23370,10 +23370,10 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I425">
-        <v>9.999999999980045e-13</v>
+        <v>9.999999999980045E-13</v>
       </c>
       <c r="J425">
-        <v>9.999999999980045e-13</v>
+        <v>9.999999999980045E-13</v>
       </c>
       <c r="K425">
         <v>0</v>
@@ -23391,7 +23391,7 @@
         <v>0</v>
       </c>
       <c r="P425">
-        <v>1.333355592950743e-12</v>
+        <v>1.333355592950743E-12</v>
       </c>
       <c r="Q425" t="s">
         <v>101</v>
@@ -23476,10 +23476,10 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I427">
-        <v>9.999999999980045e-13</v>
+        <v>9.999999999980045E-13</v>
       </c>
       <c r="J427">
-        <v>9.999999999980045e-13</v>
+        <v>9.999999999980045E-13</v>
       </c>
       <c r="K427">
         <v>0.379995001824498</v>
@@ -23497,7 +23497,7 @@
         <v>0.759990003648996</v>
       </c>
       <c r="P427">
-        <v>1.333392600384897e-12</v>
+        <v>1.333392600384897E-12</v>
       </c>
       <c r="Q427" t="s">
         <v>110</v>
@@ -23582,10 +23582,10 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I429">
-        <v>9.999999999980045e-13</v>
+        <v>9.999999999980045E-13</v>
       </c>
       <c r="J429">
-        <v>9.999999999980045e-13</v>
+        <v>9.999999999980045E-13</v>
       </c>
       <c r="K429">
         <v>0.7190827520410722</v>
@@ -23603,7 +23603,7 @@
         <v>1.438165504082144</v>
       </c>
       <c r="P429">
-        <v>1.333355592950743e-12</v>
+        <v>1.333355592950743E-12</v>
       </c>
       <c r="Q429" t="s">
         <v>110</v>
@@ -23850,7 +23850,7 @@
         <v>0.3956512659648367</v>
       </c>
       <c r="J434">
-        <v>0.4049835125782555</v>
+        <v>0.4049835125782556</v>
       </c>
       <c r="K434">
         <v>-0.2151783929248881</v>
@@ -23859,7 +23859,7 @@
         <v>0.1298949440333877</v>
       </c>
       <c r="M434">
-        <v>0.0852834488915003</v>
+        <v>0.08528344889150036</v>
       </c>
       <c r="N434">
         <v>0.2151783929248881</v>
@@ -23912,13 +23912,13 @@
         <v>0.1990111292955907</v>
       </c>
       <c r="M435">
-        <v>-0.2208311996531859</v>
+        <v>-0.220831199653186</v>
       </c>
       <c r="N435">
-        <v>0.2208311996531859</v>
+        <v>0.220831199653186</v>
       </c>
       <c r="O435">
-        <v>0.4416623993063719</v>
+        <v>0.441662399306372</v>
       </c>
       <c r="P435">
         <v>0.1878472093308039</v>
@@ -23950,22 +23950,22 @@
         <v>2</v>
       </c>
       <c r="H436">
-        <v>0.08108126389931913</v>
+        <v>0.08108126389931924</v>
       </c>
       <c r="I436">
         <v>0.7754888201808413</v>
       </c>
       <c r="J436">
-        <v>0.1434299159198396</v>
+        <v>0.1434299159198394</v>
       </c>
       <c r="K436">
-        <v>-0.1401040279151838</v>
+        <v>-0.1401040279151837</v>
       </c>
       <c r="L436">
         <v>0.1808264249204139</v>
       </c>
       <c r="M436">
-        <v>-0.04072239700523006</v>
+        <v>-0.04072239700523017</v>
       </c>
       <c r="N436">
         <v>0.1808264249204139</v>
@@ -24430,10 +24430,10 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I445">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="J445">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="K445">
         <v>0.3092559910297279</v>
@@ -24451,7 +24451,7 @@
         <v>0.6185119820594559</v>
       </c>
       <c r="P445">
-        <v>1.333392600384897e-12</v>
+        <v>1.333392600384897E-12</v>
       </c>
       <c r="Q445" t="s">
         <v>153</v>
@@ -24536,10 +24536,10 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I447">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="J447">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="K447">
         <v>0.5019684762408921</v>
@@ -24557,7 +24557,7 @@
         <v>1.003936952481784</v>
       </c>
       <c r="P447">
-        <v>1.333355592950743e-12</v>
+        <v>1.333355592950743E-12</v>
       </c>
       <c r="Q447" t="s">
         <v>153</v>
@@ -24586,25 +24586,25 @@
         <v>2</v>
       </c>
       <c r="H448">
-        <v>0.133250597808423</v>
+        <v>0.1332505978084229</v>
       </c>
       <c r="I448">
         <v>0.8210235714708324</v>
       </c>
       <c r="J448">
-        <v>0.04572583072074465</v>
+        <v>0.04572583072074476</v>
       </c>
       <c r="K448">
-        <v>-0.866749402189577</v>
+        <v>-0.8667494021895771</v>
       </c>
       <c r="L448">
         <v>0.8210235714698324</v>
       </c>
       <c r="M448">
-        <v>0.04572583071974465</v>
+        <v>0.04572583071974477</v>
       </c>
       <c r="N448">
-        <v>0.866749402189577</v>
+        <v>0.8667494021895771</v>
       </c>
       <c r="O448">
         <v>1.733498804379154</v>
@@ -25593,28 +25593,28 @@
         <v>1</v>
       </c>
       <c r="H467">
-        <v>0.3727776844225282</v>
+        <v>0.3727776844225283</v>
       </c>
       <c r="I467">
         <v>0.3737069505113326</v>
       </c>
       <c r="J467">
-        <v>0.2535153650661392</v>
+        <v>0.2535153650661391</v>
       </c>
       <c r="K467">
-        <v>-0.31692944763333</v>
+        <v>-0.3169294476333299</v>
       </c>
       <c r="L467">
         <v>0.1858467188846302</v>
       </c>
       <c r="M467">
-        <v>0.1310827287486998</v>
+        <v>0.1310827287486997</v>
       </c>
       <c r="N467">
-        <v>0.31692944763333</v>
+        <v>0.3169294476333299</v>
       </c>
       <c r="O467">
-        <v>0.6338588952666599</v>
+        <v>0.6338588952666597</v>
       </c>
       <c r="P467">
         <v>0.2190366242704935</v>
@@ -25655,19 +25655,19 @@
         <v>0.1214075999492584</v>
       </c>
       <c r="K468">
-        <v>0.05322209038120895</v>
+        <v>0.05322209038120884</v>
       </c>
       <c r="L468">
         <v>0.07888567473567182</v>
       </c>
       <c r="M468">
-        <v>-0.1321077651168808</v>
+        <v>-0.1321077651168807</v>
       </c>
       <c r="N468">
-        <v>0.1321077651168808</v>
+        <v>0.1321077651168807</v>
       </c>
       <c r="O468">
-        <v>0.2642155302337615</v>
+        <v>0.2642155302337613</v>
       </c>
       <c r="P468">
         <v>0.1996481007045836</v>
@@ -25755,10 +25755,10 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I470">
-        <v>9.999999999980045e-13</v>
+        <v>9.999999999980045E-13</v>
       </c>
       <c r="J470">
-        <v>9.999999999980045e-13</v>
+        <v>9.999999999980045E-13</v>
       </c>
       <c r="K470">
         <v>0</v>
@@ -25776,7 +25776,7 @@
         <v>0</v>
       </c>
       <c r="P470">
-        <v>1.333392600384897e-12</v>
+        <v>1.333392600384897E-12</v>
       </c>
       <c r="Q470" t="s">
         <v>101</v>
@@ -25808,28 +25808,28 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I471">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="J471">
-        <v>9.999999999980043e-13</v>
+        <v>9.999999999980043E-13</v>
       </c>
       <c r="K471">
         <v>0</v>
       </c>
       <c r="L471">
-        <v>-2.01948391736579e-28</v>
+        <v>-2.01948391736579E-28</v>
       </c>
       <c r="M471">
-        <v>-2.01948391736579e-28</v>
+        <v>-2.01948391736579E-28</v>
       </c>
       <c r="N471">
-        <v>2.01948391736579e-28</v>
+        <v>2.01948391736579E-28</v>
       </c>
       <c r="O471">
-        <v>4.03896783473158e-28</v>
+        <v>4.03896783473158E-28</v>
       </c>
       <c r="P471">
-        <v>1.333392600384897e-12</v>
+        <v>1.333392600384897E-12</v>
       </c>
       <c r="Q471" t="s">
         <v>126</v>
@@ -25861,28 +25861,28 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I472">
-        <v>9.999999999980039e-13</v>
+        <v>9.999999999980039E-13</v>
       </c>
       <c r="J472">
-        <v>9.999999999980039e-13</v>
+        <v>9.999999999980039E-13</v>
       </c>
       <c r="K472">
         <v>0</v>
       </c>
       <c r="L472">
-        <v>-4.03896783473158e-28</v>
+        <v>-4.03896783473158E-28</v>
       </c>
       <c r="M472">
-        <v>-4.03896783473158e-28</v>
+        <v>-4.03896783473158E-28</v>
       </c>
       <c r="N472">
-        <v>4.03896783473158e-28</v>
+        <v>4.03896783473158E-28</v>
       </c>
       <c r="O472">
-        <v>8.077935669463161e-28</v>
+        <v>8.077935669463161E-28</v>
       </c>
       <c r="P472">
-        <v>1.333392600384896e-12</v>
+        <v>1.333392600384896E-12</v>
       </c>
       <c r="Q472" t="s">
         <v>126</v>
@@ -25911,13 +25911,13 @@
         <v>0</v>
       </c>
       <c r="H473">
-        <v>0.5165499007804485</v>
+        <v>0.5165499007804483</v>
       </c>
       <c r="I473">
         <v>0.2471368380394902</v>
       </c>
       <c r="J473">
-        <v>0.2363132611800613</v>
+        <v>0.2363132611800615</v>
       </c>
       <c r="K473">
         <v>0</v>
@@ -25935,7 +25935,7 @@
         <v>0</v>
       </c>
       <c r="P473">
-        <v>0.2054185419593319</v>
+        <v>0.205418541959332</v>
       </c>
       <c r="Q473" t="s">
         <v>101</v>
@@ -25973,19 +25973,19 @@
         <v>0.3758808797169404</v>
       </c>
       <c r="K474">
-        <v>-0.2429170150869917</v>
+        <v>-0.2429170150869915</v>
       </c>
       <c r="L474">
         <v>0.1033493965501126</v>
       </c>
       <c r="M474">
-        <v>0.1395676185368791</v>
+        <v>0.1395676185368789</v>
       </c>
       <c r="N474">
-        <v>0.2429170150869917</v>
+        <v>0.2429170150869915</v>
       </c>
       <c r="O474">
-        <v>0.4858340301739834</v>
+        <v>0.485834030173983</v>
       </c>
       <c r="P474">
         <v>0.2203326691644975</v>
@@ -26229,7 +26229,7 @@
         <v>0</v>
       </c>
       <c r="H479">
-        <v>0.1870544510511248</v>
+        <v>0.1870544510511249</v>
       </c>
       <c r="I479">
         <v>0.2253938273274399</v>
@@ -26291,7 +26291,7 @@
         <v>0.6440991340120368</v>
       </c>
       <c r="K480">
-        <v>-0.1045923542288147</v>
+        <v>-0.1045923542288149</v>
       </c>
       <c r="L480">
         <v>0.04804494183821328</v>
@@ -26300,10 +26300,10 @@
         <v>0.05654741239060157</v>
       </c>
       <c r="N480">
-        <v>0.1045923542288147</v>
+        <v>0.1045923542288149</v>
       </c>
       <c r="O480">
-        <v>0.2091847084576296</v>
+        <v>0.2091847084576297</v>
       </c>
       <c r="P480">
         <v>0.1678558492232617</v>
@@ -26341,22 +26341,22 @@
         <v>0.378351704982138</v>
       </c>
       <c r="J481">
-        <v>0.576505706060188</v>
+        <v>0.5765057060601879</v>
       </c>
       <c r="K481">
         <v>-0.03731950786463611</v>
       </c>
       <c r="L481">
-        <v>0.1049129358164848</v>
+        <v>0.1049129358164849</v>
       </c>
       <c r="M481">
-        <v>-0.06759342795184875</v>
+        <v>-0.06759342795184886</v>
       </c>
       <c r="N481">
-        <v>0.1049129358164848</v>
+        <v>0.1049129358164849</v>
       </c>
       <c r="O481">
-        <v>0.2098258716329697</v>
+        <v>0.2098258716329698</v>
       </c>
       <c r="P481">
         <v>0.1741511016264506</v>
@@ -26653,31 +26653,31 @@
         <v>0</v>
       </c>
       <c r="H487">
-        <v>0.3208961851582732</v>
+        <v>0.3208961851582733</v>
       </c>
       <c r="I487">
         <v>0.4562705131617057</v>
       </c>
       <c r="J487">
-        <v>0.2228333016800211</v>
+        <v>0.222833301680021</v>
       </c>
       <c r="K487">
-        <v>0.0667726424551176</v>
+        <v>0.06677264245511771</v>
       </c>
       <c r="L487">
         <v>0.2061658062808228</v>
       </c>
       <c r="M487">
-        <v>-0.2729384487359404</v>
+        <v>-0.2729384487359405</v>
       </c>
       <c r="N487">
-        <v>0.2729384487359404</v>
+        <v>0.2729384487359405</v>
       </c>
       <c r="O487">
-        <v>0.5458768974718807</v>
+        <v>0.545876897471881</v>
       </c>
       <c r="P487">
-        <v>0.2130627256108006</v>
+        <v>0.2130627256108005</v>
       </c>
       <c r="Q487" t="s">
         <v>152</v>
@@ -27663,28 +27663,28 @@
         <v>0.05832606716527677</v>
       </c>
       <c r="I506">
-        <v>0.8070964201077024</v>
+        <v>0.8070964201077026</v>
       </c>
       <c r="J506">
-        <v>0.1345775127270208</v>
+        <v>0.1345775127270207</v>
       </c>
       <c r="K506">
         <v>0.004867569147985251</v>
       </c>
       <c r="L506">
-        <v>0.681491528197303</v>
+        <v>0.6814915281973031</v>
       </c>
       <c r="M506">
-        <v>-0.6863590973452882</v>
+        <v>-0.6863590973452883</v>
       </c>
       <c r="N506">
-        <v>0.6863590973452882</v>
+        <v>0.6863590973452883</v>
       </c>
       <c r="O506">
-        <v>1.372718194690576</v>
+        <v>1.372718194690577</v>
       </c>
       <c r="P506">
-        <v>0.1090274438688571</v>
+        <v>0.109027443868857</v>
       </c>
       <c r="Q506" t="s">
         <v>129</v>
@@ -27831,16 +27831,16 @@
         <v>0.1765287352705804</v>
       </c>
       <c r="L509">
-        <v>0.002966232531387503</v>
+        <v>0.002966232531387558</v>
       </c>
       <c r="M509">
-        <v>-0.1794949678019679</v>
+        <v>-0.179494967801968</v>
       </c>
       <c r="N509">
-        <v>0.1794949678019679</v>
+        <v>0.179494967801968</v>
       </c>
       <c r="O509">
-        <v>0.3589899356039359</v>
+        <v>0.358989935603936</v>
       </c>
       <c r="P509">
         <v>0.2126588127176295</v>
@@ -27884,7 +27884,7 @@
         <v>0.1705713572421326</v>
       </c>
       <c r="L510">
-        <v>-0.04739627412421643</v>
+        <v>-0.04739627412421649</v>
       </c>
       <c r="M510">
         <v>-0.1231750831179161</v>
@@ -28190,13 +28190,13 @@
         <v>0</v>
       </c>
       <c r="H516">
-        <v>0.2837978010886754</v>
+        <v>0.2837978010886755</v>
       </c>
       <c r="I516">
         <v>0.2577169089226354</v>
       </c>
       <c r="J516">
-        <v>0.4584852899886892</v>
+        <v>0.4584852899886891</v>
       </c>
       <c r="K516">
         <v>0</v>
@@ -28252,19 +28252,19 @@
         <v>0.6763096420004518</v>
       </c>
       <c r="K517">
-        <v>-0.1595349245749221</v>
+        <v>-0.1595349245749222</v>
       </c>
       <c r="L517">
         <v>-0.05828942743684049</v>
       </c>
       <c r="M517">
-        <v>0.2178243520117626</v>
+        <v>0.2178243520117628</v>
       </c>
       <c r="N517">
-        <v>0.2178243520117626</v>
+        <v>0.2178243520117628</v>
       </c>
       <c r="O517">
-        <v>0.4356487040235253</v>
+        <v>0.4356487040235255</v>
       </c>
       <c r="P517">
         <v>0.1624642284286605</v>
